--- a/camera v0.1/exposure lookup table 2.xlsx
+++ b/camera v0.1/exposure lookup table 2.xlsx
@@ -103,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,1099 +258,1099 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="365"/>
                 <c:pt idx="0">
-                  <c:v>6.7425216418587341</c:v>
+                  <c:v>25.123809116697373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7650416152744342</c:v>
+                  <c:v>25.077621655297023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7875582519276643</c:v>
+                  <c:v>25.031441037447721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8100698837461842</c:v>
+                  <c:v>24.985270684291265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8325748430285209</c:v>
+                  <c:v>24.939114016209022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8550714625675138</c:v>
+                  <c:v>24.892974452568541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8775580757738251</c:v>
+                  <c:v>24.846855411470244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9000330167994033</c:v>
+                  <c:v>24.800760309494219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9224946206608946</c:v>
+                  <c:v>24.754692561447083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.944941223362985</c:v>
+                  <c:v>24.708655580109038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9673711620216716</c:v>
+                  <c:v>24.662652775981034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9897827749874546</c:v>
+                  <c:v>24.616687557032101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0121744019684336</c:v>
+                  <c:v>24.570763328446908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.034544384153306</c:v>
+                  <c:v>24.524883492373476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0568910643342528</c:v>
+                  <c:v>24.47905144767115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.079212787029709</c:v>
+                  <c:v>24.433270589658814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1015078986070055</c:v>
+                  <c:v>24.38754430986334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1237747474048687</c:v>
+                  <c:v>24.341875995768358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.146011683855785</c:v>
+                  <c:v>24.296269030563295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1682170606081996</c:v>
+                  <c:v>24.250726792892738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1903892326485543</c:v>
+                  <c:v>24.205252656606152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2125265574231552</c:v>
+                  <c:v>24.159849990507926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.2346273949598583</c:v>
+                  <c:v>24.11452215810781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2566901079895532</c:v>
+                  <c:v>24.069272517371743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.2787130620674665</c:v>
+                  <c:v>24.024104420473098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.3006946256942324</c:v>
+                  <c:v>23.979021213544314</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3226331704367684</c:v>
+                  <c:v>23.934026236429048</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.344527071048903</c:v>
+                  <c:v>23.889122822434736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.366374705591781</c:v>
+                  <c:v>23.844314298085646</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3881744555540223</c:v>
+                  <c:v>23.799603982876466</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.4099247059716191</c:v>
+                  <c:v>23.754995189026364</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.431623845547576</c:v>
+                  <c:v>23.710491221233635</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.4532702667712822</c:v>
+                  <c:v>23.666095376430874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.474862366037593</c:v>
+                  <c:v>23.621810943540734</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.4963985437656326</c:v>
+                  <c:v>23.577641203232272</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.5178772045172897</c:v>
+                  <c:v>23.533589427677917</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.5392967571154124</c:v>
+                  <c:v>23.489658880311065</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.5606556147616866</c:v>
+                  <c:v>23.445852815584313</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.5819521951541873</c:v>
+                  <c:v>23.402174478728355</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.6031849206045967</c:v>
+                  <c:v>23.358627105511594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.6243522181550851</c:v>
+                  <c:v>23.3152139220004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6454525196948389</c:v>
+                  <c:v>23.271938144320142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.6664842620762244</c:v>
+                  <c:v>23.228802978416915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.6874458872305951</c:v>
+                  <c:v>23.185811619820054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.7083358422837076</c:v>
+                  <c:v>23.142967253405391</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.7291525796707718</c:v>
+                  <c:v>23.100273053159309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.7498945572510873</c:v>
+                  <c:v>23.057732181943631</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.7705602384222958</c:v>
+                  <c:v>23.015347791261281</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.7911480922342093</c:v>
+                  <c:v>22.973123021022833</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.8116565935022289</c:v>
+                  <c:v>22.9310609993139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.8320842229203329</c:v>
+                  <c:v>22.889164842163396</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.8524294671736286</c:v>
+                  <c:v>22.847437653312689</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.8726908190504616</c:v>
+                  <c:v>22.80588252398568</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.8928667775540742</c:v>
+                  <c:v>22.764502532659797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.9129558480137998</c:v>
+                  <c:v>22.723300744837939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.932956542195793</c:v>
+                  <c:v>22.682280212821368</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.9528673784132771</c:v>
+                  <c:v>22.6414439754836</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.9726868816363128</c:v>
+                  <c:v>22.600795058045271</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.9924135836010723</c:v>
+                  <c:v>22.560336471850032</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.0120460229186072</c:v>
+                  <c:v>22.520071214141456</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.0315827451831119</c:v>
+                  <c:v>22.480002267841005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.051022303079673</c:v>
+                  <c:v>22.44013260132704</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.0703632564914809</c:v>
+                  <c:v>22.400465168214925</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.0896041726065242</c:v>
+                  <c:v>22.361002907138214</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.1087436260237258</c:v>
+                  <c:v>22.321748741530961</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.1277801988585505</c:v>
+                  <c:v>22.282705579411125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.1467124808480378</c:v>
+                  <c:v>22.243876313165174</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.1655390694552707</c:v>
+                  <c:v>22.205263819333776</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.184258569973295</c:v>
+                  <c:v>22.166870958398722</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.2028695956284245</c:v>
+                  <c:v>22.128700574571003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.2213707676829841</c:v>
+                  <c:v>22.090755495580126</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.2397607155374466</c:v>
+                  <c:v>22.053038532464605</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.258038076831971</c:v>
+                  <c:v>22.015552479363727</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.2762014975473299</c:v>
+                  <c:v>21.978300113310571</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.2942496321052133</c:v>
+                  <c:v>21.941284194026252</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.3121811434679138</c:v>
+                  <c:v>21.90450746371549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3299947032373751</c:v>
+                  <c:v>21.867972646863478</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.3476889917536035</c:v>
+                  <c:v>21.831682450034013</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.3652626981924332</c:v>
+                  <c:v>21.795639561669024</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.3827145206626312</c:v>
+                  <c:v>21.759846651889383</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.4000431663023409</c:v>
+                  <c:v>21.724306372297111</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.4172473513748685</c:v>
+                  <c:v>21.689021355778934</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.434325801363773</c:v>
+                  <c:v>21.653994216311244</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.451277251067296</c:v>
+                  <c:v>21.619227548766442</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.4681004446920802</c:v>
+                  <c:v>21.584723928720706</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.4847941359462062</c:v>
+                  <c:v>21.550485912263195</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5013570881315257</c:v>
+                  <c:v>21.516516035806681</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.5177880742352627</c:v>
+                  <c:v>21.482816815899653</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.5340858770209245</c:v>
+                  <c:v>21.449390749039889</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.5502492891184758</c:v>
+                  <c:v>21.416240311489496</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.5662771131137809</c:v>
+                  <c:v>21.38336795909148</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.5821681616373109</c:v>
+                  <c:v>21.350776127087812</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.5979212574521</c:v>
+                  <c:v>21.318467229939007</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.6135352335409721</c:v>
+                  <c:v>21.28644366114527</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.629008933192976</c:v>
+                  <c:v>21.254707793069187</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.6443412100890953</c:v>
+                  <c:v>21.223261976759947</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.6595309283871593</c:v>
+                  <c:v>21.192108541779206</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.6745769628059861</c:v>
+                  <c:v>20.161249796028489</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.6894781987087555</c:v>
+                  <c:v>20.130688025578223</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.7042335321855715</c:v>
+                  <c:v>20.100425494498381</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.7188418701352539</c:v>
+                  <c:v>20.070464444690757</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.7333021303463045</c:v>
+                  <c:v>20.040807095722869</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.7476132415770902</c:v>
+                  <c:v>20.011455644663549</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.7617741436351961</c:v>
+                  <c:v>19.982412265920175</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.7757837874559694</c:v>
+                  <c:v>19.95367911107757</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.7896411351802337</c:v>
+                  <c:v>19.925258308738631</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.8033451602311779</c:v>
+                  <c:v>19.897151964366632</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.8168948473904036</c:v>
+                  <c:v>19.869362160129239</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.8302891928731384</c:v>
+                  <c:v>19.841890954744265</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.8435272044025943</c:v>
+                  <c:v>19.814740383327162</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.8566079012834802</c:v>
+                  <c:v>19.787912457240253</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.86953031447465</c:v>
+                  <c:v>19.761409163943711</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.8822934866608971</c:v>
+                  <c:v>19.735232466848352</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.8948964723238646</c:v>
+                  <c:v>19.709384305170165</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.9073383378120994</c:v>
+                  <c:v>19.68386659378665</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.9196181614102183</c:v>
+                  <c:v>19.658681223094966</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7.9317350334071826</c:v>
+                  <c:v>19.633830058871897</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.9436880561636976</c:v>
+                  <c:v>19.609314942135601</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.955476344178714</c:v>
+                  <c:v>19.585137689009265</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.9670990241550177</c:v>
+                  <c:v>19.561300090586528</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.9785552350639346</c:v>
+                  <c:v>19.537803912798811</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.9898441282091124</c:v>
+                  <c:v>19.5146508962845</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8.000964867289392</c:v>
+                  <c:v>19.491842756259974</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.011916628460769</c:v>
+                  <c:v>19.469381182392564</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.022698600397419</c:v>
+                  <c:v>19.447267838675359</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.033309984351801</c:v>
+                  <c:v>19.425504363303951</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.0437499942138402</c:v>
+                  <c:v>19.404092368555055</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.0540178565691516</c:v>
+                  <c:v>19.383033440667091</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.0641128107563453</c:v>
+                  <c:v>19.362329139722657</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.0740341089233709</c:v>
+                  <c:v>19.341980999532964</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>8.0837810160829235</c:v>
+                  <c:v>19.321990527524196</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.0933528101668983</c:v>
+                  <c:v>19.302359204625855</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8.1027487820798658</c:v>
+                  <c:v>19.283088485161041</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.1119682357516236</c:v>
+                  <c:v>19.264179796738709</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.1210104881887464</c:v>
+                  <c:v>19.245634540147922</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.1298748695251941</c:v>
+                  <c:v>19.22745408925406</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8.1385607230719277</c:v>
+                  <c:v>19.209639790897068</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.147067405365565</c:v>
+                  <c:v>19.192192964791644</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>8.1553942862160458</c:v>
+                  <c:v>19.175114903429513</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>8.16354074875332</c:v>
+                  <c:v>19.158406871983637</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8.1715061894730461</c:v>
+                  <c:v>19.142070108214519</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8.1792900182812929</c:v>
+                  <c:v>19.126105822378495</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8.1868916585382685</c:v>
+                  <c:v>19.110515197138078</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8.194310547101022</c:v>
+                  <c:v>19.095299387474338</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.2015461343651825</c:v>
+                  <c:v>19.080459520601348</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.208597884305652</c:v>
+                  <c:v>19.065996695882678</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.2154652745163332</c:v>
+                  <c:v>19.051911984749943</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>8.2221477962488194</c:v>
+                  <c:v>19.03820643062344</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>8.2286449544500933</c:v>
+                  <c:v>19.024881048834843</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>8.2349562677991877</c:v>
+                  <c:v>19.011936826551988</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>8.2410812687428567</c:v>
+                  <c:v>18.999374722705735</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>8.2470195035302041</c:v>
+                  <c:v>18.987195667918947</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>8.2527705322463021</c:v>
+                  <c:v>18.975400564437521</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>8.2583339288447775</c:v>
+                  <c:v>18.963990286063581</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>8.2637092811793771</c:v>
+                  <c:v>18.952965678090706</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>8.2688961910345</c:v>
+                  <c:v>18.942327557241345</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>8.2738942741546975</c:v>
+                  <c:v>18.932076711606292</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>8.2787031602731354</c:v>
+                  <c:v>18.922213900586311</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>8.2833224931390319</c:v>
+                  <c:v>18.91273985483587</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>8.2877519305440437</c:v>
+                  <c:v>18.90365527620903</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>8.2919911443476195</c:v>
+                  <c:v>18.89496083770743</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>8.2960398205013082</c:v>
+                  <c:v>18.88665718343044</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>8.2998976590720233</c:v>
+                  <c:v>18.878744928527446</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>8.3035643742642655</c:v>
+                  <c:v>18.871224659152276</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>8.3070396944412899</c:v>
+                  <c:v>18.864096932419773</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>8.3103233621452404</c:v>
+                  <c:v>18.85736227636454</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>8.313415134116207</c:v>
+                  <c:v>18.851021189901793</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>8.3163147813102558</c:v>
+                  <c:v>18.84507414279043</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>8.3190220889164017</c:v>
+                  <c:v>18.839521575598212</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8.3215368563725072</c:v>
+                  <c:v>18.834363899669125</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8.323858897380159</c:v>
+                  <c:v>18.829601497092924</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>8.3259880399184532</c:v>
+                  <c:v>18.825234720676807</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>8.3279241262567449</c:v>
+                  <c:v>18.821263893919287</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8.3296670129663397</c:v>
+                  <c:v>18.817689310986232</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>8.3312165709311099</c:v>
+                  <c:v>18.814511236689064</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>8.3325726853570607</c:v>
+                  <c:v>18.811729906465139</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>8.3337352557808373</c:v>
+                  <c:v>18.809345526360321</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>8.3347041960771726</c:v>
+                  <c:v>18.807358273013698</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>8.3354794344652525</c:v>
+                  <c:v>18.805768293644519</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>8.3360609135140482</c:v>
+                  <c:v>18.804575706041256</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>8.3364485901465635</c:v>
+                  <c:v>18.803780598552908</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8.3366424356430304</c:v>
+                  <c:v>18.803383030082447</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8.3366424356430304</c:v>
+                  <c:v>18.803383030082447</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>8.3364485901465635</c:v>
+                  <c:v>18.803780598552908</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>8.3360609135140482</c:v>
+                  <c:v>18.804575706041256</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>8.3354794344652525</c:v>
+                  <c:v>18.805768293644519</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>8.3347041960771726</c:v>
+                  <c:v>18.807358273013698</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>8.3337352557808373</c:v>
+                  <c:v>18.809345526360321</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>8.3325726853570607</c:v>
+                  <c:v>18.811729906465139</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>8.3312165709311099</c:v>
+                  <c:v>18.814511236689064</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>8.3296670129663397</c:v>
+                  <c:v>18.817689310986232</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>8.3279241262567449</c:v>
+                  <c:v>18.821263893919287</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>8.3259880399184532</c:v>
+                  <c:v>18.825234720676807</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>8.323858897380159</c:v>
+                  <c:v>18.829601497092924</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>8.3215368563725072</c:v>
+                  <c:v>18.834363899669125</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>8.3190220889164017</c:v>
+                  <c:v>18.839521575598212</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>8.3163147813102558</c:v>
+                  <c:v>18.84507414279043</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>8.313415134116207</c:v>
+                  <c:v>18.851021189901793</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>8.3103233621452404</c:v>
+                  <c:v>18.85736227636454</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>8.3070396944412916</c:v>
+                  <c:v>18.864096932419773</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>8.3035643742642655</c:v>
+                  <c:v>18.871224659152276</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>8.2998976590720233</c:v>
+                  <c:v>18.878744928527446</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>8.2960398205013082</c:v>
+                  <c:v>18.88665718343044</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>8.2919911443476195</c:v>
+                  <c:v>18.89496083770743</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>8.2877519305440437</c:v>
+                  <c:v>18.90365527620903</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>8.2833224931390319</c:v>
+                  <c:v>18.91273985483587</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>8.2787031602731354</c:v>
+                  <c:v>18.922213900586311</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>8.2738942741546975</c:v>
+                  <c:v>18.932076711606292</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>8.2688961910345</c:v>
+                  <c:v>18.942327557241345</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>8.2637092811793771</c:v>
+                  <c:v>18.952965678090706</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>8.2583339288447775</c:v>
+                  <c:v>18.963990286063581</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>8.2527705322463021</c:v>
+                  <c:v>18.975400564437521</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>8.2470195035302041</c:v>
+                  <c:v>18.987195667918947</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.2410812687428567</c:v>
+                  <c:v>18.999374722705735</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>8.2349562677991877</c:v>
+                  <c:v>19.011936826551988</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>8.2286449544500933</c:v>
+                  <c:v>19.024881048834843</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>8.2221477962488194</c:v>
+                  <c:v>19.03820643062344</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>8.2154652745163332</c:v>
+                  <c:v>19.051911984749943</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>8.208597884305652</c:v>
+                  <c:v>19.065996695882678</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>8.2015461343651825</c:v>
+                  <c:v>19.080459520601348</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>8.1943105471010238</c:v>
+                  <c:v>19.095299387474334</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>8.1868916585382685</c:v>
+                  <c:v>19.110515197138078</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>8.1792900182812929</c:v>
+                  <c:v>19.126105822378495</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>8.1715061894730461</c:v>
+                  <c:v>19.142070108214519</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>8.16354074875332</c:v>
+                  <c:v>19.158406871983637</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>8.1553942862160458</c:v>
+                  <c:v>19.175114903429513</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>8.147067405365565</c:v>
+                  <c:v>19.192192964791644</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>8.1385607230719277</c:v>
+                  <c:v>19.209639790897068</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>8.1298748695251941</c:v>
+                  <c:v>19.22745408925406</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>8.1210104881887482</c:v>
+                  <c:v>19.245634540147922</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>8.1119682357516236</c:v>
+                  <c:v>19.264179796738709</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>8.1027487820798658</c:v>
+                  <c:v>19.283088485161041</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>8.0933528101668983</c:v>
+                  <c:v>19.302359204625855</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>8.0837810160829235</c:v>
+                  <c:v>19.321990527524193</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>8.0740341089233709</c:v>
+                  <c:v>19.341980999532961</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>8.0641128107563453</c:v>
+                  <c:v>19.362329139722657</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.0540178565691516</c:v>
+                  <c:v>20.383033440667091</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.0437499942138402</c:v>
+                  <c:v>20.404092368555055</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.0333099843518028</c:v>
+                  <c:v>20.425504363303951</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.022698600397419</c:v>
+                  <c:v>20.447267838675359</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.011916628460769</c:v>
+                  <c:v>20.469381182392564</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.000964867289392</c:v>
+                  <c:v>20.491842756259974</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.9898441282091124</c:v>
+                  <c:v>20.5146508962845</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.9785552350639346</c:v>
+                  <c:v>20.537803912798811</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.9670990241550186</c:v>
+                  <c:v>20.561300090586524</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.9554763441787131</c:v>
+                  <c:v>20.585137689009265</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.9436880561636976</c:v>
+                  <c:v>20.609314942135601</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.9317350334071826</c:v>
+                  <c:v>20.633830058871894</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.9196181614102183</c:v>
+                  <c:v>20.658681223094966</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.9073383378121012</c:v>
+                  <c:v>20.683866593786647</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.8948964723238646</c:v>
+                  <c:v>20.709384305170165</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.8822934866608971</c:v>
+                  <c:v>20.735232466848352</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>8.86953031447465</c:v>
+                  <c:v>20.761409163943711</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>8.8566079012834802</c:v>
+                  <c:v>20.787912457240253</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>8.8435272044025943</c:v>
+                  <c:v>20.814740383327162</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>8.8302891928731384</c:v>
+                  <c:v>20.841890954744265</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>8.8168948473904045</c:v>
+                  <c:v>20.869362160129239</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>8.8033451602311779</c:v>
+                  <c:v>20.897151964366628</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>8.7896411351802346</c:v>
+                  <c:v>20.925258308738631</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>8.7757837874559712</c:v>
+                  <c:v>20.953679111077566</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>8.7617741436351952</c:v>
+                  <c:v>20.982412265920175</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>8.7476132415770902</c:v>
+                  <c:v>21.011455644663549</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>8.7333021303463045</c:v>
+                  <c:v>21.040807095722869</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>8.7188418701352539</c:v>
+                  <c:v>21.070464444690757</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>8.7042335321855724</c:v>
+                  <c:v>21.100425494498381</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>8.6894781987087555</c:v>
+                  <c:v>21.130688025578223</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>8.6745769628059861</c:v>
+                  <c:v>21.161249796028489</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>8.6595309283871593</c:v>
+                  <c:v>21.192108541779202</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>8.6443412100890953</c:v>
+                  <c:v>21.223261976759943</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8.629008933192976</c:v>
+                  <c:v>21.254707793069183</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8.6135352335409703</c:v>
+                  <c:v>21.28644366114527</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8.5979212574521</c:v>
+                  <c:v>21.318467229939007</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8.5821681616373109</c:v>
+                  <c:v>21.350776127087812</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8.5662771131137827</c:v>
+                  <c:v>21.38336795909148</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8.5502492891184758</c:v>
+                  <c:v>21.416240311489496</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8.5340858770209245</c:v>
+                  <c:v>21.449390749039889</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8.5177880742352627</c:v>
+                  <c:v>21.482816815899653</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8.5013570881315275</c:v>
+                  <c:v>21.516516035806681</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8.484794135946208</c:v>
+                  <c:v>21.550485912263191</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8.4681004446920802</c:v>
+                  <c:v>21.584723928720702</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8.4512772510672942</c:v>
+                  <c:v>21.619227548766442</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8.434325801363773</c:v>
+                  <c:v>21.653994216311244</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8.4172473513748685</c:v>
+                  <c:v>21.689021355778934</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>8.4000431663023427</c:v>
+                  <c:v>21.724306372297111</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>8.3827145206626312</c:v>
+                  <c:v>21.759846651889383</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>8.365262698192435</c:v>
+                  <c:v>21.79563956166902</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>8.3476889917536035</c:v>
+                  <c:v>21.831682450034013</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>8.3299947032373751</c:v>
+                  <c:v>21.867972646863475</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>8.3121811434679138</c:v>
+                  <c:v>21.90450746371549</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>8.294249632105215</c:v>
+                  <c:v>21.941284194026249</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>8.2762014975473299</c:v>
+                  <c:v>21.978300113310571</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>8.2580380768319728</c:v>
+                  <c:v>22.015552479363727</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>8.2397607155374466</c:v>
+                  <c:v>22.053038532464605</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>8.2213707676829841</c:v>
+                  <c:v>22.090755495580126</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>8.2028695956284245</c:v>
+                  <c:v>22.128700574571003</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>8.1842585699732968</c:v>
+                  <c:v>22.166870958398718</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>8.1655390694552707</c:v>
+                  <c:v>22.205263819333776</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>8.1467124808480378</c:v>
+                  <c:v>22.243876313165174</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>8.1277801988585523</c:v>
+                  <c:v>22.282705579411125</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>8.1087436260237276</c:v>
+                  <c:v>22.321748741530957</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>8.0896041726065224</c:v>
+                  <c:v>22.361002907138214</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>8.0703632564914827</c:v>
+                  <c:v>22.400465168214925</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>8.051022303079673</c:v>
+                  <c:v>22.44013260132704</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>8.0315827451831137</c:v>
+                  <c:v>22.480002267841005</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>8.0120460229186072</c:v>
+                  <c:v>22.520071214141456</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>7.9924135836010732</c:v>
+                  <c:v>22.560336471850029</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>7.9726868816363137</c:v>
+                  <c:v>22.600795058045271</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>7.952867378413278</c:v>
+                  <c:v>22.641443975483597</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>7.9329565421957939</c:v>
+                  <c:v>22.682280212821368</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>7.9129558480138007</c:v>
+                  <c:v>22.723300744837939</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>7.8928667775540742</c:v>
+                  <c:v>22.764502532659797</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>7.8726908190504616</c:v>
+                  <c:v>22.80588252398568</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>7.8524294671736286</c:v>
+                  <c:v>22.847437653312689</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>7.8320842229203329</c:v>
+                  <c:v>22.889164842163396</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>7.8116565935022289</c:v>
+                  <c:v>22.9310609993139</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>7.7911480922342102</c:v>
+                  <c:v>22.973123021022833</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>7.7705602384222967</c:v>
+                  <c:v>23.015347791261277</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>7.7498945572510891</c:v>
+                  <c:v>23.057732181943628</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>7.7291525796707727</c:v>
+                  <c:v>23.100273053159309</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>7.7083358422837076</c:v>
+                  <c:v>23.142967253405391</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>7.6874458872305942</c:v>
+                  <c:v>23.185811619820058</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>7.6664842620762252</c:v>
+                  <c:v>23.228802978416915</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>7.6454525196948389</c:v>
+                  <c:v>23.271938144320142</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>7.624352218155086</c:v>
+                  <c:v>23.3152139220004</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>7.6031849206045967</c:v>
+                  <c:v>23.358627105511594</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>7.5819521951541873</c:v>
+                  <c:v>23.402174478728355</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>7.5606556147616875</c:v>
+                  <c:v>23.44585281558431</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>7.5392967571154124</c:v>
+                  <c:v>23.489658880311065</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>7.5178772045172906</c:v>
+                  <c:v>23.533589427677917</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>7.4963985437656326</c:v>
+                  <c:v>23.577641203232272</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>7.474862366037593</c:v>
+                  <c:v>23.621810943540734</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>7.4532702667712822</c:v>
+                  <c:v>23.666095376430874</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>7.431623845547576</c:v>
+                  <c:v>23.710491221233635</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>7.4099247059716191</c:v>
+                  <c:v>23.75499518902636</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>7.3881744555540223</c:v>
+                  <c:v>23.799603982876466</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>7.3663747055917819</c:v>
+                  <c:v>23.844314298085646</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>7.344527071048903</c:v>
+                  <c:v>23.889122822434736</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>7.3226331704367684</c:v>
+                  <c:v>23.934026236429048</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>7.3006946256942333</c:v>
+                  <c:v>23.979021213544311</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>7.2787130620674665</c:v>
+                  <c:v>24.024104420473094</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>7.2566901079895532</c:v>
+                  <c:v>24.069272517371747</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>7.2346273949598583</c:v>
+                  <c:v>24.114522158107807</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>7.2125265574231552</c:v>
+                  <c:v>24.159849990507926</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>7.1903892326485543</c:v>
+                  <c:v>24.205252656606149</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>7.1682170606081996</c:v>
+                  <c:v>24.250726792892738</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>7.1460116838557868</c:v>
+                  <c:v>24.296269030563295</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>7.1237747474048696</c:v>
+                  <c:v>24.341875995768358</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>7.1015078986070055</c:v>
+                  <c:v>24.38754430986334</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>7.0792127870297099</c:v>
+                  <c:v>24.433270589658811</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>7.0568910643342528</c:v>
+                  <c:v>24.47905144767115</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>7.034544384153306</c:v>
+                  <c:v>24.524883492373476</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>7.0121744019684344</c:v>
+                  <c:v>24.570763328446908</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>6.9897827749874546</c:v>
+                  <c:v>24.616687557032101</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>6.9673711620216716</c:v>
+                  <c:v>24.66265277598103</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>6.944941223362985</c:v>
+                  <c:v>24.708655580109038</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>6.9224946206608946</c:v>
+                  <c:v>24.754692561447083</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>6.9000330167994042</c:v>
+                  <c:v>24.800760309494216</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>6.8775580757738251</c:v>
+                  <c:v>24.846855411470244</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>6.8550714625675147</c:v>
+                  <c:v>24.892974452568538</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>6.8325748430285218</c:v>
+                  <c:v>24.939114016209022</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>6.8100698837461842</c:v>
+                  <c:v>24.985270684291265</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>6.7875582519276643</c:v>
+                  <c:v>25.031441037447721</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>6.7650416152744342</c:v>
+                  <c:v>25.077621655297023</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>6.742521641858735</c:v>
+                  <c:v>25.123809116697373</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>6.72</c:v>
+                  <c:v>25.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43580032"/>
-        <c:axId val="43647744"/>
+        <c:axId val="170997632"/>
+        <c:axId val="170999168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43580032"/>
+        <c:axId val="170997632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43647744"/>
+        <c:crossAx val="170999168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43647744"/>
+        <c:axId val="170999168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43580032"/>
+        <c:crossAx val="170997632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H356" sqref="H356"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H345" sqref="H345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,10 +1778,10 @@
       <c r="A2" s="12"/>
       <c r="E2">
         <f>VLOOKUP(F2,Z16:AA19,2)</f>
-        <v>2.6166666666666671</v>
+        <v>-5.3666666666666671</v>
       </c>
       <c r="F2">
-        <v>5.72</v>
+        <v>24.17</v>
       </c>
       <c r="AF2" t="s">
         <v>20</v>
@@ -1815,18 +1815,18 @@
       </c>
       <c r="E3" s="3">
         <f>D3*$E$2</f>
-        <v>2.2521641858734648E-2</v>
+        <v>-4.6190883302627744E-2</v>
       </c>
       <c r="F3" s="3">
         <f>E3+$F$2</f>
-        <v>5.7425216418587341</v>
+        <v>24.123809116697373</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>F3+G3</f>
-        <v>6.7425216418587341</v>
+        <v>25.123809116697373</v>
       </c>
       <c r="I3" s="3"/>
       <c r="AF3" t="s">
@@ -1858,18 +1858,18 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E67" si="2">D4*$E$2</f>
-        <v>4.5041615274434101E-2</v>
+        <v>-9.2378344702979481E-2</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F67" si="3">E4+$F$2</f>
-        <v>5.7650416152744342</v>
+        <v>24.077621655297023</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H67" si="4">F4+G4</f>
-        <v>6.7650416152744342</v>
+        <v>25.077621655297023</v>
       </c>
       <c r="I4" s="3"/>
       <c r="AF4" t="s">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>6.7558251927664376E-2</v>
+        <v>-0.13855896255227979</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>5.7875582519276643</v>
+        <v>24.031441037447721</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>6.7875582519276643</v>
+        <v>25.031441037447721</v>
       </c>
       <c r="I5" s="3"/>
       <c r="AF5" t="s">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="AJ5" s="18">
         <f ca="1">NOW()</f>
-        <v>42723.788949768517</v>
+        <v>42723.873956944444</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1935,23 +1935,23 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>9.0069883746184701E-2</v>
+        <v>-0.18472931570873549</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
-        <v>5.8100698837461842</v>
+        <v>23.985270684291265</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>6.8100698837461842</v>
+        <v>24.985270684291265</v>
       </c>
       <c r="I6" s="3"/>
       <c r="AJ6" s="2">
         <f ca="1">AJ5-AI1</f>
-        <v>353.78894976851734</v>
+        <v>353.87395694444422</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1968,18 +1968,18 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>0.11257484302852143</v>
+        <v>-0.23088598379098021</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
-        <v>5.8325748430285209</v>
+        <v>23.939114016209022</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>6.8325748430285209</v>
+        <v>24.939114016209022</v>
       </c>
       <c r="I7" s="3"/>
       <c r="Z7" t="s">
@@ -2009,18 +2009,18 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>0.13507146256751407</v>
+        <v>-0.2770255474314619</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>5.8550714625675138</v>
+        <v>23.892974452568541</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>6.8550714625675138</v>
+        <v>24.892974452568541</v>
       </c>
       <c r="I8" s="3"/>
       <c r="W8" t="s">
@@ -2041,18 +2041,18 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>0.15755807577382502</v>
+        <v>-0.32314458852975575</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
-        <v>5.8775580757738251</v>
+        <v>23.846855411470244</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>6.8775580757738251</v>
+        <v>24.846855411470244</v>
       </c>
       <c r="I9" s="3"/>
       <c r="W9" t="s">
@@ -2103,18 +2103,18 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>0.18003301679940367</v>
+        <v>-0.36923969050578331</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>5.9000330167994033</v>
+        <v>23.800760309494219</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>6.9000330167994033</v>
+        <v>24.800760309494219</v>
       </c>
       <c r="I10" s="3"/>
       <c r="W10" t="s">
@@ -2127,7 +2127,7 @@
         <v>43</v>
       </c>
       <c r="Z10" s="16">
-        <f t="shared" ref="Z10:Z13" si="6">X10+(Y10/60)</f>
+        <f t="shared" ref="Z10" si="6">X10+(Y10/60)</f>
         <v>5.7166666666666668</v>
       </c>
       <c r="AB10">
@@ -2165,18 +2165,18 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>0.20249462066089507</v>
+        <v>-0.41530743855291857</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
-        <v>5.9224946206608946</v>
+        <v>23.754692561447083</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>6.9224946206608946</v>
+        <v>24.754692561447083</v>
       </c>
       <c r="I11" s="3"/>
       <c r="W11" t="s">
@@ -2224,18 +2224,18 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>0.22494122336298497</v>
+        <v>-0.46134441989096281</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="3"/>
-        <v>5.944941223362985</v>
+        <v>23.708655580109038</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>6.944941223362985</v>
+        <v>24.708655580109038</v>
       </c>
       <c r="I12" s="3"/>
       <c r="W12" t="s">
@@ -2286,18 +2286,18 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>0.24737116202167148</v>
+        <v>-0.50734722401896948</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>5.9673711620216716</v>
+        <v>23.662652775981034</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>6.9673711620216716</v>
+        <v>24.662652775981034</v>
       </c>
       <c r="I13" s="3"/>
       <c r="W13" t="s">
@@ -2321,18 +2321,18 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>0.26978277498745462</v>
+        <v>-0.5533124429679005</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>5.9897827749874546</v>
+        <v>23.616687557032101</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>6.9897827749874546</v>
+        <v>24.616687557032101</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -2350,18 +2350,18 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0.29217440196843392</v>
+        <v>-0.59923667155309379</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>6.0121744019684336</v>
+        <v>23.570763328446908</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>7.0121744019684336</v>
+        <v>24.570763328446908</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -2379,18 +2379,18 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>0.31454438415330632</v>
+        <v>-0.64511650762652628</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>6.034544384153306</v>
+        <v>23.524883492373476</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>7.034544384153306</v>
+        <v>24.524883492373476</v>
       </c>
       <c r="I16" s="3"/>
       <c r="Z16">
@@ -2414,18 +2414,18 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>0.33689106433425309</v>
+        <v>-0.69094855232885022</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>6.0568910643342528</v>
+        <v>23.47905144767115</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>7.0568910643342528</v>
+        <v>24.47905144767115</v>
       </c>
       <c r="I17" s="3"/>
       <c r="Z17">
@@ -2449,18 +2449,18 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>0.35921278702970955</v>
+        <v>-0.73672941034118766</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>6.079212787029709</v>
+        <v>23.433270589658814</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>7.079212787029709</v>
+        <v>24.433270589658814</v>
       </c>
       <c r="I18" s="3"/>
       <c r="Z18">
@@ -2484,18 +2484,18 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>0.3815078986070054</v>
+        <v>-0.78245569013666061</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>6.1015078986070055</v>
+        <v>23.38754430986334</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>7.1015078986070055</v>
+        <v>24.38754430986334</v>
       </c>
       <c r="I19" s="3"/>
       <c r="Z19">
@@ -2519,18 +2519,18 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>0.40377474740486907</v>
+        <v>-0.82812400423164223</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>6.1237747474048687</v>
+        <v>23.341875995768358</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>7.1237747474048687</v>
+        <v>24.341875995768358</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -2548,18 +2548,18 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>0.42601168385578564</v>
+        <v>-0.87373096943670669</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>6.146011683855785</v>
+        <v>23.296269030563295</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>7.146011683855785</v>
+        <v>24.296269030563295</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -2577,18 +2577,18 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>0.44821706060819977</v>
+        <v>-0.91927320710726312</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
-        <v>6.1682170606081996</v>
+        <v>23.250726792892738</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>7.1682170606081996</v>
+        <v>24.250726792892738</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -2606,18 +2606,18 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>0.4703892326485542</v>
+        <v>-0.96474734339384993</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>6.1903892326485543</v>
+        <v>23.205252656606152</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>7.1903892326485543</v>
+        <v>24.205252656606152</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -2635,18 +2635,18 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>0.49252655742315576</v>
+        <v>-1.0101500094920774</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>6.2125265574231552</v>
+        <v>23.159849990507926</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>7.2125265574231552</v>
+        <v>24.159849990507926</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -2664,18 +2664,18 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>0.5146273949598581</v>
+        <v>-1.0554778418921928</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>6.2346273949598583</v>
+        <v>23.11452215810781</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>7.2346273949598583</v>
+        <v>24.11452215810781</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -2693,18 +2693,18 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>0.53669010798955374</v>
+        <v>-1.1007274826282567</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>6.2566901079895532</v>
+        <v>23.069272517371743</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>7.2566901079895532</v>
+        <v>24.069272517371743</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -2722,18 +2722,18 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>0.5587130620674664</v>
+        <v>-1.1458955795269055</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>6.2787130620674665</v>
+        <v>23.024104420473098</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>7.2787130620674665</v>
+        <v>24.024104420473098</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -2751,18 +2751,18 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>0.58069462569423314</v>
+        <v>-1.1909787864556882</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
-        <v>6.3006946256942324</v>
+        <v>22.979021213544314</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>7.3006946256942324</v>
+        <v>23.979021213544314</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -2780,18 +2780,18 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>0.60263317043676878</v>
+        <v>-1.2359737635709525</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>6.3226331704367684</v>
+        <v>22.934026236429048</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="4"/>
-        <v>7.3226331704367684</v>
+        <v>23.934026236429048</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -2809,18 +2809,18 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="2"/>
-        <v>0.62452707104890293</v>
+        <v>-1.2808771775652656</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>6.344527071048903</v>
+        <v>22.889122822434736</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="4"/>
-        <v>7.344527071048903</v>
+        <v>23.889122822434736</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -2838,18 +2838,18 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>0.64637470559178156</v>
+        <v>-1.3256857019143544</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>6.366374705591781</v>
+        <v>22.844314298085646</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="4"/>
-        <v>7.366374705591781</v>
+        <v>23.844314298085646</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -2867,18 +2867,18 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>0.66817445555402277</v>
+        <v>-1.370396017123537</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>6.3881744555540223</v>
+        <v>22.799603982876466</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="4"/>
-        <v>7.3881744555540223</v>
+        <v>23.799603982876466</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -2896,18 +2896,18 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>0.68992470597161903</v>
+        <v>-1.4150048109736388</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>6.4099247059716191</v>
+        <v>22.754995189026364</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="4"/>
-        <v>7.4099247059716191</v>
+        <v>23.754995189026364</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -2925,18 +2925,18 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
-        <v>0.71162384554757618</v>
+        <v>-1.4595087787663663</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>6.431623845547576</v>
+        <v>22.710491221233635</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="4"/>
-        <v>7.431623845547576</v>
+        <v>23.710491221233635</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -2954,18 +2954,18 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>0.73327026677128238</v>
+        <v>-1.5039046235691267</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
-        <v>6.4532702667712822</v>
+        <v>22.666095376430874</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="4"/>
-        <v>7.4532702667712822</v>
+        <v>23.666095376430874</v>
       </c>
       <c r="I35" s="3"/>
     </row>
@@ -2983,18 +2983,18 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
-        <v>0.7548623660375936</v>
+        <v>-1.5481890564592684</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
-        <v>6.474862366037593</v>
+        <v>22.621810943540734</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="4"/>
-        <v>7.474862366037593</v>
+        <v>23.621810943540734</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -3012,18 +3012,18 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="2"/>
-        <v>0.77639854376563278</v>
+        <v>-1.5923587967677308</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
-        <v>6.4963985437656326</v>
+        <v>22.577641203232272</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="4"/>
-        <v>7.4963985437656326</v>
+        <v>23.577641203232272</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -3041,18 +3041,18 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="2"/>
-        <v>0.79787720451728972</v>
+        <v>-1.6364105723220845</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
-        <v>6.5178772045172897</v>
+        <v>22.533589427677917</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="4"/>
-        <v>7.5178772045172897</v>
+        <v>23.533589427677917</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -3070,18 +3070,18 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" si="2"/>
-        <v>0.81929675711541272</v>
+        <v>-1.6803411196889355</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="3"/>
-        <v>6.5392967571154124</v>
+        <v>22.489658880311065</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="4"/>
-        <v>7.5392967571154124</v>
+        <v>23.489658880311065</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -3098,18 +3098,18 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" si="2"/>
-        <v>0.84065561476168704</v>
+        <v>-1.7241471844156893</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="3"/>
-        <v>6.5606556147616866</v>
+        <v>22.445852815584313</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="4"/>
-        <v>7.5606556147616866</v>
+        <v>23.445852815584313</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -3126,18 +3126,18 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="2"/>
-        <v>0.86195219515418731</v>
+        <v>-1.7678255212716452</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="3"/>
-        <v>6.5819521951541873</v>
+        <v>22.402174478728355</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="4"/>
-        <v>7.5819521951541873</v>
+        <v>23.402174478728355</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -3154,18 +3154,18 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="2"/>
-        <v>0.88318492060459663</v>
+        <v>-1.8113728944884082</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="3"/>
-        <v>6.6031849206045967</v>
+        <v>22.358627105511594</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="4"/>
-        <v>7.6031849206045967</v>
+        <v>23.358627105511594</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -3182,18 +3182,18 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="2"/>
-        <v>0.9043522181550856</v>
+        <v>-1.8547860779996022</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="3"/>
-        <v>6.6243522181550851</v>
+        <v>22.3152139220004</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="4"/>
-        <v>7.6243522181550851</v>
+        <v>23.3152139220004</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -3210,18 +3210,18 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="2"/>
-        <v>0.9254525196948391</v>
+        <v>-1.898061855679861</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="3"/>
-        <v>6.6454525196948389</v>
+        <v>22.271938144320142</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="4"/>
-        <v>7.6454525196948389</v>
+        <v>23.271938144320142</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -3238,18 +3238,18 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="2"/>
-        <v>0.94648426207622505</v>
+        <v>-1.9411970215830856</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="3"/>
-        <v>6.6664842620762244</v>
+        <v>22.228802978416915</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="4"/>
-        <v>7.6664842620762244</v>
+        <v>23.228802978416915</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -3266,18 +3266,18 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="2"/>
-        <v>0.96744588723059488</v>
+        <v>-1.984188380179946</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="3"/>
-        <v>6.6874458872305951</v>
+        <v>22.185811619820054</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="4"/>
-        <v>7.6874458872305951</v>
+        <v>23.185811619820054</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -3294,18 +3294,18 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="2"/>
-        <v>0.98833584228370819</v>
+        <v>-2.0270327465946112</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="3"/>
-        <v>6.7083358422837076</v>
+        <v>22.142967253405391</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="4"/>
-        <v>7.7083358422837076</v>
+        <v>23.142967253405391</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -3322,18 +3322,18 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" si="2"/>
-        <v>1.0091525796707721</v>
+        <v>-2.0697269468406918</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="3"/>
-        <v>6.7291525796707718</v>
+        <v>22.100273053159309</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="4"/>
-        <v>7.7291525796707718</v>
+        <v>23.100273053159309</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -3350,18 +3350,18 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="2"/>
-        <v>1.029894557251088</v>
+        <v>-2.1122678180563716</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="3"/>
-        <v>6.7498945572510873</v>
+        <v>22.057732181943631</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="4"/>
-        <v>7.7498945572510873</v>
+        <v>23.057732181943631</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -3378,18 +3378,18 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" si="2"/>
-        <v>1.0505602384222963</v>
+        <v>-2.1546522087387223</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="3"/>
-        <v>6.7705602384222958</v>
+        <v>22.015347791261281</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="4"/>
-        <v>7.7705602384222958</v>
+        <v>23.015347791261281</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -3406,18 +3406,18 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" si="2"/>
-        <v>1.0711480922342096</v>
+        <v>-2.1968769789771687</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="3"/>
-        <v>6.7911480922342093</v>
+        <v>21.973123021022833</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="4"/>
-        <v>7.7911480922342093</v>
+        <v>22.973123021022833</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -3434,18 +3434,18 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" si="2"/>
-        <v>1.0916565935022291</v>
+        <v>-2.2389390006861003</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="3"/>
-        <v>6.8116565935022289</v>
+        <v>21.9310609993139</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="4"/>
-        <v>7.8116565935022289</v>
+        <v>22.9310609993139</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -3462,18 +3462,18 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" si="2"/>
-        <v>1.1120842229203329</v>
+        <v>-2.2808351578366062</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="3"/>
-        <v>6.8320842229203329</v>
+        <v>21.889164842163396</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="4"/>
-        <v>7.8320842229203329</v>
+        <v>22.889164842163396</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -3490,18 +3490,18 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>1.1324294671736286</v>
+        <v>-2.3225623466873144</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="3"/>
-        <v>6.8524294671736286</v>
+        <v>21.847437653312689</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="4"/>
-        <v>7.8524294671736286</v>
+        <v>22.847437653312689</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -3518,18 +3518,18 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>1.1526908190504619</v>
+        <v>-2.3641174760143229</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="3"/>
-        <v>6.8726908190504616</v>
+        <v>21.80588252398568</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="4"/>
-        <v>7.8726908190504616</v>
+        <v>22.80588252398568</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -3546,18 +3546,18 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" si="2"/>
-        <v>1.1728667775540746</v>
+        <v>-2.4054974673402039</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="3"/>
-        <v>6.8928667775540742</v>
+        <v>21.764502532659797</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="4"/>
-        <v>7.8928667775540742</v>
+        <v>22.764502532659797</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -3574,18 +3574,18 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" si="2"/>
-        <v>1.1929558480138005</v>
+        <v>-2.4466992551620623</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="3"/>
-        <v>6.9129558480137998</v>
+        <v>21.723300744837939</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="4"/>
-        <v>7.9129558480137998</v>
+        <v>22.723300744837939</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -3602,18 +3602,18 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" si="2"/>
-        <v>1.2129565421957933</v>
+        <v>-2.4877197871786332</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="3"/>
-        <v>6.932956542195793</v>
+        <v>21.682280212821368</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="4"/>
-        <v>7.932956542195793</v>
+        <v>22.682280212821368</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -3630,18 +3630,18 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" si="2"/>
-        <v>1.2328673784132773</v>
+        <v>-2.5285560245164027</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="3"/>
-        <v>6.9528673784132771</v>
+        <v>21.6414439754836</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="4"/>
-        <v>7.9528673784132771</v>
+        <v>22.6414439754836</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3658,18 +3658,18 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" si="2"/>
-        <v>1.2526868816363133</v>
+        <v>-2.5692049419547316</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="3"/>
-        <v>6.9726868816363128</v>
+        <v>21.600795058045271</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="4"/>
-        <v>7.9726868816363128</v>
+        <v>22.600795058045271</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3686,18 +3686,18 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" si="2"/>
-        <v>1.2724135836010726</v>
+        <v>-2.6096635281499703</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="3"/>
-        <v>6.9924135836010723</v>
+        <v>21.560336471850032</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="4"/>
-        <v>7.9924135836010723</v>
+        <v>22.560336471850032</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3714,18 +3714,18 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" si="2"/>
-        <v>1.2920460229186073</v>
+        <v>-2.6499287858585445</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="3"/>
-        <v>7.0120460229186072</v>
+        <v>21.520071214141456</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="4"/>
-        <v>8.0120460229186072</v>
+        <v>22.520071214141456</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3742,18 +3742,18 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" si="2"/>
-        <v>1.311582745183113</v>
+        <v>-2.6899977321589956</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="3"/>
-        <v>7.0315827451831128</v>
+        <v>21.480002267841005</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="4"/>
-        <v>8.0315827451831119</v>
+        <v>22.480002267841005</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3770,18 +3770,18 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" si="2"/>
-        <v>1.3310223030796735</v>
+        <v>-2.7298673986729605</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="3"/>
-        <v>7.051022303079673</v>
+        <v>21.44013260132704</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="4"/>
-        <v>8.051022303079673</v>
+        <v>22.44013260132704</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -3798,18 +3798,18 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" si="2"/>
-        <v>1.3503632564914816</v>
+        <v>-2.7695348317850765</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="3"/>
-        <v>7.0703632564914809</v>
+        <v>21.400465168214925</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="4"/>
-        <v>8.0703632564914809</v>
+        <v>22.400465168214925</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -3826,18 +3826,18 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="2"/>
-        <v>1.3696041726065233</v>
+        <v>-2.8089970928617864</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="3"/>
-        <v>7.0896041726065233</v>
+        <v>21.361002907138214</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="4"/>
-        <v>8.0896041726065242</v>
+        <v>22.361002907138214</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -3854,18 +3854,18 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="2"/>
-        <v>1.3887436260237256</v>
+        <v>-2.848251258469042</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="3"/>
-        <v>7.1087436260237258</v>
+        <v>21.321748741530961</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="4"/>
-        <v>8.1087436260237258</v>
+        <v>22.321748741530961</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -3882,18 +3882,18 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" ref="E68:E131" si="11">D68*$E$2</f>
-        <v>1.407780198858551</v>
+        <v>-2.8872944205888751</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" ref="F68:F131" si="12">E68+$F$2</f>
-        <v>7.1277801988585505</v>
+        <v>21.282705579411125</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" ref="H68:H131" si="13">F68+G68</f>
-        <v>8.1277801988585505</v>
+        <v>22.282705579411125</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -3910,18 +3910,18 @@
       </c>
       <c r="E69" s="3">
         <f t="shared" si="11"/>
-        <v>1.4267124808480369</v>
+        <v>-2.9261236868348273</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="12"/>
-        <v>7.1467124808480369</v>
+        <v>21.243876313165174</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="13"/>
-        <v>8.1467124808480378</v>
+        <v>22.243876313165174</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -3938,18 +3938,18 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" si="11"/>
-        <v>1.4455390694552717</v>
+        <v>-2.9647361806662258</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="12"/>
-        <v>7.1655390694552716</v>
+        <v>21.205263819333776</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="13"/>
-        <v>8.1655390694552707</v>
+        <v>22.205263819333776</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -3966,18 +3966,18 @@
       </c>
       <c r="E71" s="3">
         <f t="shared" si="11"/>
-        <v>1.4642585699732957</v>
+        <v>-3.0031290416012815</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="12"/>
-        <v>7.184258569973295</v>
+        <v>21.166870958398722</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="13"/>
-        <v>8.184258569973295</v>
+        <v>22.166870958398722</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -3994,18 +3994,18 @@
       </c>
       <c r="E72" s="3">
         <f t="shared" si="11"/>
-        <v>1.4828695956284244</v>
+        <v>-3.0412994254289978</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="12"/>
-        <v>7.2028695956284245</v>
+        <v>21.128700574571003</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="13"/>
-        <v>8.2028695956284245</v>
+        <v>22.128700574571003</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -4022,18 +4022,18 @@
       </c>
       <c r="E73" s="3">
         <f t="shared" si="11"/>
-        <v>1.5013707676829835</v>
+        <v>-3.0792445044198766</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="12"/>
-        <v>7.2213707676829832</v>
+        <v>21.090755495580126</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="13"/>
-        <v>8.2213707676829841</v>
+        <v>22.090755495580126</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -4050,18 +4050,18 @@
       </c>
       <c r="E74" s="3">
         <f t="shared" si="11"/>
-        <v>1.5197607155374457</v>
+        <v>-3.1169614675353978</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="12"/>
-        <v>7.2397607155374457</v>
+        <v>21.053038532464605</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="13"/>
-        <v>8.2397607155374466</v>
+        <v>22.053038532464605</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -4078,18 +4078,18 @@
       </c>
       <c r="E75" s="3">
         <f t="shared" si="11"/>
-        <v>1.5380380768319717</v>
+        <v>-3.154447520636273</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="12"/>
-        <v>7.258038076831971</v>
+        <v>21.015552479363727</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="13"/>
-        <v>8.258038076831971</v>
+        <v>22.015552479363727</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -4106,18 +4106,18 @@
       </c>
       <c r="E76" s="3">
         <f t="shared" si="11"/>
-        <v>1.5562014975473308</v>
+        <v>-3.1916998866894297</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="12"/>
-        <v>7.2762014975473308</v>
+        <v>20.978300113310571</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="13"/>
-        <v>8.2762014975473299</v>
+        <v>21.978300113310571</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -4134,18 +4134,18 @@
       </c>
       <c r="E77" s="3">
         <f t="shared" si="11"/>
-        <v>1.574249632105214</v>
+        <v>-3.2287158059737506</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="12"/>
-        <v>7.2942496321052133</v>
+        <v>20.941284194026252</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="13"/>
-        <v>8.2942496321052133</v>
+        <v>21.941284194026252</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -4162,18 +4162,18 @@
       </c>
       <c r="E78" s="3">
         <f t="shared" si="11"/>
-        <v>1.5921811434679136</v>
+        <v>-3.2654925362845102</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="12"/>
-        <v>7.3121811434679138</v>
+        <v>20.90450746371549</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="13"/>
-        <v>8.3121811434679138</v>
+        <v>21.90450746371549</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -4190,18 +4190,18 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" si="11"/>
-        <v>1.6099947032373743</v>
+        <v>-3.3020273531365252</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="12"/>
-        <v>7.3299947032373742</v>
+        <v>20.867972646863478</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="13"/>
-        <v>8.3299947032373751</v>
+        <v>21.867972646863478</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -4218,18 +4218,18 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" si="11"/>
-        <v>1.6276889917536035</v>
+        <v>-3.3383175499659892</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="12"/>
-        <v>7.3476889917536035</v>
+        <v>20.831682450034013</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="13"/>
-        <v>8.3476889917536035</v>
+        <v>21.831682450034013</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -4246,18 +4246,18 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" si="11"/>
-        <v>1.6452626981924336</v>
+        <v>-3.374360438330978</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="12"/>
-        <v>7.3652626981924332</v>
+        <v>20.795639561669024</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="13"/>
-        <v>8.3652626981924332</v>
+        <v>21.795639561669024</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -4274,18 +4274,18 @@
       </c>
       <c r="E82" s="3">
         <f t="shared" si="11"/>
-        <v>1.6627145206626313</v>
+        <v>-3.4101533481106192</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="12"/>
-        <v>7.3827145206626312</v>
+        <v>20.759846651889383</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="13"/>
-        <v>8.3827145206626312</v>
+        <v>21.759846651889383</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -4302,18 +4302,18 @@
       </c>
       <c r="E83" s="3">
         <f t="shared" si="11"/>
-        <v>1.6800431663023416</v>
+        <v>-3.4456936277028918</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="12"/>
-        <v>7.4000431663023409</v>
+        <v>20.724306372297111</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="13"/>
-        <v>8.4000431663023409</v>
+        <v>21.724306372297111</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -4330,18 +4330,18 @@
       </c>
       <c r="E84" s="3">
         <f t="shared" si="11"/>
-        <v>1.6972473513748685</v>
+        <v>-3.4809786442210675</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="12"/>
-        <v>7.4172473513748685</v>
+        <v>20.689021355778934</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="13"/>
-        <v>8.4172473513748685</v>
+        <v>21.689021355778934</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -4358,18 +4358,18 @@
       </c>
       <c r="E85" s="3">
         <f t="shared" si="11"/>
-        <v>1.7143258013637732</v>
+        <v>-3.5160057836887573</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="12"/>
-        <v>7.434325801363773</v>
+        <v>20.653994216311244</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="13"/>
-        <v>8.434325801363773</v>
+        <v>21.653994216311244</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -4386,18 +4386,18 @@
       </c>
       <c r="E86" s="3">
         <f t="shared" si="11"/>
-        <v>1.7312772510672951</v>
+        <v>-3.5507724512335606</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="12"/>
-        <v>7.4512772510672951</v>
+        <v>20.619227548766442</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="13"/>
-        <v>8.451277251067296</v>
+        <v>21.619227548766442</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4414,18 +4414,18 @@
       </c>
       <c r="E87" s="3">
         <f t="shared" si="11"/>
-        <v>1.7481004446920796</v>
+        <v>-3.5852760712792966</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="12"/>
-        <v>7.4681004446920793</v>
+        <v>20.584723928720706</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="13"/>
-        <v>8.4681004446920802</v>
+        <v>21.584723928720706</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -4442,18 +4442,18 @@
       </c>
       <c r="E88" s="3">
         <f t="shared" si="11"/>
-        <v>1.7647941359462076</v>
+        <v>-3.6195140877368077</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="12"/>
-        <v>7.4847941359462071</v>
+        <v>20.550485912263195</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="13"/>
-        <v>8.4847941359462062</v>
+        <v>21.550485912263195</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,18 +4470,18 @@
       </c>
       <c r="E89" s="3">
         <f t="shared" si="11"/>
-        <v>1.7813570881315262</v>
+        <v>-3.6534839641933208</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="12"/>
-        <v>7.5013570881315257</v>
+        <v>20.516516035806681</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="13"/>
-        <v>8.5013570881315257</v>
+        <v>21.516516035806681</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -4498,18 +4498,18 @@
       </c>
       <c r="E90" s="3">
         <f t="shared" si="11"/>
-        <v>1.7977880742352623</v>
+        <v>-3.6871831841003466</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="12"/>
-        <v>7.5177880742352619</v>
+        <v>20.482816815899653</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="13"/>
-        <v>8.5177880742352627</v>
+        <v>21.482816815899653</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4526,18 +4526,18 @@
       </c>
       <c r="E91" s="3">
         <f t="shared" si="11"/>
-        <v>1.8140858770209247</v>
+        <v>-3.7206092509601127</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="12"/>
-        <v>7.5340858770209245</v>
+        <v>20.449390749039889</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="13"/>
-        <v>8.5340858770209245</v>
+        <v>21.449390749039889</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4554,18 +4554,18 @@
       </c>
       <c r="E92" s="3">
         <f t="shared" si="11"/>
-        <v>1.830249289118477</v>
+        <v>-3.7537596885105065</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="12"/>
-        <v>7.5502492891184767</v>
+        <v>20.416240311489496</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="13"/>
-        <v>8.5502492891184758</v>
+        <v>21.416240311489496</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -4582,18 +4582,18 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" si="11"/>
-        <v>1.8462771131137821</v>
+        <v>-3.786632040908521</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="12"/>
-        <v>7.5662771131137818</v>
+        <v>20.38336795909148</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="13"/>
-        <v>8.5662771131137809</v>
+        <v>21.38336795909148</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -4610,18 +4610,18 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" si="11"/>
-        <v>1.8621681616373109</v>
+        <v>-3.8192238729121915</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="12"/>
-        <v>7.5821681616373109</v>
+        <v>20.350776127087812</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="13"/>
-        <v>8.5821681616373109</v>
+        <v>21.350776127087812</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -4638,18 +4638,18 @@
       </c>
       <c r="E95" s="3">
         <f t="shared" si="11"/>
-        <v>1.8779212574521005</v>
+        <v>-3.8515327700609956</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="12"/>
-        <v>7.5979212574521</v>
+        <v>20.318467229939007</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="13"/>
-        <v>8.5979212574521</v>
+        <v>21.318467229939007</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4666,18 +4666,18 @@
       </c>
       <c r="E96" s="3">
         <f t="shared" si="11"/>
-        <v>1.8935352335409712</v>
+        <v>-3.8835563388547301</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="12"/>
-        <v>7.6135352335409712</v>
+        <v>20.28644366114527</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="13"/>
-        <v>8.6135352335409721</v>
+        <v>21.28644366114527</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -4694,18 +4694,18 @@
       </c>
       <c r="E97" s="3">
         <f t="shared" si="11"/>
-        <v>1.9090089331929758</v>
+        <v>-3.9152922069308165</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="12"/>
-        <v>7.629008933192976</v>
+        <v>20.254707793069187</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="13"/>
-        <v>8.629008933192976</v>
+        <v>21.254707793069187</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -4722,18 +4722,18 @@
       </c>
       <c r="E98" s="3">
         <f t="shared" si="11"/>
-        <v>1.924341210089096</v>
+        <v>-3.9467380232400564</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="12"/>
-        <v>7.6443412100890953</v>
+        <v>20.223261976759947</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="13"/>
-        <v>8.6443412100890953</v>
+        <v>21.223261976759947</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -4750,18 +4750,18 @@
       </c>
       <c r="E99" s="3">
         <f t="shared" si="11"/>
-        <v>1.9395309283871591</v>
+        <v>-3.9778914582207974</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="12"/>
-        <v>7.6595309283871593</v>
+        <v>20.192108541779206</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="13"/>
-        <v>8.6595309283871593</v>
+        <v>21.192108541779206</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -4778,15 +4778,15 @@
       </c>
       <c r="E100" s="3">
         <f t="shared" si="11"/>
-        <v>1.9545769628059866</v>
+        <v>-4.0087502039715135</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="12"/>
-        <v>7.6745769628059861</v>
+        <v>20.161249796028489</v>
       </c>
       <c r="H100" s="3">
         <f t="shared" si="13"/>
-        <v>7.6745769628059861</v>
+        <v>20.161249796028489</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E101" s="3">
         <f t="shared" si="11"/>
-        <v>1.9694781987087555</v>
+        <v>-4.0393119744217785</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="12"/>
-        <v>7.6894781987087555</v>
+        <v>20.130688025578223</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="13"/>
-        <v>7.6894781987087555</v>
+        <v>20.130688025578223</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -4828,15 +4828,15 @@
       </c>
       <c r="E102" s="3">
         <f t="shared" si="11"/>
-        <v>1.984233532185572</v>
+        <v>-4.0695745055016186</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="12"/>
-        <v>7.7042335321855715</v>
+        <v>20.100425494498381</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="13"/>
-        <v>7.7042335321855715</v>
+        <v>20.100425494498381</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -4853,15 +4853,15 @@
       </c>
       <c r="E103" s="3">
         <f t="shared" si="11"/>
-        <v>1.9988418701352537</v>
+        <v>-4.0995355553092461</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="12"/>
-        <v>7.7188418701352539</v>
+        <v>20.070464444690757</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="13"/>
-        <v>7.7188418701352539</v>
+        <v>20.070464444690757</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -4878,15 +4878,15 @@
       </c>
       <c r="E104" s="3">
         <f t="shared" si="11"/>
-        <v>2.0133021303463043</v>
+        <v>-4.1291929042771329</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="12"/>
-        <v>7.7333021303463045</v>
+        <v>20.040807095722869</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="13"/>
-        <v>7.7333021303463045</v>
+        <v>20.040807095722869</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E105" s="3">
         <f t="shared" si="11"/>
-        <v>2.02761324157709</v>
+        <v>-4.1585443553364518</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="12"/>
-        <v>7.7476132415770902</v>
+        <v>20.011455644663549</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="13"/>
-        <v>7.7476132415770902</v>
+        <v>20.011455644663549</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -4928,15 +4928,15 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="11"/>
-        <v>2.0417741436351964</v>
+        <v>-4.1875877340798286</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="12"/>
-        <v>7.7617741436351961</v>
+        <v>19.982412265920175</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="13"/>
-        <v>7.7617741436351961</v>
+        <v>19.982412265920175</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -4953,15 +4953,15 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" si="11"/>
-        <v>2.0557837874559697</v>
+        <v>-4.216320888922434</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="12"/>
-        <v>7.7757837874559694</v>
+        <v>19.95367911107757</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="13"/>
-        <v>7.7757837874559694</v>
+        <v>19.95367911107757</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -4978,15 +4978,15 @@
       </c>
       <c r="E108" s="3">
         <f t="shared" si="11"/>
-        <v>2.069641135180234</v>
+        <v>-4.2447416912613711</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="12"/>
-        <v>7.7896411351802337</v>
+        <v>19.925258308738631</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="13"/>
-        <v>7.7896411351802337</v>
+        <v>19.925258308738631</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -5003,15 +5003,15 @@
       </c>
       <c r="E109" s="3">
         <f t="shared" si="11"/>
-        <v>2.0833451602311777</v>
+        <v>-4.2728480356333707</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="12"/>
-        <v>7.8033451602311779</v>
+        <v>19.897151964366632</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="13"/>
-        <v>7.8033451602311779</v>
+        <v>19.897151964366632</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -5028,15 +5028,15 @@
       </c>
       <c r="E110" s="3">
         <f t="shared" si="11"/>
-        <v>2.0968948473904039</v>
+        <v>-4.3006378398707641</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="12"/>
-        <v>7.8168948473904036</v>
+        <v>19.869362160129239</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="13"/>
-        <v>7.8168948473904036</v>
+        <v>19.869362160129239</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -5053,15 +5053,15 @@
       </c>
       <c r="E111" s="3">
         <f t="shared" si="11"/>
-        <v>2.1102891928731391</v>
+        <v>-4.3281090452557365</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="12"/>
-        <v>7.8302891928731384</v>
+        <v>19.841890954744265</v>
       </c>
       <c r="H111" s="3">
         <f t="shared" si="13"/>
-        <v>7.8302891928731384</v>
+        <v>19.841890954744265</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -5078,15 +5078,15 @@
       </c>
       <c r="E112" s="3">
         <f t="shared" si="11"/>
-        <v>2.123527204402595</v>
+        <v>-4.3552596166728375</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="12"/>
-        <v>7.8435272044025943</v>
+        <v>19.814740383327162</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="13"/>
-        <v>7.8435272044025943</v>
+        <v>19.814740383327162</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -5103,15 +5103,15 @@
       </c>
       <c r="E113" s="3">
         <f t="shared" si="11"/>
-        <v>2.1366079012834809</v>
+        <v>-4.3820875427597503</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="12"/>
-        <v>7.8566079012834802</v>
+        <v>19.787912457240253</v>
       </c>
       <c r="H113" s="3">
         <f t="shared" si="13"/>
-        <v>7.8566079012834802</v>
+        <v>19.787912457240253</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -5128,15 +5128,15 @@
       </c>
       <c r="E114" s="3">
         <f t="shared" si="11"/>
-        <v>2.1495303144746507</v>
+        <v>-4.4085908360562902</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="12"/>
-        <v>7.86953031447465</v>
+        <v>19.761409163943711</v>
       </c>
       <c r="H114" s="3">
         <f t="shared" si="13"/>
-        <v>7.86953031447465</v>
+        <v>19.761409163943711</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -5153,15 +5153,15 @@
       </c>
       <c r="E115" s="3">
         <f t="shared" si="11"/>
-        <v>2.1622934866608969</v>
+        <v>-4.4347675331516481</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="12"/>
-        <v>7.8822934866608971</v>
+        <v>19.735232466848352</v>
       </c>
       <c r="H115" s="3">
         <f t="shared" si="13"/>
-        <v>7.8822934866608971</v>
+        <v>19.735232466848352</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -5178,15 +5178,15 @@
       </c>
       <c r="E116" s="3">
         <f t="shared" si="11"/>
-        <v>2.1748964723238644</v>
+        <v>-4.4606156948298361</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="12"/>
-        <v>7.8948964723238646</v>
+        <v>19.709384305170165</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="13"/>
-        <v>7.8948964723238646</v>
+        <v>19.709384305170165</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -5203,15 +5203,15 @@
       </c>
       <c r="E117" s="3">
         <f t="shared" si="11"/>
-        <v>2.1873383378121001</v>
+        <v>-4.4861334062133515</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="12"/>
-        <v>7.9073383378120994</v>
+        <v>19.68386659378665</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="13"/>
-        <v>7.9073383378120994</v>
+        <v>19.68386659378665</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
@@ -5228,15 +5228,15 @@
       </c>
       <c r="E118" s="3">
         <f t="shared" si="11"/>
-        <v>2.1996181614102182</v>
+        <v>-4.5113187769050338</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="12"/>
-        <v>7.9196181614102183</v>
+        <v>19.658681223094966</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="13"/>
-        <v>7.9196181614102183</v>
+        <v>19.658681223094966</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -5253,15 +5253,15 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" si="11"/>
-        <v>2.2117350334071824</v>
+        <v>-4.5361699411281053</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="12"/>
-        <v>7.9317350334071826</v>
+        <v>19.633830058871897</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="13"/>
-        <v>7.9317350334071826</v>
+        <v>19.633830058871897</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -5278,15 +5278,15 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" si="11"/>
-        <v>2.2236880561636982</v>
+        <v>-4.5606850578643998</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="12"/>
-        <v>7.9436880561636976</v>
+        <v>19.609314942135601</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="13"/>
-        <v>7.9436880561636976</v>
+        <v>19.609314942135601</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
@@ -5303,15 +5303,15 @@
       </c>
       <c r="E121" s="3">
         <f t="shared" si="11"/>
-        <v>2.2354763441787142</v>
+        <v>-4.5848623109907383</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="12"/>
-        <v>7.955476344178714</v>
+        <v>19.585137689009265</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="13"/>
-        <v>7.955476344178714</v>
+        <v>19.585137689009265</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -5328,15 +5328,15 @@
       </c>
       <c r="E122" s="3">
         <f t="shared" si="11"/>
-        <v>2.2470990241550179</v>
+        <v>-4.6086999094134757</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="12"/>
-        <v>7.9670990241550177</v>
+        <v>19.561300090586528</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="13"/>
-        <v>7.9670990241550177</v>
+        <v>19.561300090586528</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,15 +5353,15 @@
       </c>
       <c r="E123" s="3">
         <f t="shared" si="11"/>
-        <v>2.2585552350639353</v>
+        <v>-4.6321960872011916</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="12"/>
-        <v>7.9785552350639346</v>
+        <v>19.537803912798811</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="13"/>
-        <v>7.9785552350639346</v>
+        <v>19.537803912798811</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -5378,15 +5378,15 @@
       </c>
       <c r="E124" s="3">
         <f t="shared" si="11"/>
-        <v>2.2698441282091122</v>
+        <v>-4.655349103715503</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="12"/>
-        <v>7.9898441282091124</v>
+        <v>19.5146508962845</v>
       </c>
       <c r="H124" s="3">
         <f t="shared" si="13"/>
-        <v>7.9898441282091124</v>
+        <v>19.5146508962845</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -5403,15 +5403,15 @@
       </c>
       <c r="E125" s="3">
         <f t="shared" si="11"/>
-        <v>2.2809648672893923</v>
+        <v>-4.6781572437400278</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="12"/>
-        <v>8.000964867289392</v>
+        <v>19.491842756259974</v>
       </c>
       <c r="H125" s="3">
         <f t="shared" si="13"/>
-        <v>8.000964867289392</v>
+        <v>19.491842756259974</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -5428,15 +5428,15 @@
       </c>
       <c r="E126" s="3">
         <f t="shared" si="11"/>
-        <v>2.2919166284607693</v>
+        <v>-4.7006188176074373</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="12"/>
-        <v>8.011916628460769</v>
+        <v>19.469381182392564</v>
       </c>
       <c r="H126" s="3">
         <f t="shared" si="13"/>
-        <v>8.011916628460769</v>
+        <v>19.469381182392564</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -5453,15 +5453,15 @@
       </c>
       <c r="E127" s="3">
         <f t="shared" si="11"/>
-        <v>2.3026986003974184</v>
+        <v>-4.7227321613246414</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="12"/>
-        <v>8.022698600397419</v>
+        <v>19.447267838675359</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="13"/>
-        <v>8.022698600397419</v>
+        <v>19.447267838675359</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -5478,15 +5478,15 @@
       </c>
       <c r="E128" s="3">
         <f t="shared" si="11"/>
-        <v>2.3133099843518017</v>
+        <v>-4.744495636696052</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="12"/>
-        <v>8.033309984351801</v>
+        <v>19.425504363303951</v>
       </c>
       <c r="H128" s="3">
         <f t="shared" si="13"/>
-        <v>8.033309984351801</v>
+        <v>19.425504363303951</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -5503,15 +5503,15 @@
       </c>
       <c r="E129" s="3">
         <f t="shared" si="11"/>
-        <v>2.3237499942138409</v>
+        <v>-4.7659076314449464</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="12"/>
-        <v>8.0437499942138402</v>
+        <v>19.404092368555055</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="13"/>
-        <v>8.0437499942138402</v>
+        <v>19.404092368555055</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -5528,15 +5528,15 @@
       </c>
       <c r="E130" s="3">
         <f t="shared" si="11"/>
-        <v>2.3340178565691523</v>
+        <v>-4.7869665593329112</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="12"/>
-        <v>8.0540178565691516</v>
+        <v>19.383033440667091</v>
       </c>
       <c r="H130" s="3">
         <f t="shared" si="13"/>
-        <v>8.0540178565691516</v>
+        <v>19.383033440667091</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -5553,15 +5553,15 @@
       </c>
       <c r="E131" s="3">
         <f t="shared" si="11"/>
-        <v>2.3441128107563451</v>
+        <v>-4.8076708602773444</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" si="12"/>
-        <v>8.0641128107563453</v>
+        <v>19.362329139722657</v>
       </c>
       <c r="H131" s="3">
         <f t="shared" si="13"/>
-        <v>8.0641128107563453</v>
+        <v>19.362329139722657</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -5578,15 +5578,15 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" ref="E132:E195" si="16">D132*$E$2</f>
-        <v>2.3540341089233703</v>
+        <v>-4.8280190004670391</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" ref="F132:F195" si="17">E132+$F$2</f>
-        <v>8.0740341089233709</v>
+        <v>19.341980999532964</v>
       </c>
       <c r="H132" s="3">
         <f t="shared" ref="H132:H195" si="18">F132+G132</f>
-        <v>8.0740341089233709</v>
+        <v>19.341980999532964</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
@@ -5603,15 +5603,15 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" si="16"/>
-        <v>2.3637810160829247</v>
+        <v>-4.8480094724758063</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="17"/>
-        <v>8.0837810160829235</v>
+        <v>19.321990527524196</v>
       </c>
       <c r="H133" s="3">
         <f t="shared" si="18"/>
-        <v>8.0837810160829235</v>
+        <v>19.321990527524196</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
@@ -5628,15 +5628,15 @@
       </c>
       <c r="E134" s="3">
         <f t="shared" si="16"/>
-        <v>2.3733528101668977</v>
+        <v>-4.8676407953741467</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="17"/>
-        <v>8.0933528101668983</v>
+        <v>19.302359204625855</v>
       </c>
       <c r="H134" s="3">
         <f t="shared" si="18"/>
-        <v>8.0933528101668983</v>
+        <v>19.302359204625855</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -5653,15 +5653,15 @@
       </c>
       <c r="E135" s="3">
         <f t="shared" si="16"/>
-        <v>2.3827487820798661</v>
+        <v>-4.8869115148389604</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="17"/>
-        <v>8.1027487820798658</v>
+        <v>19.283088485161041</v>
       </c>
       <c r="H135" s="3">
         <f t="shared" si="18"/>
-        <v>8.1027487820798658</v>
+        <v>19.283088485161041</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
@@ -5678,15 +5678,15 @@
       </c>
       <c r="E136" s="3">
         <f t="shared" si="16"/>
-        <v>2.3919682357516234</v>
+        <v>-4.9058202032612916</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="17"/>
-        <v>8.1119682357516236</v>
+        <v>19.264179796738709</v>
       </c>
       <c r="H136" s="3">
         <f t="shared" si="18"/>
-        <v>8.1119682357516236</v>
+        <v>19.264179796738709</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -5703,15 +5703,15 @@
       </c>
       <c r="E137" s="3">
         <f t="shared" si="16"/>
-        <v>2.4010104881887471</v>
+        <v>-4.924365459852079</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="17"/>
-        <v>8.1210104881887464</v>
+        <v>19.245634540147922</v>
       </c>
       <c r="H137" s="3">
         <f t="shared" si="18"/>
-        <v>8.1210104881887464</v>
+        <v>19.245634540147922</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -5728,15 +5728,15 @@
       </c>
       <c r="E138" s="3">
         <f t="shared" si="16"/>
-        <v>2.4098748695251944</v>
+        <v>-4.94254591074594</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="17"/>
-        <v>8.1298748695251941</v>
+        <v>19.22745408925406</v>
       </c>
       <c r="H138" s="3">
         <f t="shared" si="18"/>
-        <v>8.1298748695251941</v>
+        <v>19.22745408925406</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -5753,15 +5753,15 @@
       </c>
       <c r="E139" s="3">
         <f t="shared" si="16"/>
-        <v>2.4185607230719275</v>
+        <v>-4.9603602091029337</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="17"/>
-        <v>8.1385607230719277</v>
+        <v>19.209639790897068</v>
       </c>
       <c r="H139" s="3">
         <f t="shared" si="18"/>
-        <v>8.1385607230719277</v>
+        <v>19.209639790897068</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
@@ -5778,15 +5778,15 @@
       </c>
       <c r="E140" s="3">
         <f t="shared" si="16"/>
-        <v>2.4270674053655652</v>
+        <v>-4.9778070352083557</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="17"/>
-        <v>8.147067405365565</v>
+        <v>19.192192964791644</v>
       </c>
       <c r="H140" s="3">
         <f t="shared" si="18"/>
-        <v>8.147067405365565</v>
+        <v>19.192192964791644</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E141" s="3">
         <f t="shared" si="16"/>
-        <v>2.4353942862160465</v>
+        <v>-4.9948850965704894</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="17"/>
-        <v>8.1553942862160458</v>
+        <v>19.175114903429513</v>
       </c>
       <c r="H141" s="3">
         <f t="shared" si="18"/>
-        <v>8.1553942862160458</v>
+        <v>19.175114903429513</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -5828,15 +5828,15 @@
       </c>
       <c r="E142" s="3">
         <f t="shared" si="16"/>
-        <v>2.4435407487533212</v>
+        <v>-5.011593128016365</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="17"/>
-        <v>8.16354074875332</v>
+        <v>19.158406871983637</v>
       </c>
       <c r="H142" s="3">
         <f t="shared" si="18"/>
-        <v>8.16354074875332</v>
+        <v>19.158406871983637</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -5853,15 +5853,15 @@
       </c>
       <c r="E143" s="3">
         <f t="shared" si="16"/>
-        <v>2.4515061894730459</v>
+        <v>-5.0279298917854822</v>
       </c>
       <c r="F143" s="3">
         <f t="shared" si="17"/>
-        <v>8.1715061894730461</v>
+        <v>19.142070108214519</v>
       </c>
       <c r="H143" s="3">
         <f t="shared" si="18"/>
-        <v>8.1715061894730461</v>
+        <v>19.142070108214519</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -5878,15 +5878,15 @@
       </c>
       <c r="E144" s="3">
         <f t="shared" si="16"/>
-        <v>2.4592900182812936</v>
+        <v>-5.0438941776215058</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="17"/>
-        <v>8.1792900182812929</v>
+        <v>19.126105822378495</v>
       </c>
       <c r="H144" s="3">
         <f t="shared" si="18"/>
-        <v>8.1792900182812929</v>
+        <v>19.126105822378495</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -5903,15 +5903,15 @@
       </c>
       <c r="E145" s="3">
         <f t="shared" si="16"/>
-        <v>2.4668916585382679</v>
+        <v>-5.0594848028619248</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="17"/>
-        <v>8.1868916585382685</v>
+        <v>19.110515197138078</v>
       </c>
       <c r="H145" s="3">
         <f t="shared" si="18"/>
-        <v>8.1868916585382685</v>
+        <v>19.110515197138078</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -5928,15 +5928,15 @@
       </c>
       <c r="E146" s="3">
         <f t="shared" si="16"/>
-        <v>2.4743105471010232</v>
+        <v>-5.0747006125256648</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="17"/>
-        <v>8.194310547101022</v>
+        <v>19.095299387474338</v>
       </c>
       <c r="H146" s="3">
         <f t="shared" si="18"/>
-        <v>8.194310547101022</v>
+        <v>19.095299387474338</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -5953,15 +5953,15 @@
       </c>
       <c r="E147" s="3">
         <f t="shared" si="16"/>
-        <v>2.4815461343651828</v>
+        <v>-5.0895404793986545</v>
       </c>
       <c r="F147" s="3">
         <f t="shared" si="17"/>
-        <v>8.2015461343651825</v>
+        <v>19.080459520601348</v>
       </c>
       <c r="H147" s="3">
         <f t="shared" si="18"/>
-        <v>8.2015461343651825</v>
+        <v>19.080459520601348</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -5978,15 +5978,15 @@
       </c>
       <c r="E148" s="3">
         <f t="shared" si="16"/>
-        <v>2.4885978843056522</v>
+        <v>-5.1040033041173247</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="17"/>
-        <v>8.208597884305652</v>
+        <v>19.065996695882678</v>
       </c>
       <c r="H148" s="3">
         <f t="shared" si="18"/>
-        <v>8.208597884305652</v>
+        <v>19.065996695882678</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E149" s="3">
         <f t="shared" si="16"/>
-        <v>2.495465274516333</v>
+        <v>-5.1180880152500583</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="17"/>
-        <v>8.2154652745163332</v>
+        <v>19.051911984749943</v>
       </c>
       <c r="H149" s="3">
         <f t="shared" si="18"/>
-        <v>8.2154652745163332</v>
+        <v>19.051911984749943</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -6028,15 +6028,15 @@
       </c>
       <c r="E150" s="3">
         <f t="shared" si="16"/>
-        <v>2.5021477962488201</v>
+        <v>-5.1317935693765602</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="17"/>
-        <v>8.2221477962488194</v>
+        <v>19.03820643062344</v>
       </c>
       <c r="H150" s="3">
         <f t="shared" si="18"/>
-        <v>8.2221477962488194</v>
+        <v>19.03820643062344</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -6053,15 +6053,15 @@
       </c>
       <c r="E151" s="3">
         <f t="shared" si="16"/>
-        <v>2.5086449544500926</v>
+        <v>-5.1451189511651574</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="17"/>
-        <v>8.2286449544500933</v>
+        <v>19.024881048834843</v>
       </c>
       <c r="H151" s="3">
         <f t="shared" si="18"/>
-        <v>8.2286449544500933</v>
+        <v>19.024881048834843</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -6078,15 +6078,15 @@
       </c>
       <c r="E152" s="3">
         <f t="shared" si="16"/>
-        <v>2.5149562677991875</v>
+        <v>-5.1580631734480145</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="17"/>
-        <v>8.2349562677991877</v>
+        <v>19.011936826551988</v>
       </c>
       <c r="H152" s="3">
         <f t="shared" si="18"/>
-        <v>8.2349562677991877</v>
+        <v>19.011936826551988</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E153" s="3">
         <f t="shared" si="16"/>
-        <v>2.5210812687428565</v>
+        <v>-5.170625277294266</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="17"/>
-        <v>8.2410812687428567</v>
+        <v>18.999374722705735</v>
       </c>
       <c r="H153" s="3">
         <f t="shared" si="18"/>
-        <v>8.2410812687428567</v>
+        <v>18.999374722705735</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -6128,15 +6128,15 @@
       </c>
       <c r="E154" s="3">
         <f t="shared" si="16"/>
-        <v>2.5270195035302039</v>
+        <v>-5.1828043320810551</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="17"/>
-        <v>8.2470195035302041</v>
+        <v>18.987195667918947</v>
       </c>
       <c r="H154" s="3">
         <f t="shared" si="18"/>
-        <v>8.2470195035302041</v>
+        <v>18.987195667918947</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -6153,15 +6153,15 @@
       </c>
       <c r="E155" s="3">
         <f t="shared" si="16"/>
-        <v>2.5327705322463019</v>
+        <v>-5.1945994355624787</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="17"/>
-        <v>8.2527705322463021</v>
+        <v>18.975400564437521</v>
       </c>
       <c r="H155" s="3">
         <f t="shared" si="18"/>
-        <v>8.2527705322463021</v>
+        <v>18.975400564437521</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -6178,15 +6178,15 @@
       </c>
       <c r="E156" s="3">
         <f t="shared" si="16"/>
-        <v>2.5383339288447773</v>
+        <v>-5.2060097139364219</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="17"/>
-        <v>8.2583339288447775</v>
+        <v>18.963990286063581</v>
       </c>
       <c r="H156" s="3">
         <f t="shared" si="18"/>
-        <v>8.2583339288447775</v>
+        <v>18.963990286063581</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
@@ -6203,15 +6203,15 @@
       </c>
       <c r="E157" s="3">
         <f t="shared" si="16"/>
-        <v>2.5437092811793773</v>
+        <v>-5.2170343219092965</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="17"/>
-        <v>8.2637092811793771</v>
+        <v>18.952965678090706</v>
       </c>
       <c r="H157" s="3">
         <f t="shared" si="18"/>
-        <v>8.2637092811793771</v>
+        <v>18.952965678090706</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
@@ -6228,15 +6228,15 @@
       </c>
       <c r="E158" s="3">
         <f t="shared" si="16"/>
-        <v>2.5488961910345007</v>
+        <v>-5.2276724427586574</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="17"/>
-        <v>8.2688961910345</v>
+        <v>18.942327557241345</v>
       </c>
       <c r="H158" s="3">
         <f t="shared" si="18"/>
-        <v>8.2688961910345</v>
+        <v>18.942327557241345</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
@@ -6253,15 +6253,15 @@
       </c>
       <c r="E159" s="3">
         <f t="shared" si="16"/>
-        <v>2.5538942741546977</v>
+        <v>-5.2379232883937101</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="17"/>
-        <v>8.2738942741546975</v>
+        <v>18.932076711606292</v>
       </c>
       <c r="H159" s="3">
         <f t="shared" si="18"/>
-        <v>8.2738942741546975</v>
+        <v>18.932076711606292</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
@@ -6278,15 +6278,15 @@
       </c>
       <c r="E160" s="3">
         <f t="shared" si="16"/>
-        <v>2.5587031602731356</v>
+        <v>-5.247786099413692</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="17"/>
-        <v>8.2787031602731354</v>
+        <v>18.922213900586311</v>
       </c>
       <c r="H160" s="3">
         <f t="shared" si="18"/>
-        <v>8.2787031602731354</v>
+        <v>18.922213900586311</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -6303,15 +6303,15 @@
       </c>
       <c r="E161" s="3">
         <f t="shared" si="16"/>
-        <v>2.5633224931390326</v>
+        <v>-5.2572601451641301</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="17"/>
-        <v>8.2833224931390319</v>
+        <v>18.91273985483587</v>
       </c>
       <c r="H161" s="3">
         <f t="shared" si="18"/>
-        <v>8.2833224931390319</v>
+        <v>18.91273985483587</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -6328,15 +6328,15 @@
       </c>
       <c r="E162" s="3">
         <f t="shared" si="16"/>
-        <v>2.5677519305440448</v>
+        <v>-5.2663447237909704</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="17"/>
-        <v>8.2877519305440437</v>
+        <v>18.90365527620903</v>
       </c>
       <c r="H162" s="3">
         <f t="shared" si="18"/>
-        <v>8.2877519305440437</v>
+        <v>18.90365527620903</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -6353,15 +6353,15 @@
       </c>
       <c r="E163" s="3">
         <f t="shared" si="16"/>
-        <v>2.5719911443476207</v>
+        <v>-5.2750391622925719</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="17"/>
-        <v>8.2919911443476195</v>
+        <v>18.89496083770743</v>
       </c>
       <c r="H163" s="3">
         <f t="shared" si="18"/>
-        <v>8.2919911443476195</v>
+        <v>18.89496083770743</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
@@ -6378,15 +6378,15 @@
       </c>
       <c r="E164" s="3">
         <f t="shared" si="16"/>
-        <v>2.5760398205013084</v>
+        <v>-5.2833428165695624</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="17"/>
-        <v>8.2960398205013082</v>
+        <v>18.88665718343044</v>
       </c>
       <c r="H164" s="3">
         <f t="shared" si="18"/>
-        <v>8.2960398205013082</v>
+        <v>18.88665718343044</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
@@ -6403,15 +6403,15 @@
       </c>
       <c r="E165" s="3">
         <f t="shared" si="16"/>
-        <v>2.5798976590720231</v>
+        <v>-5.2912550714725564</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="17"/>
-        <v>8.2998976590720233</v>
+        <v>18.878744928527446</v>
       </c>
       <c r="H165" s="3">
         <f t="shared" si="18"/>
-        <v>8.2998976590720233</v>
+        <v>18.878744928527446</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -6428,15 +6428,15 @@
       </c>
       <c r="E166" s="3">
         <f t="shared" si="16"/>
-        <v>2.5835643742642649</v>
+        <v>-5.2987753408477269</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="17"/>
-        <v>8.3035643742642655</v>
+        <v>18.871224659152276</v>
       </c>
       <c r="H166" s="3">
         <f t="shared" si="18"/>
-        <v>8.3035643742642655</v>
+        <v>18.871224659152276</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -6453,15 +6453,15 @@
       </c>
       <c r="E167" s="3">
         <f t="shared" si="16"/>
-        <v>2.587039694441291</v>
+        <v>-5.3059030675802275</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="17"/>
-        <v>8.3070396944412899</v>
+        <v>18.864096932419773</v>
       </c>
       <c r="H167" s="3">
         <f t="shared" si="18"/>
-        <v>8.3070396944412899</v>
+        <v>18.864096932419773</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
@@ -6478,15 +6478,15 @@
       </c>
       <c r="E168" s="3">
         <f t="shared" si="16"/>
-        <v>2.5903233621452411</v>
+        <v>-5.3126377236354614</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="17"/>
-        <v>8.3103233621452404</v>
+        <v>18.85736227636454</v>
       </c>
       <c r="H168" s="3">
         <f t="shared" si="18"/>
-        <v>8.3103233621452404</v>
+        <v>18.85736227636454</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -6503,15 +6503,15 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" si="16"/>
-        <v>2.5934151341162068</v>
+        <v>-5.3189788100982076</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="17"/>
-        <v>8.313415134116207</v>
+        <v>18.851021189901793</v>
       </c>
       <c r="H169" s="3">
         <f t="shared" si="18"/>
-        <v>8.313415134116207</v>
+        <v>18.851021189901793</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
@@ -6528,15 +6528,15 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" si="16"/>
-        <v>2.5963147813102565</v>
+        <v>-5.3249258572095703</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="17"/>
-        <v>8.3163147813102558</v>
+        <v>18.84507414279043</v>
       </c>
       <c r="H170" s="3">
         <f t="shared" si="18"/>
-        <v>8.3163147813102558</v>
+        <v>18.84507414279043</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
@@ -6553,15 +6553,15 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" si="16"/>
-        <v>2.5990220889164011</v>
+        <v>-5.3304784244017904</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="17"/>
-        <v>8.3190220889164017</v>
+        <v>18.839521575598212</v>
       </c>
       <c r="H171" s="3">
         <f t="shared" si="18"/>
-        <v>8.3190220889164017</v>
+        <v>18.839521575598212</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -6578,15 +6578,15 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="16"/>
-        <v>2.6015368563725079</v>
+        <v>-5.3356361003308761</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="17"/>
-        <v>8.3215368563725072</v>
+        <v>18.834363899669125</v>
       </c>
       <c r="H172" s="3">
         <f t="shared" si="18"/>
-        <v>8.3215368563725072</v>
+        <v>18.834363899669125</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
@@ -6603,15 +6603,15 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="16"/>
-        <v>2.6038588973801589</v>
+        <v>-5.3403985029070773</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="17"/>
-        <v>8.323858897380159</v>
+        <v>18.829601497092924</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="18"/>
-        <v>8.323858897380159</v>
+        <v>18.829601497092924</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -6628,15 +6628,15 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="16"/>
-        <v>2.6059880399184525</v>
+        <v>-5.3447652793231946</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="17"/>
-        <v>8.3259880399184532</v>
+        <v>18.825234720676807</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="18"/>
-        <v>8.3259880399184532</v>
+        <v>18.825234720676807</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -6653,15 +6653,15 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="16"/>
-        <v>2.6079241262567456</v>
+        <v>-5.3487361060807137</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="17"/>
-        <v>8.3279241262567449</v>
+        <v>18.821263893919287</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="18"/>
-        <v>8.3279241262567449</v>
+        <v>18.821263893919287</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
@@ -6678,15 +6678,15 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="16"/>
-        <v>2.6096670129663408</v>
+        <v>-5.3523106890137679</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="17"/>
-        <v>8.3296670129663397</v>
+        <v>18.817689310986232</v>
       </c>
       <c r="H176" s="3">
         <f t="shared" si="18"/>
-        <v>8.3296670129663397</v>
+        <v>18.817689310986232</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
@@ -6703,15 +6703,15 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="16"/>
-        <v>2.6112165709311101</v>
+        <v>-5.3554887633109383</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="17"/>
-        <v>8.3312165709311099</v>
+        <v>18.814511236689064</v>
       </c>
       <c r="H177" s="3">
         <f t="shared" si="18"/>
-        <v>8.3312165709311099</v>
+        <v>18.814511236689064</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -6728,15 +6728,15 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="16"/>
-        <v>2.6125726853570601</v>
+        <v>-5.3582700935348617</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="17"/>
-        <v>8.3325726853570607</v>
+        <v>18.811729906465139</v>
       </c>
       <c r="H178" s="3">
         <f t="shared" si="18"/>
-        <v>8.3325726853570607</v>
+        <v>18.811729906465139</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
@@ -6753,15 +6753,15 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="16"/>
-        <v>2.6137352557808384</v>
+        <v>-5.3606544736396806</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="17"/>
-        <v>8.3337352557808373</v>
+        <v>18.809345526360321</v>
       </c>
       <c r="H179" s="3">
         <f t="shared" si="18"/>
-        <v>8.3337352557808373</v>
+        <v>18.809345526360321</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -6778,15 +6778,15 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="16"/>
-        <v>2.6147041960771724</v>
+        <v>-5.3626417269863023</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="17"/>
-        <v>8.3347041960771726</v>
+        <v>18.807358273013698</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="18"/>
-        <v>8.3347041960771726</v>
+        <v>18.807358273013698</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
@@ -6803,15 +6803,15 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="16"/>
-        <v>2.6154794344652519</v>
+        <v>-5.3642317063554845</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="17"/>
-        <v>8.3354794344652525</v>
+        <v>18.805768293644519</v>
       </c>
       <c r="H181" s="3">
         <f t="shared" si="18"/>
-        <v>8.3354794344652525</v>
+        <v>18.805768293644519</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
@@ -6828,15 +6828,15 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="16"/>
-        <v>2.6160609135140485</v>
+        <v>-5.365424293958748</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="17"/>
-        <v>8.3360609135140482</v>
+        <v>18.804575706041256</v>
       </c>
       <c r="H182" s="3">
         <f t="shared" si="18"/>
-        <v>8.3360609135140482</v>
+        <v>18.804575706041256</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -6853,15 +6853,15 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="16"/>
-        <v>2.6164485901465646</v>
+        <v>-5.3662194014470934</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="17"/>
-        <v>8.3364485901465635</v>
+        <v>18.803780598552908</v>
       </c>
       <c r="H183" s="3">
         <f t="shared" si="18"/>
-        <v>8.3364485901465635</v>
+        <v>18.803780598552908</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
@@ -6878,15 +6878,15 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="16"/>
-        <v>2.6166424356430311</v>
+        <v>-5.3666169699175539</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="17"/>
-        <v>8.3366424356430304</v>
+        <v>18.803383030082447</v>
       </c>
       <c r="H184" s="3">
         <f t="shared" si="18"/>
-        <v>8.3366424356430304</v>
+        <v>18.803383030082447</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -6903,15 +6903,15 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="16"/>
-        <v>2.6166424356430311</v>
+        <v>-5.3666169699175539</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="17"/>
-        <v>8.3366424356430304</v>
+        <v>18.803383030082447</v>
       </c>
       <c r="H185" s="3">
         <f t="shared" si="18"/>
-        <v>8.3366424356430304</v>
+        <v>18.803383030082447</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
@@ -6928,15 +6928,15 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="16"/>
-        <v>2.6164485901465646</v>
+        <v>-5.3662194014470934</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="17"/>
-        <v>8.3364485901465635</v>
+        <v>18.803780598552908</v>
       </c>
       <c r="H186" s="3">
         <f t="shared" si="18"/>
-        <v>8.3364485901465635</v>
+        <v>18.803780598552908</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="16"/>
-        <v>2.6160609135140485</v>
+        <v>-5.365424293958748</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="17"/>
-        <v>8.3360609135140482</v>
+        <v>18.804575706041256</v>
       </c>
       <c r="H187" s="3">
         <f t="shared" si="18"/>
-        <v>8.3360609135140482</v>
+        <v>18.804575706041256</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
@@ -6978,15 +6978,15 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="16"/>
-        <v>2.6154794344652519</v>
+        <v>-5.3642317063554845</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="17"/>
-        <v>8.3354794344652525</v>
+        <v>18.805768293644519</v>
       </c>
       <c r="H188" s="3">
         <f t="shared" si="18"/>
-        <v>8.3354794344652525</v>
+        <v>18.805768293644519</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -7003,15 +7003,15 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="16"/>
-        <v>2.6147041960771724</v>
+        <v>-5.3626417269863023</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="17"/>
-        <v>8.3347041960771726</v>
+        <v>18.807358273013698</v>
       </c>
       <c r="H189" s="3">
         <f t="shared" si="18"/>
-        <v>8.3347041960771726</v>
+        <v>18.807358273013698</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -7028,15 +7028,15 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="16"/>
-        <v>2.6137352557808384</v>
+        <v>-5.3606544736396806</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="17"/>
-        <v>8.3337352557808373</v>
+        <v>18.809345526360321</v>
       </c>
       <c r="H190" s="3">
         <f t="shared" si="18"/>
-        <v>8.3337352557808373</v>
+        <v>18.809345526360321</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -7053,15 +7053,15 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="16"/>
-        <v>2.6125726853570601</v>
+        <v>-5.3582700935348617</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="17"/>
-        <v>8.3325726853570607</v>
+        <v>18.811729906465139</v>
       </c>
       <c r="H191" s="3">
         <f t="shared" si="18"/>
-        <v>8.3325726853570607</v>
+        <v>18.811729906465139</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
@@ -7078,15 +7078,15 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="16"/>
-        <v>2.6112165709311101</v>
+        <v>-5.3554887633109383</v>
       </c>
       <c r="F192" s="3">
         <f t="shared" si="17"/>
-        <v>8.3312165709311099</v>
+        <v>18.814511236689064</v>
       </c>
       <c r="H192" s="3">
         <f t="shared" si="18"/>
-        <v>8.3312165709311099</v>
+        <v>18.814511236689064</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="16"/>
-        <v>2.6096670129663408</v>
+        <v>-5.3523106890137688</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="17"/>
-        <v>8.3296670129663397</v>
+        <v>18.817689310986232</v>
       </c>
       <c r="H193" s="3">
         <f t="shared" si="18"/>
-        <v>8.3296670129663397</v>
+        <v>18.817689310986232</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
@@ -7128,15 +7128,15 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="16"/>
-        <v>2.6079241262567456</v>
+        <v>-5.3487361060807137</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="17"/>
-        <v>8.3279241262567449</v>
+        <v>18.821263893919287</v>
       </c>
       <c r="H194" s="3">
         <f t="shared" si="18"/>
-        <v>8.3279241262567449</v>
+        <v>18.821263893919287</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
@@ -7153,15 +7153,15 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="16"/>
-        <v>2.6059880399184525</v>
+        <v>-5.3447652793231946</v>
       </c>
       <c r="F195" s="3">
         <f t="shared" si="17"/>
-        <v>8.3259880399184532</v>
+        <v>18.825234720676807</v>
       </c>
       <c r="H195" s="3">
         <f t="shared" si="18"/>
-        <v>8.3259880399184532</v>
+        <v>18.825234720676807</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
@@ -7178,15 +7178,15 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" ref="E196:E259" si="21">D196*$E$2</f>
-        <v>2.6038588973801589</v>
+        <v>-5.3403985029070773</v>
       </c>
       <c r="F196" s="3">
         <f t="shared" ref="F196:F259" si="22">E196+$F$2</f>
-        <v>8.323858897380159</v>
+        <v>18.829601497092924</v>
       </c>
       <c r="H196" s="3">
         <f t="shared" ref="H196:H259" si="23">F196+G196</f>
-        <v>8.323858897380159</v>
+        <v>18.829601497092924</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="21"/>
-        <v>2.6015368563725079</v>
+        <v>-5.3356361003308761</v>
       </c>
       <c r="F197" s="3">
         <f t="shared" si="22"/>
-        <v>8.3215368563725072</v>
+        <v>18.834363899669125</v>
       </c>
       <c r="H197" s="3">
         <f t="shared" si="23"/>
-        <v>8.3215368563725072</v>
+        <v>18.834363899669125</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
@@ -7228,15 +7228,15 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="21"/>
-        <v>2.5990220889164011</v>
+        <v>-5.3304784244017904</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="22"/>
-        <v>8.3190220889164017</v>
+        <v>18.839521575598212</v>
       </c>
       <c r="H198" s="3">
         <f t="shared" si="23"/>
-        <v>8.3190220889164017</v>
+        <v>18.839521575598212</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
@@ -7253,15 +7253,15 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="21"/>
-        <v>2.5963147813102565</v>
+        <v>-5.3249258572095703</v>
       </c>
       <c r="F199" s="3">
         <f t="shared" si="22"/>
-        <v>8.3163147813102558</v>
+        <v>18.84507414279043</v>
       </c>
       <c r="H199" s="3">
         <f t="shared" si="23"/>
-        <v>8.3163147813102558</v>
+        <v>18.84507414279043</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
@@ -7278,15 +7278,15 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="21"/>
-        <v>2.5934151341162068</v>
+        <v>-5.3189788100982076</v>
       </c>
       <c r="F200" s="3">
         <f t="shared" si="22"/>
-        <v>8.313415134116207</v>
+        <v>18.851021189901793</v>
       </c>
       <c r="H200" s="3">
         <f t="shared" si="23"/>
-        <v>8.313415134116207</v>
+        <v>18.851021189901793</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="21"/>
-        <v>2.5903233621452411</v>
+        <v>-5.3126377236354614</v>
       </c>
       <c r="F201" s="3">
         <f t="shared" si="22"/>
-        <v>8.3103233621452404</v>
+        <v>18.85736227636454</v>
       </c>
       <c r="H201" s="3">
         <f t="shared" si="23"/>
-        <v>8.3103233621452404</v>
+        <v>18.85736227636454</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
@@ -7328,15 +7328,15 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" si="21"/>
-        <v>2.5870396944412914</v>
+        <v>-5.3059030675802275</v>
       </c>
       <c r="F202" s="3">
         <f t="shared" si="22"/>
-        <v>8.3070396944412916</v>
+        <v>18.864096932419773</v>
       </c>
       <c r="H202" s="3">
         <f t="shared" si="23"/>
-        <v>8.3070396944412916</v>
+        <v>18.864096932419773</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
@@ -7353,15 +7353,15 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="21"/>
-        <v>2.5835643742642649</v>
+        <v>-5.2987753408477278</v>
       </c>
       <c r="F203" s="3">
         <f t="shared" si="22"/>
-        <v>8.3035643742642655</v>
+        <v>18.871224659152276</v>
       </c>
       <c r="H203" s="3">
         <f t="shared" si="23"/>
-        <v>8.3035643742642655</v>
+        <v>18.871224659152276</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
@@ -7378,15 +7378,15 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="21"/>
-        <v>2.5798976590720235</v>
+        <v>-5.2912550714725572</v>
       </c>
       <c r="F204" s="3">
         <f t="shared" si="22"/>
-        <v>8.2998976590720233</v>
+        <v>18.878744928527446</v>
       </c>
       <c r="H204" s="3">
         <f t="shared" si="23"/>
-        <v>8.2998976590720233</v>
+        <v>18.878744928527446</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -7403,15 +7403,15 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="21"/>
-        <v>2.5760398205013084</v>
+        <v>-5.2833428165695624</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="22"/>
-        <v>8.2960398205013082</v>
+        <v>18.88665718343044</v>
       </c>
       <c r="H205" s="3">
         <f t="shared" si="23"/>
-        <v>8.2960398205013082</v>
+        <v>18.88665718343044</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
@@ -7428,15 +7428,15 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="21"/>
-        <v>2.5719911443476207</v>
+        <v>-5.2750391622925719</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="22"/>
-        <v>8.2919911443476195</v>
+        <v>18.89496083770743</v>
       </c>
       <c r="H206" s="3">
         <f t="shared" si="23"/>
-        <v>8.2919911443476195</v>
+        <v>18.89496083770743</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
@@ -7453,15 +7453,15 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="21"/>
-        <v>2.5677519305440448</v>
+        <v>-5.2663447237909704</v>
       </c>
       <c r="F207" s="3">
         <f t="shared" si="22"/>
-        <v>8.2877519305440437</v>
+        <v>18.90365527620903</v>
       </c>
       <c r="H207" s="3">
         <f t="shared" si="23"/>
-        <v>8.2877519305440437</v>
+        <v>18.90365527620903</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
@@ -7478,15 +7478,15 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="21"/>
-        <v>2.5633224931390326</v>
+        <v>-5.2572601451641301</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="22"/>
-        <v>8.2833224931390319</v>
+        <v>18.91273985483587</v>
       </c>
       <c r="H208" s="3">
         <f t="shared" si="23"/>
-        <v>8.2833224931390319</v>
+        <v>18.91273985483587</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
@@ -7503,15 +7503,15 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="21"/>
-        <v>2.5587031602731356</v>
+        <v>-5.247786099413692</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="22"/>
-        <v>8.2787031602731354</v>
+        <v>18.922213900586311</v>
       </c>
       <c r="H209" s="3">
         <f t="shared" si="23"/>
-        <v>8.2787031602731354</v>
+        <v>18.922213900586311</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
@@ -7528,15 +7528,15 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="21"/>
-        <v>2.5538942741546977</v>
+        <v>-5.2379232883937101</v>
       </c>
       <c r="F210" s="3">
         <f t="shared" si="22"/>
-        <v>8.2738942741546975</v>
+        <v>18.932076711606292</v>
       </c>
       <c r="H210" s="3">
         <f t="shared" si="23"/>
-        <v>8.2738942741546975</v>
+        <v>18.932076711606292</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
@@ -7553,15 +7553,15 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="21"/>
-        <v>2.5488961910345012</v>
+        <v>-5.2276724427586574</v>
       </c>
       <c r="F211" s="3">
         <f t="shared" si="22"/>
-        <v>8.2688961910345</v>
+        <v>18.942327557241345</v>
       </c>
       <c r="H211" s="3">
         <f t="shared" si="23"/>
-        <v>8.2688961910345</v>
+        <v>18.942327557241345</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
@@ -7578,15 +7578,15 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="21"/>
-        <v>2.5437092811793773</v>
+        <v>-5.2170343219092965</v>
       </c>
       <c r="F212" s="3">
         <f t="shared" si="22"/>
-        <v>8.2637092811793771</v>
+        <v>18.952965678090706</v>
       </c>
       <c r="H212" s="3">
         <f t="shared" si="23"/>
-        <v>8.2637092811793771</v>
+        <v>18.952965678090706</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
@@ -7603,15 +7603,15 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="21"/>
-        <v>2.5383339288447773</v>
+        <v>-5.2060097139364219</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="22"/>
-        <v>8.2583339288447775</v>
+        <v>18.963990286063581</v>
       </c>
       <c r="H213" s="3">
         <f t="shared" si="23"/>
-        <v>8.2583339288447775</v>
+        <v>18.963990286063581</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
@@ -7628,15 +7628,15 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="21"/>
-        <v>2.5327705322463019</v>
+        <v>-5.1945994355624787</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="22"/>
-        <v>8.2527705322463021</v>
+        <v>18.975400564437521</v>
       </c>
       <c r="H214" s="3">
         <f t="shared" si="23"/>
-        <v>8.2527705322463021</v>
+        <v>18.975400564437521</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
@@ -7653,15 +7653,15 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="21"/>
-        <v>2.5270195035302039</v>
+        <v>-5.1828043320810551</v>
       </c>
       <c r="F215" s="3">
         <f t="shared" si="22"/>
-        <v>8.2470195035302041</v>
+        <v>18.987195667918947</v>
       </c>
       <c r="H215" s="3">
         <f t="shared" si="23"/>
-        <v>8.2470195035302041</v>
+        <v>18.987195667918947</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
@@ -7678,15 +7678,15 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="21"/>
-        <v>2.5210812687428565</v>
+        <v>-5.170625277294266</v>
       </c>
       <c r="F216" s="3">
         <f t="shared" si="22"/>
-        <v>8.2410812687428567</v>
+        <v>18.999374722705735</v>
       </c>
       <c r="H216" s="3">
         <f t="shared" si="23"/>
-        <v>8.2410812687428567</v>
+        <v>18.999374722705735</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
@@ -7703,15 +7703,15 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="21"/>
-        <v>2.5149562677991875</v>
+        <v>-5.1580631734480145</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="22"/>
-        <v>8.2349562677991877</v>
+        <v>19.011936826551988</v>
       </c>
       <c r="H217" s="3">
         <f t="shared" si="23"/>
-        <v>8.2349562677991877</v>
+        <v>19.011936826551988</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
@@ -7728,15 +7728,15 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="21"/>
-        <v>2.5086449544500926</v>
+        <v>-5.1451189511651583</v>
       </c>
       <c r="F218" s="3">
         <f t="shared" si="22"/>
-        <v>8.2286449544500933</v>
+        <v>19.024881048834843</v>
       </c>
       <c r="H218" s="3">
         <f t="shared" si="23"/>
-        <v>8.2286449544500933</v>
+        <v>19.024881048834843</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
@@ -7753,15 +7753,15 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="21"/>
-        <v>2.5021477962488201</v>
+        <v>-5.1317935693765602</v>
       </c>
       <c r="F219" s="3">
         <f t="shared" si="22"/>
-        <v>8.2221477962488194</v>
+        <v>19.03820643062344</v>
       </c>
       <c r="H219" s="3">
         <f t="shared" si="23"/>
-        <v>8.2221477962488194</v>
+        <v>19.03820643062344</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
@@ -7778,15 +7778,15 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="21"/>
-        <v>2.495465274516333</v>
+        <v>-5.1180880152500583</v>
       </c>
       <c r="F220" s="3">
         <f t="shared" si="22"/>
-        <v>8.2154652745163332</v>
+        <v>19.051911984749943</v>
       </c>
       <c r="H220" s="3">
         <f t="shared" si="23"/>
-        <v>8.2154652745163332</v>
+        <v>19.051911984749943</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
@@ -7803,15 +7803,15 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="21"/>
-        <v>2.4885978843056527</v>
+        <v>-5.1040033041173247</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="22"/>
-        <v>8.208597884305652</v>
+        <v>19.065996695882678</v>
       </c>
       <c r="H221" s="3">
         <f t="shared" si="23"/>
-        <v>8.208597884305652</v>
+        <v>19.065996695882678</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
@@ -7828,15 +7828,15 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="21"/>
-        <v>2.4815461343651828</v>
+        <v>-5.0895404793986545</v>
       </c>
       <c r="F222" s="3">
         <f t="shared" si="22"/>
-        <v>8.2015461343651825</v>
+        <v>19.080459520601348</v>
       </c>
       <c r="H222" s="3">
         <f t="shared" si="23"/>
-        <v>8.2015461343651825</v>
+        <v>19.080459520601348</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
@@ -7853,15 +7853,15 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="21"/>
-        <v>2.4743105471010236</v>
+        <v>-5.0747006125256657</v>
       </c>
       <c r="F223" s="3">
         <f t="shared" si="22"/>
-        <v>8.1943105471010238</v>
+        <v>19.095299387474334</v>
       </c>
       <c r="H223" s="3">
         <f t="shared" si="23"/>
-        <v>8.1943105471010238</v>
+        <v>19.095299387474334</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
@@ -7878,15 +7878,15 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="21"/>
-        <v>2.4668916585382679</v>
+        <v>-5.0594848028619248</v>
       </c>
       <c r="F224" s="3">
         <f t="shared" si="22"/>
-        <v>8.1868916585382685</v>
+        <v>19.110515197138078</v>
       </c>
       <c r="H224" s="3">
         <f t="shared" si="23"/>
-        <v>8.1868916585382685</v>
+        <v>19.110515197138078</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
@@ -7903,15 +7903,15 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="21"/>
-        <v>2.4592900182812936</v>
+        <v>-5.0438941776215067</v>
       </c>
       <c r="F225" s="3">
         <f t="shared" si="22"/>
-        <v>8.1792900182812929</v>
+        <v>19.126105822378495</v>
       </c>
       <c r="H225" s="3">
         <f t="shared" si="23"/>
-        <v>8.1792900182812929</v>
+        <v>19.126105822378495</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
@@ -7928,15 +7928,15 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="21"/>
-        <v>2.4515061894730463</v>
+        <v>-5.0279298917854831</v>
       </c>
       <c r="F226" s="3">
         <f t="shared" si="22"/>
-        <v>8.1715061894730461</v>
+        <v>19.142070108214519</v>
       </c>
       <c r="H226" s="3">
         <f t="shared" si="23"/>
-        <v>8.1715061894730461</v>
+        <v>19.142070108214519</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
@@ -7953,15 +7953,15 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="21"/>
-        <v>2.4435407487533212</v>
+        <v>-5.0115931280163659</v>
       </c>
       <c r="F227" s="3">
         <f t="shared" si="22"/>
-        <v>8.16354074875332</v>
+        <v>19.158406871983637</v>
       </c>
       <c r="H227" s="3">
         <f t="shared" si="23"/>
-        <v>8.16354074875332</v>
+        <v>19.158406871983637</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
@@ -7978,15 +7978,15 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="21"/>
-        <v>2.4353942862160465</v>
+        <v>-4.9948850965704894</v>
       </c>
       <c r="F228" s="3">
         <f t="shared" si="22"/>
-        <v>8.1553942862160458</v>
+        <v>19.175114903429513</v>
       </c>
       <c r="H228" s="3">
         <f t="shared" si="23"/>
-        <v>8.1553942862160458</v>
+        <v>19.175114903429513</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
@@ -8003,15 +8003,15 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="21"/>
-        <v>2.4270674053655652</v>
+        <v>-4.9778070352083557</v>
       </c>
       <c r="F229" s="3">
         <f t="shared" si="22"/>
-        <v>8.147067405365565</v>
+        <v>19.192192964791644</v>
       </c>
       <c r="H229" s="3">
         <f t="shared" si="23"/>
-        <v>8.147067405365565</v>
+        <v>19.192192964791644</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
@@ -8028,15 +8028,15 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="21"/>
-        <v>2.4185607230719279</v>
+        <v>-4.9603602091029346</v>
       </c>
       <c r="F230" s="3">
         <f t="shared" si="22"/>
-        <v>8.1385607230719277</v>
+        <v>19.209639790897068</v>
       </c>
       <c r="H230" s="3">
         <f t="shared" si="23"/>
-        <v>8.1385607230719277</v>
+        <v>19.209639790897068</v>
       </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
@@ -8053,15 +8053,15 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="21"/>
-        <v>2.4098748695251944</v>
+        <v>-4.94254591074594</v>
       </c>
       <c r="F231" s="3">
         <f t="shared" si="22"/>
-        <v>8.1298748695251941</v>
+        <v>19.22745408925406</v>
       </c>
       <c r="H231" s="3">
         <f t="shared" si="23"/>
-        <v>8.1298748695251941</v>
+        <v>19.22745408925406</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
@@ -8078,15 +8078,15 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="21"/>
-        <v>2.4010104881887475</v>
+        <v>-4.9243654598520807</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="22"/>
-        <v>8.1210104881887482</v>
+        <v>19.245634540147922</v>
       </c>
       <c r="H232" s="3">
         <f t="shared" si="23"/>
-        <v>8.1210104881887482</v>
+        <v>19.245634540147922</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
@@ -8103,15 +8103,15 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="21"/>
-        <v>2.3919682357516243</v>
+        <v>-4.9058202032612925</v>
       </c>
       <c r="F233" s="3">
         <f t="shared" si="22"/>
-        <v>8.1119682357516236</v>
+        <v>19.264179796738709</v>
       </c>
       <c r="H233" s="3">
         <f t="shared" si="23"/>
-        <v>8.1119682357516236</v>
+        <v>19.264179796738709</v>
       </c>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
@@ -8128,15 +8128,15 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="21"/>
-        <v>2.3827487820798665</v>
+        <v>-4.8869115148389612</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="22"/>
-        <v>8.1027487820798658</v>
+        <v>19.283088485161041</v>
       </c>
       <c r="H234" s="3">
         <f t="shared" si="23"/>
-        <v>8.1027487820798658</v>
+        <v>19.283088485161041</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
@@ -8153,15 +8153,15 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="21"/>
-        <v>2.3733528101668977</v>
+        <v>-4.8676407953741458</v>
       </c>
       <c r="F235" s="3">
         <f t="shared" si="22"/>
-        <v>8.0933528101668983</v>
+        <v>19.302359204625855</v>
       </c>
       <c r="H235" s="3">
         <f t="shared" si="23"/>
-        <v>8.0933528101668983</v>
+        <v>19.302359204625855</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
@@ -8178,15 +8178,15 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="21"/>
-        <v>2.3637810160829247</v>
+        <v>-4.8480094724758072</v>
       </c>
       <c r="F236" s="3">
         <f t="shared" si="22"/>
-        <v>8.0837810160829235</v>
+        <v>19.321990527524193</v>
       </c>
       <c r="H236" s="3">
         <f t="shared" si="23"/>
-        <v>8.0837810160829235</v>
+        <v>19.321990527524193</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
@@ -8203,15 +8203,15 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="21"/>
-        <v>2.3540341089233707</v>
+        <v>-4.82801900046704</v>
       </c>
       <c r="F237" s="3">
         <f t="shared" si="22"/>
-        <v>8.0740341089233709</v>
+        <v>19.341980999532961</v>
       </c>
       <c r="H237" s="3">
         <f t="shared" si="23"/>
-        <v>8.0740341089233709</v>
+        <v>19.341980999532961</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
@@ -8228,15 +8228,15 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="21"/>
-        <v>2.3441128107563456</v>
+        <v>-4.8076708602773452</v>
       </c>
       <c r="F238" s="3">
         <f t="shared" si="22"/>
-        <v>8.0641128107563453</v>
+        <v>19.362329139722657</v>
       </c>
       <c r="H238" s="3">
         <f t="shared" si="23"/>
-        <v>8.0641128107563453</v>
+        <v>19.362329139722657</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
@@ -8253,18 +8253,18 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="21"/>
-        <v>2.3340178565691523</v>
+        <v>-4.7869665593329112</v>
       </c>
       <c r="F239" s="3">
         <f t="shared" si="22"/>
-        <v>8.0540178565691516</v>
+        <v>19.383033440667091</v>
       </c>
       <c r="G239" s="2">
         <v>1</v>
       </c>
       <c r="H239" s="3">
         <f t="shared" si="23"/>
-        <v>9.0540178565691516</v>
+        <v>20.383033440667091</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
@@ -8281,18 +8281,18 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="21"/>
-        <v>2.3237499942138409</v>
+        <v>-4.7659076314449473</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="22"/>
-        <v>8.0437499942138402</v>
+        <v>19.404092368555055</v>
       </c>
       <c r="G240" s="2">
         <v>1</v>
       </c>
       <c r="H240" s="3">
         <f t="shared" si="23"/>
-        <v>9.0437499942138402</v>
+        <v>20.404092368555055</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -8309,18 +8309,18 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="21"/>
-        <v>2.3133099843518021</v>
+        <v>-4.744495636696052</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="22"/>
-        <v>8.0333099843518028</v>
+        <v>19.425504363303951</v>
       </c>
       <c r="G241" s="2">
         <v>1</v>
       </c>
       <c r="H241" s="3">
         <f t="shared" si="23"/>
-        <v>9.0333099843518028</v>
+        <v>20.425504363303951</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -8337,18 +8337,18 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="21"/>
-        <v>2.3026986003974188</v>
+        <v>-4.7227321613246422</v>
       </c>
       <c r="F242" s="3">
         <f t="shared" si="22"/>
-        <v>8.022698600397419</v>
+        <v>19.447267838675359</v>
       </c>
       <c r="G242" s="2">
         <v>1</v>
       </c>
       <c r="H242" s="3">
         <f t="shared" si="23"/>
-        <v>9.022698600397419</v>
+        <v>20.447267838675359</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
@@ -8365,18 +8365,18 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="21"/>
-        <v>2.2919166284607697</v>
+        <v>-4.7006188176074382</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="22"/>
-        <v>8.011916628460769</v>
+        <v>19.469381182392564</v>
       </c>
       <c r="G243" s="2">
         <v>1</v>
       </c>
       <c r="H243" s="3">
         <f t="shared" si="23"/>
-        <v>9.011916628460769</v>
+        <v>20.469381182392564</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
@@ -8393,18 +8393,18 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="21"/>
-        <v>2.2809648672893927</v>
+        <v>-4.6781572437400278</v>
       </c>
       <c r="F244" s="3">
         <f t="shared" si="22"/>
-        <v>8.000964867289392</v>
+        <v>19.491842756259974</v>
       </c>
       <c r="G244" s="2">
         <v>1</v>
       </c>
       <c r="H244" s="3">
         <f t="shared" si="23"/>
-        <v>9.000964867289392</v>
+        <v>20.491842756259974</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
@@ -8421,18 +8421,18 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="21"/>
-        <v>2.2698441282091122</v>
+        <v>-4.655349103715503</v>
       </c>
       <c r="F245" s="3">
         <f t="shared" si="22"/>
-        <v>7.9898441282091124</v>
+        <v>19.5146508962845</v>
       </c>
       <c r="G245" s="2">
         <v>1</v>
       </c>
       <c r="H245" s="3">
         <f t="shared" si="23"/>
-        <v>8.9898441282091124</v>
+        <v>20.5146508962845</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
@@ -8449,18 +8449,18 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="21"/>
-        <v>2.2585552350639353</v>
+        <v>-4.6321960872011916</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="22"/>
-        <v>7.9785552350639346</v>
+        <v>19.537803912798811</v>
       </c>
       <c r="G246" s="2">
         <v>1</v>
       </c>
       <c r="H246" s="3">
         <f t="shared" si="23"/>
-        <v>8.9785552350639346</v>
+        <v>20.537803912798811</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
@@ -8477,18 +8477,18 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="21"/>
-        <v>2.2470990241550184</v>
+        <v>-4.6086999094134766</v>
       </c>
       <c r="F247" s="3">
         <f t="shared" si="22"/>
-        <v>7.9670990241550186</v>
+        <v>19.561300090586524</v>
       </c>
       <c r="G247" s="2">
         <v>1</v>
       </c>
       <c r="H247" s="3">
         <f t="shared" si="23"/>
-        <v>8.9670990241550186</v>
+        <v>20.561300090586524</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
@@ -8505,18 +8505,18 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="21"/>
-        <v>2.2354763441787142</v>
+        <v>-4.5848623109907383</v>
       </c>
       <c r="F248" s="3">
         <f t="shared" si="22"/>
-        <v>7.955476344178714</v>
+        <v>19.585137689009265</v>
       </c>
       <c r="G248" s="2">
         <v>1</v>
       </c>
       <c r="H248" s="3">
         <f t="shared" si="23"/>
-        <v>8.9554763441787131</v>
+        <v>20.585137689009265</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
@@ -8533,18 +8533,18 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="21"/>
-        <v>2.2236880561636987</v>
+        <v>-4.5606850578644007</v>
       </c>
       <c r="F249" s="3">
         <f t="shared" si="22"/>
-        <v>7.9436880561636984</v>
+        <v>19.609314942135601</v>
       </c>
       <c r="G249" s="2">
         <v>1</v>
       </c>
       <c r="H249" s="3">
         <f t="shared" si="23"/>
-        <v>8.9436880561636976</v>
+        <v>20.609314942135601</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
@@ -8561,18 +8561,18 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="21"/>
-        <v>2.2117350334071828</v>
+        <v>-4.5361699411281071</v>
       </c>
       <c r="F250" s="3">
         <f t="shared" si="22"/>
-        <v>7.9317350334071826</v>
+        <v>19.633830058871894</v>
       </c>
       <c r="G250" s="2">
         <v>1</v>
       </c>
       <c r="H250" s="3">
         <f t="shared" si="23"/>
-        <v>8.9317350334071826</v>
+        <v>20.633830058871894</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
@@ -8589,18 +8589,18 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="21"/>
-        <v>2.1996181614102182</v>
+        <v>-4.5113187769050338</v>
       </c>
       <c r="F251" s="3">
         <f t="shared" si="22"/>
-        <v>7.9196181614102183</v>
+        <v>19.658681223094966</v>
       </c>
       <c r="G251" s="2">
         <v>1</v>
       </c>
       <c r="H251" s="3">
         <f t="shared" si="23"/>
-        <v>8.9196181614102183</v>
+        <v>20.658681223094966</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
@@ -8617,18 +8617,18 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="21"/>
-        <v>2.187338337812101</v>
+        <v>-4.4861334062133533</v>
       </c>
       <c r="F252" s="3">
         <f t="shared" si="22"/>
-        <v>7.9073383378121012</v>
+        <v>19.683866593786647</v>
       </c>
       <c r="G252" s="2">
         <v>1</v>
       </c>
       <c r="H252" s="3">
         <f t="shared" si="23"/>
-        <v>8.9073383378121012</v>
+        <v>20.683866593786647</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
@@ -8645,18 +8645,18 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="21"/>
-        <v>2.1748964723238648</v>
+        <v>-4.460615694829837</v>
       </c>
       <c r="F253" s="3">
         <f t="shared" si="22"/>
-        <v>7.8948964723238646</v>
+        <v>19.709384305170165</v>
       </c>
       <c r="G253" s="2">
         <v>1</v>
       </c>
       <c r="H253" s="3">
         <f t="shared" si="23"/>
-        <v>8.8948964723238646</v>
+        <v>20.709384305170165</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
@@ -8673,18 +8673,18 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="21"/>
-        <v>2.1622934866608969</v>
+        <v>-4.4347675331516481</v>
       </c>
       <c r="F254" s="3">
         <f t="shared" si="22"/>
-        <v>7.8822934866608971</v>
+        <v>19.735232466848352</v>
       </c>
       <c r="G254" s="2">
         <v>1</v>
       </c>
       <c r="H254" s="3">
         <f t="shared" si="23"/>
-        <v>8.8822934866608971</v>
+        <v>20.735232466848352</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
@@ -8701,18 +8701,18 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="21"/>
-        <v>2.1495303144746507</v>
+        <v>-4.4085908360562902</v>
       </c>
       <c r="F255" s="3">
         <f t="shared" si="22"/>
-        <v>7.86953031447465</v>
+        <v>19.761409163943711</v>
       </c>
       <c r="G255" s="2">
         <v>1</v>
       </c>
       <c r="H255" s="3">
         <f t="shared" si="23"/>
-        <v>8.86953031447465</v>
+        <v>20.761409163943711</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
@@ -8729,18 +8729,18 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="21"/>
-        <v>2.1366079012834809</v>
+        <v>-4.3820875427597503</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="22"/>
-        <v>7.8566079012834802</v>
+        <v>19.787912457240253</v>
       </c>
       <c r="G256" s="2">
         <v>1</v>
       </c>
       <c r="H256" s="3">
         <f t="shared" si="23"/>
-        <v>8.8566079012834802</v>
+        <v>20.787912457240253</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
@@ -8757,18 +8757,18 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="21"/>
-        <v>2.123527204402595</v>
+        <v>-4.3552596166728375</v>
       </c>
       <c r="F257" s="3">
         <f t="shared" si="22"/>
-        <v>7.8435272044025943</v>
+        <v>19.814740383327162</v>
       </c>
       <c r="G257" s="2">
         <v>1</v>
       </c>
       <c r="H257" s="3">
         <f t="shared" si="23"/>
-        <v>8.8435272044025943</v>
+        <v>20.814740383327162</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
@@ -8785,18 +8785,18 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="21"/>
-        <v>2.1102891928731391</v>
+        <v>-4.3281090452557374</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="22"/>
-        <v>7.8302891928731384</v>
+        <v>19.841890954744265</v>
       </c>
       <c r="G258" s="2">
         <v>1</v>
       </c>
       <c r="H258" s="3">
         <f t="shared" si="23"/>
-        <v>8.8302891928731384</v>
+        <v>20.841890954744265</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
@@ -8813,18 +8813,18 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="21"/>
-        <v>2.0968948473904039</v>
+        <v>-4.3006378398707641</v>
       </c>
       <c r="F259" s="3">
         <f t="shared" si="22"/>
-        <v>7.8168948473904036</v>
+        <v>19.869362160129239</v>
       </c>
       <c r="G259" s="2">
         <v>1</v>
       </c>
       <c r="H259" s="3">
         <f t="shared" si="23"/>
-        <v>8.8168948473904045</v>
+        <v>20.869362160129239</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
@@ -8841,18 +8841,18 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" ref="E260:E323" si="26">D260*$E$2</f>
-        <v>2.0833451602311785</v>
+        <v>-4.2728480356333716</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" ref="F260:F323" si="27">E260+$F$2</f>
-        <v>7.8033451602311779</v>
+        <v>19.897151964366628</v>
       </c>
       <c r="G260" s="2">
         <v>1</v>
       </c>
       <c r="H260" s="3">
         <f t="shared" ref="H260:H323" si="28">F260+G260</f>
-        <v>8.8033451602311779</v>
+        <v>20.897151964366628</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
@@ -8869,18 +8869,18 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="26"/>
-        <v>2.0696411351802344</v>
+        <v>-4.244741691261372</v>
       </c>
       <c r="F261" s="3">
         <f t="shared" si="27"/>
-        <v>7.7896411351802346</v>
+        <v>19.925258308738631</v>
       </c>
       <c r="G261" s="2">
         <v>1</v>
       </c>
       <c r="H261" s="3">
         <f t="shared" si="28"/>
-        <v>8.7896411351802346</v>
+        <v>20.925258308738631</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
@@ -8897,18 +8897,18 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="26"/>
-        <v>2.0557837874559706</v>
+        <v>-4.2163208889224357</v>
       </c>
       <c r="F262" s="3">
         <f t="shared" si="27"/>
-        <v>7.7757837874559703</v>
+        <v>19.953679111077566</v>
       </c>
       <c r="G262" s="2">
         <v>1</v>
       </c>
       <c r="H262" s="3">
         <f t="shared" si="28"/>
-        <v>8.7757837874559712</v>
+        <v>20.953679111077566</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
@@ -8925,18 +8925,18 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="26"/>
-        <v>2.0417741436351959</v>
+        <v>-4.1875877340798278</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="27"/>
-        <v>7.7617741436351952</v>
+        <v>19.982412265920175</v>
       </c>
       <c r="G263" s="2">
         <v>1</v>
       </c>
       <c r="H263" s="3">
         <f t="shared" si="28"/>
-        <v>8.7617741436351952</v>
+        <v>20.982412265920175</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
@@ -8953,18 +8953,18 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="26"/>
-        <v>2.02761324157709</v>
+        <v>-4.1585443553364518</v>
       </c>
       <c r="F264" s="3">
         <f t="shared" si="27"/>
-        <v>7.7476132415770902</v>
+        <v>20.011455644663549</v>
       </c>
       <c r="G264" s="2">
         <v>1</v>
       </c>
       <c r="H264" s="3">
         <f t="shared" si="28"/>
-        <v>8.7476132415770902</v>
+        <v>21.011455644663549</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
@@ -8981,18 +8981,18 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="26"/>
-        <v>2.0133021303463043</v>
+        <v>-4.1291929042771329</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="27"/>
-        <v>7.7333021303463045</v>
+        <v>20.040807095722869</v>
       </c>
       <c r="G265" s="2">
         <v>1</v>
       </c>
       <c r="H265" s="3">
         <f t="shared" si="28"/>
-        <v>8.7333021303463045</v>
+        <v>21.040807095722869</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
@@ -9009,18 +9009,18 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" si="26"/>
-        <v>1.9988418701352539</v>
+        <v>-4.099535555309247</v>
       </c>
       <c r="F266" s="3">
         <f t="shared" si="27"/>
-        <v>7.7188418701352539</v>
+        <v>20.070464444690757</v>
       </c>
       <c r="G266" s="2">
         <v>1</v>
       </c>
       <c r="H266" s="3">
         <f t="shared" si="28"/>
-        <v>8.7188418701352539</v>
+        <v>21.070464444690757</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
@@ -9037,18 +9037,18 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="26"/>
-        <v>1.9842335321855724</v>
+        <v>-4.0695745055016195</v>
       </c>
       <c r="F267" s="3">
         <f t="shared" si="27"/>
-        <v>7.7042335321855724</v>
+        <v>20.100425494498381</v>
       </c>
       <c r="G267" s="2">
         <v>1</v>
       </c>
       <c r="H267" s="3">
         <f t="shared" si="28"/>
-        <v>8.7042335321855724</v>
+        <v>21.100425494498381</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
@@ -9065,18 +9065,18 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="26"/>
-        <v>1.9694781987087557</v>
+        <v>-4.0393119744217785</v>
       </c>
       <c r="F268" s="3">
         <f t="shared" si="27"/>
-        <v>7.6894781987087555</v>
+        <v>20.130688025578223</v>
       </c>
       <c r="G268" s="2">
         <v>1</v>
       </c>
       <c r="H268" s="3">
         <f t="shared" si="28"/>
-        <v>8.6894781987087555</v>
+        <v>21.130688025578223</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
@@ -9093,18 +9093,18 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="26"/>
-        <v>1.9545769628059868</v>
+        <v>-4.0087502039715135</v>
       </c>
       <c r="F269" s="3">
         <f t="shared" si="27"/>
-        <v>7.6745769628059861</v>
+        <v>20.161249796028489</v>
       </c>
       <c r="G269" s="2">
         <v>1</v>
       </c>
       <c r="H269" s="3">
         <f t="shared" si="28"/>
-        <v>8.6745769628059861</v>
+        <v>21.161249796028489</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
@@ -9121,18 +9121,18 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="26"/>
-        <v>1.9395309283871598</v>
+        <v>-3.9778914582207987</v>
       </c>
       <c r="F270" s="3">
         <f t="shared" si="27"/>
-        <v>7.6595309283871593</v>
+        <v>20.192108541779202</v>
       </c>
       <c r="G270" s="2">
         <v>1</v>
       </c>
       <c r="H270" s="3">
         <f t="shared" si="28"/>
-        <v>8.6595309283871593</v>
+        <v>21.192108541779202</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
@@ -9149,18 +9149,18 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="26"/>
-        <v>1.9243412100890962</v>
+        <v>-3.9467380232400568</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="27"/>
-        <v>7.6443412100890962</v>
+        <v>20.223261976759943</v>
       </c>
       <c r="G271" s="2">
         <v>1</v>
       </c>
       <c r="H271" s="3">
         <f t="shared" si="28"/>
-        <v>8.6443412100890953</v>
+        <v>21.223261976759943</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
@@ -9177,18 +9177,18 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="26"/>
-        <v>1.9090089331929767</v>
+        <v>-3.9152922069308183</v>
       </c>
       <c r="F272" s="3">
         <f t="shared" si="27"/>
-        <v>7.629008933192976</v>
+        <v>20.254707793069183</v>
       </c>
       <c r="G272" s="2">
         <v>1</v>
       </c>
       <c r="H272" s="3">
         <f t="shared" si="28"/>
-        <v>8.629008933192976</v>
+        <v>21.254707793069183</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
@@ -9205,18 +9205,18 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="26"/>
-        <v>1.8935352335409708</v>
+        <v>-3.8835563388547296</v>
       </c>
       <c r="F273" s="3">
         <f t="shared" si="27"/>
-        <v>7.6135352335409703</v>
+        <v>20.28644366114527</v>
       </c>
       <c r="G273" s="2">
         <v>1</v>
       </c>
       <c r="H273" s="3">
         <f t="shared" si="28"/>
-        <v>8.6135352335409703</v>
+        <v>21.28644366114527</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
@@ -9233,18 +9233,18 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="26"/>
-        <v>1.8779212574521009</v>
+        <v>-3.8515327700609965</v>
       </c>
       <c r="F274" s="3">
         <f t="shared" si="27"/>
-        <v>7.5979212574521009</v>
+        <v>20.318467229939007</v>
       </c>
       <c r="G274" s="2">
         <v>1</v>
       </c>
       <c r="H274" s="3">
         <f t="shared" si="28"/>
-        <v>8.5979212574521</v>
+        <v>21.318467229939007</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
@@ -9261,18 +9261,18 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="26"/>
-        <v>1.8621681616373107</v>
+        <v>-3.819223872912191</v>
       </c>
       <c r="F275" s="3">
         <f t="shared" si="27"/>
-        <v>7.5821681616373109</v>
+        <v>20.350776127087812</v>
       </c>
       <c r="G275" s="2">
         <v>1</v>
       </c>
       <c r="H275" s="3">
         <f t="shared" si="28"/>
-        <v>8.5821681616373109</v>
+        <v>21.350776127087812</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
@@ -9289,18 +9289,18 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="26"/>
-        <v>1.8462771131137827</v>
+        <v>-3.7866320409085219</v>
       </c>
       <c r="F276" s="3">
         <f t="shared" si="27"/>
-        <v>7.5662771131137827</v>
+        <v>20.38336795909148</v>
       </c>
       <c r="G276" s="2">
         <v>1</v>
       </c>
       <c r="H276" s="3">
         <f t="shared" si="28"/>
-        <v>8.5662771131137827</v>
+        <v>21.38336795909148</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
@@ -9317,18 +9317,18 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="26"/>
-        <v>1.830249289118477</v>
+        <v>-3.7537596885105065</v>
       </c>
       <c r="F277" s="3">
         <f t="shared" si="27"/>
-        <v>7.5502492891184767</v>
+        <v>20.416240311489496</v>
       </c>
       <c r="G277" s="2">
         <v>1</v>
       </c>
       <c r="H277" s="3">
         <f t="shared" si="28"/>
-        <v>8.5502492891184758</v>
+        <v>21.416240311489496</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
@@ -9345,18 +9345,18 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="26"/>
-        <v>1.8140858770209252</v>
+        <v>-3.7206092509601141</v>
       </c>
       <c r="F278" s="3">
         <f t="shared" si="27"/>
-        <v>7.5340858770209245</v>
+        <v>20.449390749039889</v>
       </c>
       <c r="G278" s="2">
         <v>1</v>
       </c>
       <c r="H278" s="3">
         <f t="shared" si="28"/>
-        <v>8.5340858770209245</v>
+        <v>21.449390749039889</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
@@ -9373,18 +9373,18 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="26"/>
-        <v>1.7977880742352628</v>
+        <v>-3.6871831841003475</v>
       </c>
       <c r="F279" s="3">
         <f t="shared" si="27"/>
-        <v>7.5177880742352627</v>
+        <v>20.482816815899653</v>
       </c>
       <c r="G279" s="2">
         <v>1</v>
       </c>
       <c r="H279" s="3">
         <f t="shared" si="28"/>
-        <v>8.5177880742352627</v>
+        <v>21.482816815899653</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
@@ -9401,18 +9401,18 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="26"/>
-        <v>1.7813570881315268</v>
+        <v>-3.6534839641933221</v>
       </c>
       <c r="F280" s="3">
         <f t="shared" si="27"/>
-        <v>7.5013570881315266</v>
+        <v>20.516516035806681</v>
       </c>
       <c r="G280" s="2">
         <v>1</v>
       </c>
       <c r="H280" s="3">
         <f t="shared" si="28"/>
-        <v>8.5013570881315275</v>
+        <v>21.516516035806681</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
@@ -9429,18 +9429,18 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="26"/>
-        <v>1.7647941359462083</v>
+        <v>-3.6195140877368086</v>
       </c>
       <c r="F281" s="3">
         <f t="shared" si="27"/>
-        <v>7.484794135946208</v>
+        <v>20.550485912263191</v>
       </c>
       <c r="G281" s="2">
         <v>1</v>
       </c>
       <c r="H281" s="3">
         <f t="shared" si="28"/>
-        <v>8.484794135946208</v>
+        <v>21.550485912263191</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
@@ -9457,18 +9457,18 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="26"/>
-        <v>1.7481004446920805</v>
+        <v>-3.5852760712792984</v>
       </c>
       <c r="F282" s="3">
         <f t="shared" si="27"/>
-        <v>7.4681004446920802</v>
+        <v>20.584723928720702</v>
       </c>
       <c r="G282" s="2">
         <v>1</v>
       </c>
       <c r="H282" s="3">
         <f t="shared" si="28"/>
-        <v>8.4681004446920802</v>
+        <v>21.584723928720702</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -9485,18 +9485,18 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="26"/>
-        <v>1.7312772510672949</v>
+        <v>-3.5507724512335601</v>
       </c>
       <c r="F283" s="3">
         <f t="shared" si="27"/>
-        <v>7.4512772510672942</v>
+        <v>20.619227548766442</v>
       </c>
       <c r="G283" s="2">
         <v>1</v>
       </c>
       <c r="H283" s="3">
         <f t="shared" si="28"/>
-        <v>8.4512772510672942</v>
+        <v>21.619227548766442</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
@@ -9513,18 +9513,18 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="26"/>
-        <v>1.7143258013637734</v>
+        <v>-3.5160057836887577</v>
       </c>
       <c r="F284" s="3">
         <f t="shared" si="27"/>
-        <v>7.434325801363773</v>
+        <v>20.653994216311244</v>
       </c>
       <c r="G284" s="2">
         <v>1</v>
       </c>
       <c r="H284" s="3">
         <f t="shared" si="28"/>
-        <v>8.434325801363773</v>
+        <v>21.653994216311244</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
@@ -9541,18 +9541,18 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="26"/>
-        <v>1.6972473513748683</v>
+        <v>-3.4809786442210671</v>
       </c>
       <c r="F285" s="3">
         <f t="shared" si="27"/>
-        <v>7.4172473513748685</v>
+        <v>20.689021355778934</v>
       </c>
       <c r="G285" s="2">
         <v>1</v>
       </c>
       <c r="H285" s="3">
         <f t="shared" si="28"/>
-        <v>8.4172473513748685</v>
+        <v>21.689021355778934</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
@@ -9569,18 +9569,18 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="26"/>
-        <v>1.6800431663023421</v>
+        <v>-3.4456936277028922</v>
       </c>
       <c r="F286" s="3">
         <f t="shared" si="27"/>
-        <v>7.4000431663023418</v>
+        <v>20.724306372297111</v>
       </c>
       <c r="G286" s="2">
         <v>1</v>
       </c>
       <c r="H286" s="3">
         <f t="shared" si="28"/>
-        <v>8.4000431663023427</v>
+        <v>21.724306372297111</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
@@ -9597,18 +9597,18 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="26"/>
-        <v>1.6627145206626313</v>
+        <v>-3.4101533481106192</v>
       </c>
       <c r="F287" s="3">
         <f t="shared" si="27"/>
-        <v>7.3827145206626312</v>
+        <v>20.759846651889383</v>
       </c>
       <c r="G287" s="2">
         <v>1</v>
       </c>
       <c r="H287" s="3">
         <f t="shared" si="28"/>
-        <v>8.3827145206626312</v>
+        <v>21.759846651889383</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
@@ -9625,18 +9625,18 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="26"/>
-        <v>1.6452626981924345</v>
+        <v>-3.3743604383309798</v>
       </c>
       <c r="F288" s="3">
         <f t="shared" si="27"/>
-        <v>7.3652626981924341</v>
+        <v>20.79563956166902</v>
       </c>
       <c r="G288" s="2">
         <v>1</v>
       </c>
       <c r="H288" s="3">
         <f t="shared" si="28"/>
-        <v>8.365262698192435</v>
+        <v>21.79563956166902</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
@@ -9653,18 +9653,18 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="26"/>
-        <v>1.6276889917536039</v>
+        <v>-3.3383175499659896</v>
       </c>
       <c r="F289" s="3">
         <f t="shared" si="27"/>
-        <v>7.3476889917536035</v>
+        <v>20.831682450034013</v>
       </c>
       <c r="G289" s="2">
         <v>1</v>
       </c>
       <c r="H289" s="3">
         <f t="shared" si="28"/>
-        <v>8.3476889917536035</v>
+        <v>21.831682450034013</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
@@ -9681,18 +9681,18 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="26"/>
-        <v>1.6099947032373751</v>
+        <v>-3.302027353136527</v>
       </c>
       <c r="F290" s="3">
         <f t="shared" si="27"/>
-        <v>7.3299947032373751</v>
+        <v>20.867972646863475</v>
       </c>
       <c r="G290" s="2">
         <v>1</v>
       </c>
       <c r="H290" s="3">
         <f t="shared" si="28"/>
-        <v>8.3299947032373751</v>
+        <v>21.867972646863475</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
@@ -9709,18 +9709,18 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="26"/>
-        <v>1.5921811434679141</v>
+        <v>-3.2654925362845115</v>
       </c>
       <c r="F291" s="3">
         <f t="shared" si="27"/>
-        <v>7.3121811434679138</v>
+        <v>20.90450746371549</v>
       </c>
       <c r="G291" s="2">
         <v>1</v>
       </c>
       <c r="H291" s="3">
         <f t="shared" si="28"/>
-        <v>8.3121811434679138</v>
+        <v>21.90450746371549</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
@@ -9737,18 +9737,18 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="26"/>
-        <v>1.5742496321052153</v>
+        <v>-3.2287158059737533</v>
       </c>
       <c r="F292" s="3">
         <f t="shared" si="27"/>
-        <v>7.294249632105215</v>
+        <v>20.941284194026249</v>
       </c>
       <c r="G292" s="2">
         <v>1</v>
       </c>
       <c r="H292" s="3">
         <f t="shared" si="28"/>
-        <v>8.294249632105215</v>
+        <v>21.941284194026249</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
@@ -9765,18 +9765,18 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="26"/>
-        <v>1.5562014975473308</v>
+        <v>-3.1916998866894297</v>
       </c>
       <c r="F293" s="3">
         <f t="shared" si="27"/>
-        <v>7.2762014975473308</v>
+        <v>20.978300113310571</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
       </c>
       <c r="H293" s="3">
         <f t="shared" si="28"/>
-        <v>8.2762014975473299</v>
+        <v>21.978300113310571</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
@@ -9793,18 +9793,18 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="26"/>
-        <v>1.5380380768319719</v>
+        <v>-3.1544475206362734</v>
       </c>
       <c r="F294" s="3">
         <f t="shared" si="27"/>
-        <v>7.2580380768319719</v>
+        <v>21.015552479363727</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
       </c>
       <c r="H294" s="3">
         <f t="shared" si="28"/>
-        <v>8.2580380768319728</v>
+        <v>22.015552479363727</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
@@ -9821,18 +9821,18 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="26"/>
-        <v>1.5197607155374457</v>
+        <v>-3.1169614675353978</v>
       </c>
       <c r="F295" s="3">
         <f t="shared" si="27"/>
-        <v>7.2397607155374457</v>
+        <v>21.053038532464605</v>
       </c>
       <c r="G295" s="2">
         <v>1</v>
       </c>
       <c r="H295" s="3">
         <f t="shared" si="28"/>
-        <v>8.2397607155374466</v>
+        <v>22.053038532464605</v>
       </c>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
@@ -9849,18 +9849,18 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="26"/>
-        <v>1.5013707676829837</v>
+        <v>-3.0792445044198771</v>
       </c>
       <c r="F296" s="3">
         <f t="shared" si="27"/>
-        <v>7.2213707676829832</v>
+        <v>21.090755495580126</v>
       </c>
       <c r="G296" s="2">
         <v>1</v>
       </c>
       <c r="H296" s="3">
         <f t="shared" si="28"/>
-        <v>8.2213707676829841</v>
+        <v>22.090755495580126</v>
       </c>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
@@ -9877,18 +9877,18 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="26"/>
-        <v>1.4828695956284248</v>
+        <v>-3.0412994254289982</v>
       </c>
       <c r="F297" s="3">
         <f t="shared" si="27"/>
-        <v>7.2028695956284245</v>
+        <v>21.128700574571003</v>
       </c>
       <c r="G297" s="2">
         <v>1</v>
       </c>
       <c r="H297" s="3">
         <f t="shared" si="28"/>
-        <v>8.2028695956284245</v>
+        <v>22.128700574571003</v>
       </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
@@ -9905,18 +9905,18 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="26"/>
-        <v>1.4642585699732966</v>
+        <v>-3.0031290416012832</v>
       </c>
       <c r="F298" s="3">
         <f t="shared" si="27"/>
-        <v>7.1842585699732968</v>
+        <v>21.166870958398718</v>
       </c>
       <c r="G298" s="2">
         <v>1</v>
       </c>
       <c r="H298" s="3">
         <f t="shared" si="28"/>
-        <v>8.1842585699732968</v>
+        <v>22.166870958398718</v>
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
@@ -9933,18 +9933,18 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="26"/>
-        <v>1.4455390694552719</v>
+        <v>-2.9647361806662262</v>
       </c>
       <c r="F299" s="3">
         <f t="shared" si="27"/>
-        <v>7.1655390694552716</v>
+        <v>21.205263819333776</v>
       </c>
       <c r="G299" s="2">
         <v>1</v>
       </c>
       <c r="H299" s="3">
         <f t="shared" si="28"/>
-        <v>8.1655390694552707</v>
+        <v>22.205263819333776</v>
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
@@ -9961,18 +9961,18 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="26"/>
-        <v>1.4267124808480378</v>
+        <v>-2.926123686834829</v>
       </c>
       <c r="F300" s="3">
         <f t="shared" si="27"/>
-        <v>7.1467124808480378</v>
+        <v>21.243876313165174</v>
       </c>
       <c r="G300" s="2">
         <v>1</v>
       </c>
       <c r="H300" s="3">
         <f t="shared" si="28"/>
-        <v>8.1467124808480378</v>
+        <v>22.243876313165174</v>
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
@@ -9989,18 +9989,18 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="26"/>
-        <v>1.4077801988585514</v>
+        <v>-2.887294420588876</v>
       </c>
       <c r="F301" s="3">
         <f t="shared" si="27"/>
-        <v>7.1277801988585514</v>
+        <v>21.282705579411125</v>
       </c>
       <c r="G301" s="2">
         <v>1</v>
       </c>
       <c r="H301" s="3">
         <f t="shared" si="28"/>
-        <v>8.1277801988585523</v>
+        <v>22.282705579411125</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
@@ -10017,18 +10017,18 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="26"/>
-        <v>1.3887436260237267</v>
+        <v>-2.8482512584690443</v>
       </c>
       <c r="F302" s="3">
         <f t="shared" si="27"/>
-        <v>7.1087436260237267</v>
+        <v>21.321748741530957</v>
       </c>
       <c r="G302" s="2">
         <v>1</v>
       </c>
       <c r="H302" s="3">
         <f t="shared" si="28"/>
-        <v>8.1087436260237276</v>
+        <v>22.321748741530957</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
@@ -10045,18 +10045,18 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="26"/>
-        <v>1.3696041726065231</v>
+        <v>-2.808997092861786</v>
       </c>
       <c r="F303" s="3">
         <f t="shared" si="27"/>
-        <v>7.0896041726065224</v>
+        <v>21.361002907138214</v>
       </c>
       <c r="G303" s="2">
         <v>1</v>
       </c>
       <c r="H303" s="3">
         <f t="shared" si="28"/>
-        <v>8.0896041726065224</v>
+        <v>22.361002907138214</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
@@ -10073,18 +10073,18 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="26"/>
-        <v>1.3503632564914818</v>
+        <v>-2.769534831785077</v>
       </c>
       <c r="F304" s="3">
         <f t="shared" si="27"/>
-        <v>7.0703632564914818</v>
+        <v>21.400465168214925</v>
       </c>
       <c r="G304" s="2">
         <v>1</v>
       </c>
       <c r="H304" s="3">
         <f t="shared" si="28"/>
-        <v>8.0703632564914827</v>
+        <v>22.400465168214925</v>
       </c>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
@@ -10101,18 +10101,18 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="26"/>
-        <v>1.3310223030796735</v>
+        <v>-2.7298673986729605</v>
       </c>
       <c r="F305" s="3">
         <f t="shared" si="27"/>
-        <v>7.051022303079673</v>
+        <v>21.44013260132704</v>
       </c>
       <c r="G305" s="2">
         <v>1</v>
       </c>
       <c r="H305" s="3">
         <f t="shared" si="28"/>
-        <v>8.051022303079673</v>
+        <v>22.44013260132704</v>
       </c>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
@@ -10129,18 +10129,18 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="26"/>
-        <v>1.3115827451831135</v>
+        <v>-2.689997732158997</v>
       </c>
       <c r="F306" s="3">
         <f t="shared" si="27"/>
-        <v>7.0315827451831137</v>
+        <v>21.480002267841005</v>
       </c>
       <c r="G306" s="2">
         <v>1</v>
       </c>
       <c r="H306" s="3">
         <f t="shared" si="28"/>
-        <v>8.0315827451831137</v>
+        <v>22.480002267841005</v>
       </c>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
@@ -10157,18 +10157,18 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="26"/>
-        <v>1.2920460229186075</v>
+        <v>-2.649928785858545</v>
       </c>
       <c r="F307" s="3">
         <f t="shared" si="27"/>
-        <v>7.0120460229186072</v>
+        <v>21.520071214141456</v>
       </c>
       <c r="G307" s="2">
         <v>1</v>
       </c>
       <c r="H307" s="3">
         <f t="shared" si="28"/>
-        <v>8.0120460229186072</v>
+        <v>22.520071214141456</v>
       </c>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
@@ -10185,18 +10185,18 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="26"/>
-        <v>1.2724135836010735</v>
+        <v>-2.609663528149972</v>
       </c>
       <c r="F308" s="3">
         <f t="shared" si="27"/>
-        <v>6.9924135836010732</v>
+        <v>21.560336471850029</v>
       </c>
       <c r="G308" s="2">
         <v>1</v>
       </c>
       <c r="H308" s="3">
         <f t="shared" si="28"/>
-        <v>7.9924135836010732</v>
+        <v>22.560336471850029</v>
       </c>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
@@ -10213,18 +10213,18 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="26"/>
-        <v>1.2526868816363137</v>
+        <v>-2.569204941954732</v>
       </c>
       <c r="F309" s="3">
         <f t="shared" si="27"/>
-        <v>6.9726868816363137</v>
+        <v>21.600795058045271</v>
       </c>
       <c r="G309" s="2">
         <v>1</v>
       </c>
       <c r="H309" s="3">
         <f t="shared" si="28"/>
-        <v>7.9726868816363137</v>
+        <v>22.600795058045271</v>
       </c>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
@@ -10241,18 +10241,18 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="26"/>
-        <v>1.2328673784132782</v>
+        <v>-2.5285560245164045</v>
       </c>
       <c r="F310" s="3">
         <f t="shared" si="27"/>
-        <v>6.952867378413278</v>
+        <v>21.641443975483597</v>
       </c>
       <c r="G310" s="2">
         <v>1</v>
       </c>
       <c r="H310" s="3">
         <f t="shared" si="28"/>
-        <v>7.952867378413278</v>
+        <v>22.641443975483597</v>
       </c>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
@@ -10269,18 +10269,18 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="26"/>
-        <v>1.212956542195794</v>
+        <v>-2.4877197871786345</v>
       </c>
       <c r="F311" s="3">
         <f t="shared" si="27"/>
-        <v>6.9329565421957939</v>
+        <v>21.682280212821368</v>
       </c>
       <c r="G311" s="2">
         <v>1</v>
       </c>
       <c r="H311" s="3">
         <f t="shared" si="28"/>
-        <v>7.9329565421957939</v>
+        <v>22.682280212821368</v>
       </c>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
@@ -10297,18 +10297,18 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="26"/>
-        <v>1.1929558480138007</v>
+        <v>-2.4466992551620623</v>
       </c>
       <c r="F312" s="3">
         <f t="shared" si="27"/>
-        <v>6.9129558480138007</v>
+        <v>21.723300744837939</v>
       </c>
       <c r="G312" s="2">
         <v>1</v>
       </c>
       <c r="H312" s="3">
         <f t="shared" si="28"/>
-        <v>7.9129558480138007</v>
+        <v>22.723300744837939</v>
       </c>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
@@ -10325,18 +10325,18 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="26"/>
-        <v>1.1728667775540744</v>
+        <v>-2.4054974673402034</v>
       </c>
       <c r="F313" s="3">
         <f t="shared" si="27"/>
-        <v>6.8928667775540742</v>
+        <v>21.764502532659797</v>
       </c>
       <c r="G313" s="2">
         <v>1</v>
       </c>
       <c r="H313" s="3">
         <f t="shared" si="28"/>
-        <v>7.8928667775540742</v>
+        <v>22.764502532659797</v>
       </c>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
@@ -10353,18 +10353,18 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="26"/>
-        <v>1.1526908190504621</v>
+        <v>-2.3641174760143233</v>
       </c>
       <c r="F314" s="3">
         <f t="shared" si="27"/>
-        <v>6.8726908190504616</v>
+        <v>21.80588252398568</v>
       </c>
       <c r="G314" s="2">
         <v>1</v>
       </c>
       <c r="H314" s="3">
         <f t="shared" si="28"/>
-        <v>7.8726908190504616</v>
+        <v>22.80588252398568</v>
       </c>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
@@ -10381,18 +10381,18 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="26"/>
-        <v>1.1324294671736284</v>
+        <v>-2.322562346687314</v>
       </c>
       <c r="F315" s="3">
         <f t="shared" si="27"/>
-        <v>6.8524294671736286</v>
+        <v>21.847437653312689</v>
       </c>
       <c r="G315" s="2">
         <v>1</v>
       </c>
       <c r="H315" s="3">
         <f t="shared" si="28"/>
-        <v>7.8524294671736286</v>
+        <v>22.847437653312689</v>
       </c>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
@@ -10409,18 +10409,18 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="26"/>
-        <v>1.1120842229203336</v>
+        <v>-2.2808351578366075</v>
       </c>
       <c r="F316" s="3">
         <f t="shared" si="27"/>
-        <v>6.8320842229203329</v>
+        <v>21.889164842163396</v>
       </c>
       <c r="G316" s="2">
         <v>1</v>
       </c>
       <c r="H316" s="3">
         <f t="shared" si="28"/>
-        <v>7.8320842229203329</v>
+        <v>22.889164842163396</v>
       </c>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
@@ -10437,18 +10437,18 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="26"/>
-        <v>1.0916565935022293</v>
+        <v>-2.2389390006861007</v>
       </c>
       <c r="F317" s="3">
         <f t="shared" si="27"/>
-        <v>6.8116565935022289</v>
+        <v>21.9310609993139</v>
       </c>
       <c r="G317" s="2">
         <v>1</v>
       </c>
       <c r="H317" s="3">
         <f t="shared" si="28"/>
-        <v>7.8116565935022289</v>
+        <v>22.9310609993139</v>
       </c>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
@@ -10465,18 +10465,18 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="26"/>
-        <v>1.0711480922342105</v>
+        <v>-2.1968769789771705</v>
       </c>
       <c r="F318" s="3">
         <f t="shared" si="27"/>
-        <v>6.7911480922342102</v>
+        <v>21.973123021022833</v>
       </c>
       <c r="G318" s="2">
         <v>1</v>
       </c>
       <c r="H318" s="3">
         <f t="shared" si="28"/>
-        <v>7.7911480922342102</v>
+        <v>22.973123021022833</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
@@ -10493,18 +10493,18 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="26"/>
-        <v>1.0505602384222967</v>
+        <v>-2.1546522087387228</v>
       </c>
       <c r="F319" s="3">
         <f t="shared" si="27"/>
-        <v>6.7705602384222967</v>
+        <v>22.015347791261277</v>
       </c>
       <c r="G319" s="2">
         <v>1</v>
       </c>
       <c r="H319" s="3">
         <f t="shared" si="28"/>
-        <v>7.7705602384222967</v>
+        <v>23.015347791261277</v>
       </c>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
@@ -10521,18 +10521,18 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="26"/>
-        <v>1.0298945572510891</v>
+        <v>-2.1122678180563739</v>
       </c>
       <c r="F320" s="3">
         <f t="shared" si="27"/>
-        <v>6.7498945572510891</v>
+        <v>22.057732181943628</v>
       </c>
       <c r="G320" s="2">
         <v>1</v>
       </c>
       <c r="H320" s="3">
         <f t="shared" si="28"/>
-        <v>7.7498945572510891</v>
+        <v>23.057732181943628</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
@@ -10549,18 +10549,18 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="26"/>
-        <v>1.0091525796707728</v>
+        <v>-2.0697269468406931</v>
       </c>
       <c r="F321" s="3">
         <f t="shared" si="27"/>
-        <v>6.7291525796707727</v>
+        <v>22.100273053159309</v>
       </c>
       <c r="G321" s="2">
         <v>1</v>
       </c>
       <c r="H321" s="3">
         <f t="shared" si="28"/>
-        <v>7.7291525796707727</v>
+        <v>23.100273053159309</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
@@ -10577,18 +10577,18 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="26"/>
-        <v>0.9883358422837083</v>
+        <v>-2.0270327465946116</v>
       </c>
       <c r="F322" s="3">
         <f t="shared" si="27"/>
-        <v>6.7083358422837076</v>
+        <v>22.142967253405391</v>
       </c>
       <c r="G322" s="2">
         <v>1</v>
       </c>
       <c r="H322" s="3">
         <f t="shared" si="28"/>
-        <v>7.7083358422837076</v>
+        <v>23.142967253405391</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
@@ -10605,18 +10605,18 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="26"/>
-        <v>0.96744588723059477</v>
+        <v>-1.9841883801799458</v>
       </c>
       <c r="F323" s="3">
         <f t="shared" si="27"/>
-        <v>6.6874458872305942</v>
+        <v>22.185811619820058</v>
       </c>
       <c r="G323" s="2">
         <v>1</v>
       </c>
       <c r="H323" s="3">
         <f t="shared" si="28"/>
-        <v>7.6874458872305942</v>
+        <v>23.185811619820058</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
@@ -10633,18 +10633,18 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" ref="E324:E367" si="31">D324*$E$2</f>
-        <v>0.94648426207622549</v>
+        <v>-1.9411970215830865</v>
       </c>
       <c r="F324" s="3">
         <f t="shared" ref="F324:F367" si="32">E324+$F$2</f>
-        <v>6.6664842620762252</v>
+        <v>22.228802978416915</v>
       </c>
       <c r="G324" s="2">
         <v>1</v>
       </c>
       <c r="H324" s="3">
         <f t="shared" ref="H324:H367" si="33">F324+G324</f>
-        <v>7.6664842620762252</v>
+        <v>23.228802978416915</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
@@ -10661,18 +10661,18 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="31"/>
-        <v>0.9254525196948391</v>
+        <v>-1.898061855679861</v>
       </c>
       <c r="F325" s="3">
         <f t="shared" si="32"/>
-        <v>6.6454525196948389</v>
+        <v>22.271938144320142</v>
       </c>
       <c r="G325" s="2">
         <v>1</v>
       </c>
       <c r="H325" s="3">
         <f t="shared" si="33"/>
-        <v>7.6454525196948389</v>
+        <v>23.271938144320142</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
@@ -10689,18 +10689,18 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="31"/>
-        <v>0.90435221815508615</v>
+        <v>-1.8547860779996033</v>
       </c>
       <c r="F326" s="3">
         <f t="shared" si="32"/>
-        <v>6.624352218155086</v>
+        <v>22.3152139220004</v>
       </c>
       <c r="G326" s="2">
         <v>1</v>
       </c>
       <c r="H326" s="3">
         <f t="shared" si="33"/>
-        <v>7.624352218155086</v>
+        <v>23.3152139220004</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
@@ -10717,18 +10717,18 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="31"/>
-        <v>0.88318492060459675</v>
+        <v>-1.8113728944884084</v>
       </c>
       <c r="F327" s="3">
         <f t="shared" si="32"/>
-        <v>6.6031849206045967</v>
+        <v>22.358627105511594</v>
       </c>
       <c r="G327" s="2">
         <v>1</v>
       </c>
       <c r="H327" s="3">
         <f t="shared" si="33"/>
-        <v>7.6031849206045967</v>
+        <v>23.358627105511594</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
@@ -10745,18 +10745,18 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="31"/>
-        <v>0.86195219515418797</v>
+        <v>-1.7678255212716467</v>
       </c>
       <c r="F328" s="3">
         <f t="shared" si="32"/>
-        <v>6.5819521951541873</v>
+        <v>22.402174478728355</v>
       </c>
       <c r="G328" s="2">
         <v>1</v>
       </c>
       <c r="H328" s="3">
         <f t="shared" si="33"/>
-        <v>7.5819521951541873</v>
+        <v>23.402174478728355</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
@@ -10773,18 +10773,18 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="31"/>
-        <v>0.84065561476168749</v>
+        <v>-1.7241471844156901</v>
       </c>
       <c r="F329" s="3">
         <f t="shared" si="32"/>
-        <v>6.5606556147616875</v>
+        <v>22.44585281558431</v>
       </c>
       <c r="G329" s="2">
         <v>1</v>
       </c>
       <c r="H329" s="3">
         <f t="shared" si="33"/>
-        <v>7.5606556147616875</v>
+        <v>23.44585281558431</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
@@ -10801,18 +10801,18 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" si="31"/>
-        <v>0.81929675711541272</v>
+        <v>-1.6803411196889355</v>
       </c>
       <c r="F330" s="3">
         <f t="shared" si="32"/>
-        <v>6.5392967571154124</v>
+        <v>22.489658880311065</v>
       </c>
       <c r="G330" s="2">
         <v>1</v>
       </c>
       <c r="H330" s="3">
         <f t="shared" si="33"/>
-        <v>7.5392967571154124</v>
+        <v>23.489658880311065</v>
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
@@ -10829,18 +10829,18 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="31"/>
-        <v>0.79787720451729049</v>
+        <v>-1.6364105723220861</v>
       </c>
       <c r="F331" s="3">
         <f t="shared" si="32"/>
-        <v>6.5178772045172906</v>
+        <v>22.533589427677917</v>
       </c>
       <c r="G331" s="2">
         <v>1</v>
       </c>
       <c r="H331" s="3">
         <f t="shared" si="33"/>
-        <v>7.5178772045172906</v>
+        <v>23.533589427677917</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
@@ -10857,18 +10857,18 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="31"/>
-        <v>0.77639854376563311</v>
+        <v>-1.5923587967677315</v>
       </c>
       <c r="F332" s="3">
         <f t="shared" si="32"/>
-        <v>6.4963985437656326</v>
+        <v>22.577641203232272</v>
       </c>
       <c r="G332" s="2">
         <v>1</v>
       </c>
       <c r="H332" s="3">
         <f t="shared" si="33"/>
-        <v>7.4963985437656326</v>
+        <v>23.577641203232272</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
@@ -10885,18 +10885,18 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="31"/>
-        <v>0.75486236603759338</v>
+        <v>-1.5481890564592677</v>
       </c>
       <c r="F333" s="3">
         <f t="shared" si="32"/>
-        <v>6.474862366037593</v>
+        <v>22.621810943540734</v>
       </c>
       <c r="G333" s="2">
         <v>1</v>
       </c>
       <c r="H333" s="3">
         <f t="shared" si="33"/>
-        <v>7.474862366037593</v>
+        <v>23.621810943540734</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
@@ -10913,18 +10913,18 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="31"/>
-        <v>0.73327026677128282</v>
+        <v>-1.5039046235691276</v>
       </c>
       <c r="F334" s="3">
         <f t="shared" si="32"/>
-        <v>6.4532702667712822</v>
+        <v>22.666095376430874</v>
       </c>
       <c r="G334" s="2">
         <v>1</v>
       </c>
       <c r="H334" s="3">
         <f t="shared" si="33"/>
-        <v>7.4532702667712822</v>
+        <v>23.666095376430874</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -10941,18 +10941,18 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="31"/>
-        <v>0.71162384554757618</v>
+        <v>-1.4595087787663663</v>
       </c>
       <c r="F335" s="3">
         <f t="shared" si="32"/>
-        <v>6.431623845547576</v>
+        <v>22.710491221233635</v>
       </c>
       <c r="G335" s="2">
         <v>1</v>
       </c>
       <c r="H335" s="3">
         <f t="shared" si="33"/>
-        <v>7.431623845547576</v>
+        <v>23.710491221233635</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
@@ -10969,18 +10969,18 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="31"/>
-        <v>0.6899247059716197</v>
+        <v>-1.4150048109736404</v>
       </c>
       <c r="F336" s="3">
         <f t="shared" si="32"/>
-        <v>6.4099247059716191</v>
+        <v>22.75499518902636</v>
       </c>
       <c r="G336" s="2">
         <v>1</v>
       </c>
       <c r="H336" s="3">
         <f t="shared" si="33"/>
-        <v>7.4099247059716191</v>
+        <v>23.75499518902636</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
@@ -10997,18 +10997,18 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="31"/>
-        <v>0.66817445555402299</v>
+        <v>-1.3703960171235374</v>
       </c>
       <c r="F337" s="3">
         <f t="shared" si="32"/>
-        <v>6.3881744555540223</v>
+        <v>22.799603982876466</v>
       </c>
       <c r="G337" s="2">
         <v>1</v>
       </c>
       <c r="H337" s="3">
         <f t="shared" si="33"/>
-        <v>7.3881744555540223</v>
+        <v>23.799603982876466</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
@@ -11025,18 +11025,18 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="31"/>
-        <v>0.64637470559178245</v>
+        <v>-1.3256857019143564</v>
       </c>
       <c r="F338" s="3">
         <f t="shared" si="32"/>
-        <v>6.3663747055917819</v>
+        <v>22.844314298085646</v>
       </c>
       <c r="G338" s="2">
         <v>1</v>
       </c>
       <c r="H338" s="3">
         <f t="shared" si="33"/>
-        <v>7.3663747055917819</v>
+        <v>23.844314298085646</v>
       </c>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
@@ -11053,18 +11053,18 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="31"/>
-        <v>0.62452707104890337</v>
+        <v>-1.2808771775652668</v>
       </c>
       <c r="F339" s="3">
         <f t="shared" si="32"/>
-        <v>6.344527071048903</v>
+        <v>22.889122822434736</v>
       </c>
       <c r="G339" s="2">
         <v>1</v>
       </c>
       <c r="H339" s="3">
         <f t="shared" si="33"/>
-        <v>7.344527071048903</v>
+        <v>23.889122822434736</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
@@ -11081,18 +11081,18 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="31"/>
-        <v>0.60263317043676878</v>
+        <v>-1.2359737635709522</v>
       </c>
       <c r="F340" s="3">
         <f t="shared" si="32"/>
-        <v>6.3226331704367684</v>
+        <v>22.934026236429048</v>
       </c>
       <c r="G340" s="2">
         <v>1</v>
       </c>
       <c r="H340" s="3">
         <f t="shared" si="33"/>
-        <v>7.3226331704367684</v>
+        <v>23.934026236429048</v>
       </c>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
@@ -11109,18 +11109,18 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="31"/>
-        <v>0.58069462569423391</v>
+        <v>-1.1909787864556898</v>
       </c>
       <c r="F341" s="3">
         <f t="shared" si="32"/>
-        <v>6.3006946256942333</v>
+        <v>22.979021213544311</v>
       </c>
       <c r="G341" s="2">
         <v>1</v>
       </c>
       <c r="H341" s="3">
         <f t="shared" si="33"/>
-        <v>7.3006946256942333</v>
+        <v>23.979021213544311</v>
       </c>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
@@ -11137,18 +11137,18 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="31"/>
-        <v>0.55871306206746663</v>
+        <v>-1.1458955795269059</v>
       </c>
       <c r="F342" s="3">
         <f t="shared" si="32"/>
-        <v>6.2787130620674665</v>
+        <v>23.024104420473094</v>
       </c>
       <c r="G342" s="2">
         <v>1</v>
       </c>
       <c r="H342" s="3">
         <f t="shared" si="33"/>
-        <v>7.2787130620674665</v>
+        <v>24.024104420473094</v>
       </c>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
@@ -11165,18 +11165,18 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="31"/>
-        <v>0.53669010798955352</v>
+        <v>-1.1007274826282563</v>
       </c>
       <c r="F343" s="3">
         <f t="shared" si="32"/>
-        <v>6.2566901079895532</v>
+        <v>23.069272517371747</v>
       </c>
       <c r="G343" s="2">
         <v>1</v>
       </c>
       <c r="H343" s="3">
         <f t="shared" si="33"/>
-        <v>7.2566901079895532</v>
+        <v>24.069272517371747</v>
       </c>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
@@ -11193,18 +11193,18 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="31"/>
-        <v>0.51462739495985854</v>
+        <v>-1.0554778418921937</v>
       </c>
       <c r="F344" s="3">
         <f t="shared" si="32"/>
-        <v>6.2346273949598583</v>
+        <v>23.114522158107807</v>
       </c>
       <c r="G344" s="2">
         <v>1</v>
       </c>
       <c r="H344" s="3">
         <f t="shared" si="33"/>
-        <v>7.2346273949598583</v>
+        <v>24.114522158107807</v>
       </c>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
@@ -11221,18 +11221,18 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="31"/>
-        <v>0.49252655742315588</v>
+        <v>-1.0101500094920774</v>
       </c>
       <c r="F345" s="3">
         <f t="shared" si="32"/>
-        <v>6.2125265574231552</v>
+        <v>23.159849990507926</v>
       </c>
       <c r="G345" s="2">
         <v>1</v>
       </c>
       <c r="H345" s="3">
         <f t="shared" si="33"/>
-        <v>7.2125265574231552</v>
+        <v>24.159849990507926</v>
       </c>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
@@ -11249,18 +11249,18 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="31"/>
-        <v>0.47038923264855503</v>
+        <v>-0.9647473433938516</v>
       </c>
       <c r="F346" s="3">
         <f t="shared" si="32"/>
-        <v>6.1903892326485543</v>
+        <v>23.205252656606149</v>
       </c>
       <c r="G346" s="2">
         <v>1</v>
       </c>
       <c r="H346" s="3">
         <f t="shared" si="33"/>
-        <v>7.1903892326485543</v>
+        <v>24.205252656606149</v>
       </c>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
@@ -11277,18 +11277,18 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="31"/>
-        <v>0.44821706060819999</v>
+        <v>-0.91927320710726357</v>
       </c>
       <c r="F347" s="3">
         <f t="shared" si="32"/>
-        <v>6.1682170606081996</v>
+        <v>23.250726792892738</v>
       </c>
       <c r="G347" s="2">
         <v>1</v>
       </c>
       <c r="H347" s="3">
         <f t="shared" si="33"/>
-        <v>7.1682170606081996</v>
+        <v>24.250726792892738</v>
       </c>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
@@ -11305,18 +11305,18 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="31"/>
-        <v>0.42601168385578664</v>
+        <v>-0.8737309694367088</v>
       </c>
       <c r="F348" s="3">
         <f t="shared" si="32"/>
-        <v>6.1460116838557868</v>
+        <v>23.296269030563295</v>
       </c>
       <c r="G348" s="2">
         <v>1</v>
       </c>
       <c r="H348" s="3">
         <f t="shared" si="33"/>
-        <v>7.1460116838557868</v>
+        <v>24.296269030563295</v>
       </c>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
@@ -11333,18 +11333,18 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="31"/>
-        <v>0.40377474740486957</v>
+        <v>-0.82812400423164323</v>
       </c>
       <c r="F349" s="3">
         <f t="shared" si="32"/>
-        <v>6.1237747474048696</v>
+        <v>23.341875995768358</v>
       </c>
       <c r="G349" s="2">
         <v>1</v>
       </c>
       <c r="H349" s="3">
         <f t="shared" si="33"/>
-        <v>7.1237747474048696</v>
+        <v>24.341875995768358</v>
       </c>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
@@ -11361,18 +11361,18 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="31"/>
-        <v>0.38150789860700546</v>
+        <v>-0.78245569013666083</v>
       </c>
       <c r="F350" s="3">
         <f t="shared" si="32"/>
-        <v>6.1015078986070055</v>
+        <v>23.38754430986334</v>
       </c>
       <c r="G350" s="2">
         <v>1</v>
       </c>
       <c r="H350" s="3">
         <f t="shared" si="33"/>
-        <v>7.1015078986070055</v>
+        <v>24.38754430986334</v>
       </c>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
@@ -11389,18 +11389,18 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="31"/>
-        <v>0.35921278702971032</v>
+        <v>-0.73672941034118922</v>
       </c>
       <c r="F351" s="3">
         <f t="shared" si="32"/>
-        <v>6.0792127870297099</v>
+        <v>23.433270589658811</v>
       </c>
       <c r="G351" s="2">
         <v>1</v>
       </c>
       <c r="H351" s="3">
         <f t="shared" si="33"/>
-        <v>7.0792127870297099</v>
+        <v>24.433270589658811</v>
       </c>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
@@ -11417,18 +11417,18 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="31"/>
-        <v>0.33689106433425337</v>
+        <v>-0.69094855232885077</v>
       </c>
       <c r="F352" s="3">
         <f t="shared" si="32"/>
-        <v>6.0568910643342528</v>
+        <v>23.47905144767115</v>
       </c>
       <c r="G352" s="2">
         <v>1</v>
       </c>
       <c r="H352" s="3">
         <f t="shared" si="33"/>
-        <v>7.0568910643342528</v>
+        <v>24.47905144767115</v>
       </c>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
@@ -11445,18 +11445,18 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="31"/>
-        <v>0.3145443841533061</v>
+        <v>-0.64511650762652584</v>
       </c>
       <c r="F353" s="3">
         <f t="shared" si="32"/>
-        <v>6.034544384153306</v>
+        <v>23.524883492373476</v>
       </c>
       <c r="G353" s="2">
         <v>1</v>
       </c>
       <c r="H353" s="3">
         <f t="shared" si="33"/>
-        <v>7.034544384153306</v>
+        <v>24.524883492373476</v>
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
@@ -11473,18 +11473,18 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="31"/>
-        <v>0.29217440196843447</v>
+        <v>-0.59923667155309479</v>
       </c>
       <c r="F354" s="3">
         <f t="shared" si="32"/>
-        <v>6.0121744019684344</v>
+        <v>23.570763328446908</v>
       </c>
       <c r="G354" s="2">
         <v>1</v>
       </c>
       <c r="H354" s="3">
         <f t="shared" si="33"/>
-        <v>7.0121744019684344</v>
+        <v>24.570763328446908</v>
       </c>
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
@@ -11501,18 +11501,18 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="31"/>
-        <v>0.26978277498745462</v>
+        <v>-0.5533124429679005</v>
       </c>
       <c r="F355" s="3">
         <f t="shared" si="32"/>
-        <v>5.9897827749874546</v>
+        <v>23.616687557032101</v>
       </c>
       <c r="G355" s="2">
         <v>1</v>
       </c>
       <c r="H355" s="3">
         <f t="shared" si="33"/>
-        <v>6.9897827749874546</v>
+        <v>24.616687557032101</v>
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
@@ -11529,18 +11529,18 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="31"/>
-        <v>0.24737116202167223</v>
+        <v>-0.50734722401897103</v>
       </c>
       <c r="F356" s="3">
         <f t="shared" si="32"/>
-        <v>5.9673711620216716</v>
+        <v>23.66265277598103</v>
       </c>
       <c r="G356" s="2">
         <v>1</v>
       </c>
       <c r="H356" s="3">
         <f t="shared" si="33"/>
-        <v>6.9673711620216716</v>
+        <v>24.66265277598103</v>
       </c>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
@@ -11557,18 +11557,18 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="31"/>
-        <v>0.22494122336298528</v>
+        <v>-0.46134441989096336</v>
       </c>
       <c r="F357" s="3">
         <f t="shared" si="32"/>
-        <v>5.944941223362985</v>
+        <v>23.708655580109038</v>
       </c>
       <c r="G357" s="2">
         <v>1</v>
       </c>
       <c r="H357" s="3">
         <f t="shared" si="33"/>
-        <v>6.944941223362985</v>
+        <v>24.708655580109038</v>
       </c>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
@@ -11585,18 +11585,18 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="31"/>
-        <v>0.20249462066089491</v>
+        <v>-0.41530743855291818</v>
       </c>
       <c r="F358" s="3">
         <f t="shared" si="32"/>
-        <v>5.9224946206608946</v>
+        <v>23.754692561447083</v>
       </c>
       <c r="G358" s="2">
         <v>1</v>
       </c>
       <c r="H358" s="3">
         <f t="shared" si="33"/>
-        <v>6.9224946206608946</v>
+        <v>24.754692561447083</v>
       </c>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
@@ -11613,18 +11613,18 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="31"/>
-        <v>0.18003301679940423</v>
+        <v>-0.36923969050578442</v>
       </c>
       <c r="F359" s="3">
         <f t="shared" si="32"/>
-        <v>5.9000330167994042</v>
+        <v>23.800760309494216</v>
       </c>
       <c r="G359" s="2">
         <v>1</v>
       </c>
       <c r="H359" s="3">
         <f t="shared" si="33"/>
-        <v>6.9000330167994042</v>
+        <v>24.800760309494216</v>
       </c>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
@@ -11641,18 +11641,18 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="31"/>
-        <v>0.15755807577382511</v>
+        <v>-0.32314458852975592</v>
       </c>
       <c r="F360" s="3">
         <f t="shared" si="32"/>
-        <v>5.8775580757738251</v>
+        <v>23.846855411470244</v>
       </c>
       <c r="G360" s="2">
         <v>1</v>
       </c>
       <c r="H360" s="3">
         <f t="shared" si="33"/>
-        <v>6.8775580757738251</v>
+        <v>24.846855411470244</v>
       </c>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
@@ -11669,18 +11669,18 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="31"/>
-        <v>0.13507146256751479</v>
+        <v>-0.27702554743146346</v>
       </c>
       <c r="F361" s="3">
         <f t="shared" si="32"/>
-        <v>5.8550714625675147</v>
+        <v>23.892974452568538</v>
       </c>
       <c r="G361" s="2">
         <v>1</v>
       </c>
       <c r="H361" s="3">
         <f t="shared" si="33"/>
-        <v>6.8550714625675147</v>
+        <v>24.892974452568538</v>
       </c>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
@@ -11697,18 +11697,18 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="31"/>
-        <v>0.11257484302852173</v>
+        <v>-0.23088598379098085</v>
       </c>
       <c r="F362" s="3">
         <f t="shared" si="32"/>
-        <v>5.8325748430285218</v>
+        <v>23.939114016209022</v>
       </c>
       <c r="G362" s="2">
         <v>1</v>
       </c>
       <c r="H362" s="3">
         <f t="shared" si="33"/>
-        <v>6.8325748430285218</v>
+        <v>24.939114016209022</v>
       </c>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
@@ -11725,18 +11725,18 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="31"/>
-        <v>9.0069883746184562E-2</v>
+        <v>-0.18472931570873519</v>
       </c>
       <c r="F363" s="3">
         <f t="shared" si="32"/>
-        <v>5.8100698837461842</v>
+        <v>23.985270684291265</v>
       </c>
       <c r="G363" s="2">
         <v>1</v>
       </c>
       <c r="H363" s="3">
         <f t="shared" si="33"/>
-        <v>6.8100698837461842</v>
+        <v>24.985270684291265</v>
       </c>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
@@ -11753,18 +11753,18 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="31"/>
-        <v>6.7558251927664903E-2</v>
+        <v>-0.13855896255228087</v>
       </c>
       <c r="F364" s="3">
         <f t="shared" si="32"/>
-        <v>5.7875582519276643</v>
+        <v>24.031441037447721</v>
       </c>
       <c r="G364" s="2">
         <v>1</v>
       </c>
       <c r="H364" s="3">
         <f t="shared" si="33"/>
-        <v>6.7875582519276643</v>
+        <v>25.031441037447721</v>
       </c>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
@@ -11781,18 +11781,18 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="31"/>
-        <v>4.5041615274434184E-2</v>
+        <v>-9.2378344702979648E-2</v>
       </c>
       <c r="F365" s="3">
         <f t="shared" si="32"/>
-        <v>5.7650416152744342</v>
+        <v>24.077621655297023</v>
       </c>
       <c r="G365" s="2">
         <v>1</v>
       </c>
       <c r="H365" s="3">
         <f t="shared" si="33"/>
-        <v>6.7650416152744342</v>
+        <v>25.077621655297023</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
@@ -11809,18 +11809,18 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="31"/>
-        <v>2.2521641858735428E-2</v>
+        <v>-4.6190883302629347E-2</v>
       </c>
       <c r="F366" s="3">
         <f t="shared" si="32"/>
-        <v>5.742521641858735</v>
+        <v>24.123809116697373</v>
       </c>
       <c r="G366" s="2">
         <v>1</v>
       </c>
       <c r="H366" s="3">
         <f t="shared" si="33"/>
-        <v>6.742521641858735</v>
+        <v>25.123809116697373</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
@@ -11837,18 +11837,18 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="31"/>
-        <v>3.2058051236775564E-16</v>
+        <v>-6.5749633746762614E-16</v>
       </c>
       <c r="F367" s="3">
         <f t="shared" si="32"/>
-        <v>5.72</v>
+        <v>24.17</v>
       </c>
       <c r="G367" s="2">
         <v>1</v>
       </c>
       <c r="H367" s="3">
         <f t="shared" si="33"/>
-        <v>6.72</v>
+        <v>25.17</v>
       </c>
     </row>
   </sheetData>

--- a/camera v0.1/exposure lookup table 2.xlsx
+++ b/camera v0.1/exposure lookup table 2.xlsx
@@ -258,1099 +258,1099 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="365"/>
                 <c:pt idx="0">
-                  <c:v>25.123809116697373</c:v>
+                  <c:v>24.123809116697373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.077621655297023</c:v>
+                  <c:v>24.077621655297023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.031441037447721</c:v>
+                  <c:v>24.031441037447721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.985270684291265</c:v>
+                  <c:v>23.985270684291265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.939114016209022</c:v>
+                  <c:v>23.939114016209022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.892974452568541</c:v>
+                  <c:v>23.892974452568538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.846855411470244</c:v>
+                  <c:v>23.846855411470244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.800760309494219</c:v>
+                  <c:v>23.800760309494219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.754692561447083</c:v>
+                  <c:v>23.754692561447083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.708655580109038</c:v>
+                  <c:v>23.708655580109038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.662652775981034</c:v>
+                  <c:v>23.662652775981034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.616687557032101</c:v>
+                  <c:v>23.616687557032101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.570763328446908</c:v>
+                  <c:v>23.570763328446908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.524883492373476</c:v>
+                  <c:v>23.524883492373476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.47905144767115</c:v>
+                  <c:v>23.47905144767115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.433270589658814</c:v>
+                  <c:v>23.433270589658814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.38754430986334</c:v>
+                  <c:v>23.38754430986334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.341875995768358</c:v>
+                  <c:v>23.341875995768358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.296269030563295</c:v>
+                  <c:v>23.296269030563295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.250726792892738</c:v>
+                  <c:v>23.250726792892738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.205252656606152</c:v>
+                  <c:v>23.205252656606152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.159849990507926</c:v>
+                  <c:v>23.159849990507922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.11452215810781</c:v>
+                  <c:v>23.114522158107807</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.069272517371743</c:v>
+                  <c:v>23.069272517371743</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.024104420473098</c:v>
+                  <c:v>23.024104420473094</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.979021213544314</c:v>
+                  <c:v>22.979021213544314</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23.934026236429048</c:v>
+                  <c:v>22.934026236429048</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.889122822434736</c:v>
+                  <c:v>22.889122822434736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.844314298085646</c:v>
+                  <c:v>22.844314298085646</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23.799603982876466</c:v>
+                  <c:v>22.799603982876462</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.754995189026364</c:v>
+                  <c:v>22.754995189026364</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.710491221233635</c:v>
+                  <c:v>22.710491221233635</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23.666095376430874</c:v>
+                  <c:v>22.666095376430874</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.621810943540734</c:v>
+                  <c:v>22.621810943540734</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.577641203232272</c:v>
+                  <c:v>22.577641203232268</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.533589427677917</c:v>
+                  <c:v>22.533589427677917</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23.489658880311065</c:v>
+                  <c:v>22.489658880311065</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.445852815584313</c:v>
+                  <c:v>22.44585281558431</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>23.402174478728355</c:v>
+                  <c:v>22.402174478728355</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.358627105511594</c:v>
+                  <c:v>22.358627105511594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.3152139220004</c:v>
+                  <c:v>22.3152139220004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23.271938144320142</c:v>
+                  <c:v>22.271938144320139</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.228802978416915</c:v>
+                  <c:v>22.228802978416915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.185811619820054</c:v>
+                  <c:v>22.185811619820054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.142967253405391</c:v>
+                  <c:v>22.142967253405388</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>23.100273053159309</c:v>
+                  <c:v>22.100273053159309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.057732181943631</c:v>
+                  <c:v>22.057732181943628</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23.015347791261281</c:v>
+                  <c:v>22.015347791261277</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22.973123021022833</c:v>
+                  <c:v>21.973123021022833</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22.9310609993139</c:v>
+                  <c:v>21.9310609993139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.889164842163396</c:v>
+                  <c:v>21.889164842163396</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>22.847437653312689</c:v>
+                  <c:v>21.847437653312685</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.80588252398568</c:v>
+                  <c:v>21.805882523985677</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>22.764502532659797</c:v>
+                  <c:v>21.764502532659797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.723300744837939</c:v>
+                  <c:v>21.723300744837939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.682280212821368</c:v>
+                  <c:v>21.682280212821368</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.6414439754836</c:v>
+                  <c:v>21.641443975483597</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22.600795058045271</c:v>
+                  <c:v>21.600795058045268</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22.560336471850032</c:v>
+                  <c:v>21.560336471850029</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.520071214141456</c:v>
+                  <c:v>21.520071214141456</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22.480002267841005</c:v>
+                  <c:v>21.480002267841005</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22.44013260132704</c:v>
+                  <c:v>21.44013260132704</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>22.400465168214925</c:v>
+                  <c:v>21.400465168214925</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>22.361002907138214</c:v>
+                  <c:v>21.361002907138214</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22.321748741530961</c:v>
+                  <c:v>21.321748741530957</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>22.282705579411125</c:v>
+                  <c:v>21.282705579411125</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22.243876313165174</c:v>
+                  <c:v>21.243876313165174</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>22.205263819333776</c:v>
+                  <c:v>21.205263819333773</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22.166870958398722</c:v>
+                  <c:v>21.166870958398718</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.128700574571003</c:v>
+                  <c:v>21.128700574571003</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>22.090755495580126</c:v>
+                  <c:v>21.090755495580122</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>22.053038532464605</c:v>
+                  <c:v>21.053038532464601</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>22.015552479363727</c:v>
+                  <c:v>21.015552479363727</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>21.978300113310571</c:v>
+                  <c:v>20.978300113310571</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.941284194026252</c:v>
+                  <c:v>20.941284194026249</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21.90450746371549</c:v>
+                  <c:v>20.90450746371549</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.867972646863478</c:v>
+                  <c:v>20.867972646863475</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21.831682450034013</c:v>
+                  <c:v>20.831682450034009</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21.795639561669024</c:v>
+                  <c:v>20.79563956166902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21.759846651889383</c:v>
+                  <c:v>20.759846651889379</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.724306372297111</c:v>
+                  <c:v>20.724306372297107</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>21.689021355778934</c:v>
+                  <c:v>20.689021355778934</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21.653994216311244</c:v>
+                  <c:v>20.653994216311244</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>21.619227548766442</c:v>
+                  <c:v>20.619227548766439</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21.584723928720706</c:v>
+                  <c:v>20.584723928720702</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21.550485912263195</c:v>
+                  <c:v>20.550485912263191</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21.516516035806681</c:v>
+                  <c:v>20.516516035806678</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21.482816815899653</c:v>
+                  <c:v>20.482816815899653</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>21.449390749039889</c:v>
+                  <c:v>20.449390749039885</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>21.416240311489496</c:v>
+                  <c:v>20.416240311489492</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>21.38336795909148</c:v>
+                  <c:v>20.38336795909148</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>21.350776127087812</c:v>
+                  <c:v>20.350776127087808</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>21.318467229939007</c:v>
+                  <c:v>20.318467229939003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>21.28644366114527</c:v>
+                  <c:v>20.28644366114527</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>21.254707793069187</c:v>
+                  <c:v>20.254707793069183</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>21.223261976759947</c:v>
+                  <c:v>20.223261976759943</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>21.192108541779206</c:v>
+                  <c:v>20.192108541779202</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>20.161249796028489</c:v>
+                  <c:v>19.161249796028486</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>20.130688025578223</c:v>
+                  <c:v>19.130688025578223</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>19.100425494498381</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.070464444690753</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.040807095722865</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19.011455644663549</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>18.982412265920171</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>18.953679111077566</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>18.925258308738627</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>18.897151964366628</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>18.869362160129235</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18.841890954744262</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18.814740383327162</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>18.78791245724025</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.761409163943711</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.735232466848352</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.709384305170161</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.683866593786647</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.658681223094966</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18.633830058871894</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.609314942135601</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.585137689009262</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.561300090586524</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.537803912798807</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18.514650896284497</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.49184275625997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.469381182392564</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18.447267838675359</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18.425504363303947</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18.404092368555052</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18.383033440667088</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18.362329139722654</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>18.341980999532961</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>18.321990527524193</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>18.302359204625851</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18.283088485161038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18.264179796738709</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>18.245634540147918</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18.22745408925406</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18.209639790897064</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18.192192964791644</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18.17511490342951</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18.158406871983633</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18.142070108214519</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>18.126105822378491</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>18.110515197138074</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>18.095299387474334</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>18.080459520601345</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>18.065996695882674</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>18.051911984749943</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>18.03820643062344</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>18.024881048834843</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18.011936826551985</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>17.999374722705731</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17.987195667918943</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>17.975400564437521</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>17.963990286063577</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>17.952965678090703</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>17.942327557241342</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>17.932076711606289</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17.922213900586307</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>17.91273985483587</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>17.90365527620903</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17.894960837707426</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17.886657183430437</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>17.878744928527443</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17.871224659152272</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>17.86409693241977</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>17.857362276364537</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>17.851021189901793</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>17.84507414279043</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17.839521575598209</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17.834363899669121</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17.829601497092924</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.825234720676804</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.821263893919287</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.817689310986232</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.814511236689061</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.811729906465139</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.809345526360318</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.807358273013698</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.805768293644515</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.804575706041252</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17.803780598552905</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.803383030082443</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.803383030082443</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.803780598552905</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>17.804575706041252</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.805768293644515</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>17.807358273013698</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>17.809345526360318</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>17.811729906465139</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>17.814511236689061</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17.817689310986232</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17.821263893919287</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>17.825234720676804</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>17.829601497092924</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>17.834363899669121</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>17.839521575598209</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17.84507414279043</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17.851021189901793</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17.857362276364537</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17.86409693241977</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>17.871224659152272</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>17.878744928527443</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>17.886657183430437</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>17.894960837707426</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17.90365527620903</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>17.91273985483587</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>17.922213900586307</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>17.932076711606289</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>17.942327557241342</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>17.952965678090703</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>17.963990286063577</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>17.975400564437521</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17.987195667918943</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>17.999374722705731</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>18.011936826551985</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>18.024881048834843</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>18.03820643062344</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>18.051911984749943</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>18.065996695882674</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>18.080459520601345</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>18.095299387474334</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>18.110515197138074</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>18.126105822378491</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>18.142070108214515</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>18.158406871983633</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>18.17511490342951</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18.192192964791644</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>18.209639790897064</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>18.22745408925406</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>18.245634540147918</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18.264179796738706</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>18.283088485161038</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>18.302359204625851</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>18.321990527524193</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>18.341980999532961</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>18.362329139722654</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>19.383033440667088</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>19.404092368555052</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>19.425504363303947</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>19.447267838675359</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>19.46938118239256</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>19.49184275625997</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>19.514650896284497</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>19.537803912798807</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>19.561300090586524</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>19.585137689009262</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>19.609314942135597</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19.633830058871894</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>19.658681223094966</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>19.683866593786647</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19.709384305170161</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>19.735232466848352</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>19.761409163943711</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>19.78791245724025</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>19.814740383327162</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19.841890954744262</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>19.869362160129235</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>19.897151964366628</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>19.925258308738627</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>19.953679111077562</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>19.982412265920171</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>20.011455644663549</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>20.040807095722865</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20.070464444690753</c:v>
+                </c:pt>
+                <c:pt idx="264">
                   <c:v>20.100425494498381</c:v>
                 </c:pt>
-                <c:pt idx="100">
-                  <c:v>20.070464444690757</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>20.040807095722869</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>20.011455644663549</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>19.982412265920175</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>19.95367911107757</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>19.925258308738631</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>19.897151964366632</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>19.869362160129239</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>19.841890954744265</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>19.814740383327162</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>19.787912457240253</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19.761409163943711</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>19.735232466848352</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>19.709384305170165</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>19.68386659378665</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>19.658681223094966</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>19.633830058871897</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>19.609314942135601</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>19.585137689009265</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>19.561300090586528</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>19.537803912798811</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>19.5146508962845</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>19.491842756259974</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>19.469381182392564</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>19.447267838675359</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>19.425504363303951</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>19.404092368555055</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>19.383033440667091</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>19.362329139722657</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>19.341980999532964</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>19.321990527524196</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>19.302359204625855</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>19.283088485161041</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>19.264179796738709</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>19.245634540147922</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>19.22745408925406</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>19.209639790897068</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>19.192192964791644</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>19.175114903429513</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>19.158406871983637</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>19.142070108214519</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>19.126105822378495</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>19.110515197138078</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>19.095299387474338</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>19.080459520601348</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>19.065996695882678</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>19.051911984749943</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>19.03820643062344</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>19.024881048834843</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>19.011936826551988</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>18.999374722705735</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>18.987195667918947</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>18.975400564437521</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>18.963990286063581</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>18.952965678090706</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>18.942327557241345</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>18.932076711606292</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>18.922213900586311</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>18.91273985483587</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>18.90365527620903</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>18.89496083770743</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>18.88665718343044</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>18.878744928527446</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>18.871224659152276</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>18.864096932419773</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>18.85736227636454</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>18.851021189901793</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>18.84507414279043</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>18.839521575598212</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>18.834363899669125</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>18.829601497092924</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>18.825234720676807</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>18.821263893919287</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>18.817689310986232</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>18.814511236689064</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>18.811729906465139</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>18.809345526360321</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>18.807358273013698</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>18.805768293644519</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>18.804575706041256</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>18.803780598552908</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>18.803383030082447</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>18.803383030082447</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>18.803780598552908</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>18.804575706041256</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>18.805768293644519</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>18.807358273013698</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>18.809345526360321</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>18.811729906465139</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>18.814511236689064</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>18.817689310986232</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>18.821263893919287</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>18.825234720676807</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>18.829601497092924</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>18.834363899669125</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>18.839521575598212</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>18.84507414279043</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>18.851021189901793</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>18.85736227636454</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>18.864096932419773</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>18.871224659152276</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>18.878744928527446</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>18.88665718343044</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>18.89496083770743</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>18.90365527620903</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>18.91273985483587</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>18.922213900586311</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>18.932076711606292</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>18.942327557241345</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>18.952965678090706</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>18.963990286063581</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>18.975400564437521</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>18.987195667918947</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>18.999374722705735</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>19.011936826551988</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>19.024881048834843</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>19.03820643062344</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>19.051911984749943</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>19.065996695882678</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>19.080459520601348</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>19.095299387474334</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>19.110515197138078</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>19.126105822378495</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>19.142070108214519</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>19.158406871983637</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>19.175114903429513</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>19.192192964791644</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>19.209639790897068</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>19.22745408925406</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>19.245634540147922</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>19.264179796738709</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>19.283088485161041</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>19.302359204625855</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>19.321990527524193</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>19.341980999532961</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>19.362329139722657</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>20.383033440667091</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>20.404092368555055</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>20.425504363303951</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>20.447267838675359</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>20.469381182392564</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>20.491842756259974</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>20.5146508962845</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>20.537803912798811</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>20.561300090586524</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>20.585137689009265</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>20.609314942135601</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>20.633830058871894</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>20.658681223094966</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>20.683866593786647</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>20.709384305170165</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>20.735232466848352</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>20.761409163943711</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>20.787912457240253</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>20.814740383327162</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>20.841890954744265</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>20.869362160129239</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>20.897151964366628</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>20.925258308738631</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>20.953679111077566</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>20.982412265920175</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>21.011455644663549</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>21.040807095722869</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>21.070464444690757</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>21.100425494498381</c:v>
-                </c:pt>
                 <c:pt idx="265">
-                  <c:v>21.130688025578223</c:v>
+                  <c:v>20.13068802557822</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>21.161249796028489</c:v>
+                  <c:v>20.161249796028486</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>21.192108541779202</c:v>
+                  <c:v>20.192108541779202</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>21.223261976759943</c:v>
+                  <c:v>20.223261976759943</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>21.254707793069183</c:v>
+                  <c:v>20.25470779306918</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>21.28644366114527</c:v>
+                  <c:v>20.28644366114527</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>21.318467229939007</c:v>
+                  <c:v>20.318467229939003</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>21.350776127087812</c:v>
+                  <c:v>20.350776127087808</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>21.38336795909148</c:v>
+                  <c:v>20.383367959091476</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>21.416240311489496</c:v>
+                  <c:v>20.416240311489492</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>21.449390749039889</c:v>
+                  <c:v>20.449390749039885</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>21.482816815899653</c:v>
+                  <c:v>20.482816815899653</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>21.516516035806681</c:v>
+                  <c:v>20.516516035806678</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>21.550485912263191</c:v>
+                  <c:v>20.550485912263191</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>21.584723928720702</c:v>
+                  <c:v>20.584723928720702</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>21.619227548766442</c:v>
+                  <c:v>20.619227548766439</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>21.653994216311244</c:v>
+                  <c:v>20.653994216311244</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>21.689021355778934</c:v>
+                  <c:v>20.689021355778934</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>21.724306372297111</c:v>
+                  <c:v>20.724306372297107</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>21.759846651889383</c:v>
+                  <c:v>20.759846651889379</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>21.79563956166902</c:v>
+                  <c:v>20.79563956166902</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>21.831682450034013</c:v>
+                  <c:v>20.831682450034009</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>21.867972646863475</c:v>
+                  <c:v>20.867972646863471</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>21.90450746371549</c:v>
+                  <c:v>20.90450746371549</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>21.941284194026249</c:v>
+                  <c:v>20.941284194026245</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>21.978300113310571</c:v>
+                  <c:v>20.978300113310571</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>22.015552479363727</c:v>
+                  <c:v>21.015552479363727</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>22.053038532464605</c:v>
+                  <c:v>21.053038532464601</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>22.090755495580126</c:v>
+                  <c:v>21.090755495580122</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>22.128700574571003</c:v>
+                  <c:v>21.128700574571003</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>22.166870958398718</c:v>
+                  <c:v>21.166870958398718</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>22.205263819333776</c:v>
+                  <c:v>21.205263819333773</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>22.243876313165174</c:v>
+                  <c:v>21.24387631316517</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>22.282705579411125</c:v>
+                  <c:v>21.282705579411125</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>22.321748741530957</c:v>
+                  <c:v>21.321748741530957</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>22.361002907138214</c:v>
+                  <c:v>21.361002907138214</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>22.400465168214925</c:v>
+                  <c:v>21.400465168214922</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>22.44013260132704</c:v>
+                  <c:v>21.44013260132704</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>22.480002267841005</c:v>
+                  <c:v>21.480002267841002</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>22.520071214141456</c:v>
+                  <c:v>21.520071214141456</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>22.560336471850029</c:v>
+                  <c:v>21.560336471850029</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>22.600795058045271</c:v>
+                  <c:v>21.600795058045268</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>22.641443975483597</c:v>
+                  <c:v>21.641443975483597</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>22.682280212821368</c:v>
+                  <c:v>21.682280212821365</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>22.723300744837939</c:v>
+                  <c:v>21.723300744837939</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>22.764502532659797</c:v>
+                  <c:v>21.764502532659797</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>22.80588252398568</c:v>
+                  <c:v>21.805882523985677</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>22.847437653312689</c:v>
+                  <c:v>21.847437653312685</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>22.889164842163396</c:v>
+                  <c:v>21.889164842163392</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>22.9310609993139</c:v>
+                  <c:v>21.9310609993139</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>22.973123021022833</c:v>
+                  <c:v>21.973123021022829</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>23.015347791261277</c:v>
+                  <c:v>22.015347791261277</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>23.057732181943628</c:v>
+                  <c:v>22.057732181943628</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>23.100273053159309</c:v>
+                  <c:v>22.100273053159306</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>23.142967253405391</c:v>
+                  <c:v>22.142967253405388</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>23.185811619820058</c:v>
+                  <c:v>22.185811619820054</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>23.228802978416915</c:v>
+                  <c:v>22.228802978416915</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>23.271938144320142</c:v>
+                  <c:v>22.271938144320139</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>23.3152139220004</c:v>
+                  <c:v>22.315213922000396</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>23.358627105511594</c:v>
+                  <c:v>22.358627105511591</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>23.402174478728355</c:v>
+                  <c:v>22.402174478728355</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>23.44585281558431</c:v>
+                  <c:v>22.44585281558431</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>23.489658880311065</c:v>
+                  <c:v>22.489658880311065</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>23.533589427677917</c:v>
+                  <c:v>22.533589427677914</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>23.577641203232272</c:v>
+                  <c:v>22.577641203232268</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>23.621810943540734</c:v>
+                  <c:v>22.621810943540734</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>23.666095376430874</c:v>
+                  <c:v>22.666095376430874</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>23.710491221233635</c:v>
+                  <c:v>22.710491221233635</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>23.75499518902636</c:v>
+                  <c:v>22.75499518902636</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>23.799603982876466</c:v>
+                  <c:v>22.799603982876462</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>23.844314298085646</c:v>
+                  <c:v>22.844314298085646</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>23.889122822434736</c:v>
+                  <c:v>22.889122822434736</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>23.934026236429048</c:v>
+                  <c:v>22.934026236429048</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>23.979021213544311</c:v>
+                  <c:v>22.979021213544311</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>24.024104420473094</c:v>
+                  <c:v>23.024104420473094</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>24.069272517371747</c:v>
+                  <c:v>23.069272517371743</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>24.114522158107807</c:v>
+                  <c:v>23.114522158107807</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>24.159849990507926</c:v>
+                  <c:v>23.159849990507922</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>24.205252656606149</c:v>
+                  <c:v>23.205252656606149</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>24.250726792892738</c:v>
+                  <c:v>23.250726792892738</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>24.296269030563295</c:v>
+                  <c:v>23.296269030563291</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>24.341875995768358</c:v>
+                  <c:v>23.341875995768358</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>24.38754430986334</c:v>
+                  <c:v>23.38754430986334</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>24.433270589658811</c:v>
+                  <c:v>23.433270589658811</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>24.47905144767115</c:v>
+                  <c:v>23.47905144767115</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>24.524883492373476</c:v>
+                  <c:v>23.524883492373476</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>24.570763328446908</c:v>
+                  <c:v>23.570763328446908</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>24.616687557032101</c:v>
+                  <c:v>23.616687557032101</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>24.66265277598103</c:v>
+                  <c:v>23.66265277598103</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>24.708655580109038</c:v>
+                  <c:v>23.708655580109038</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>24.754692561447083</c:v>
+                  <c:v>23.754692561447083</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>24.800760309494216</c:v>
+                  <c:v>23.800760309494216</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>24.846855411470244</c:v>
+                  <c:v>23.846855411470244</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>24.892974452568538</c:v>
+                  <c:v>23.892974452568538</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>24.939114016209022</c:v>
+                  <c:v>23.939114016209022</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>24.985270684291265</c:v>
+                  <c:v>23.985270684291265</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>25.031441037447721</c:v>
+                  <c:v>24.031441037447721</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>25.077621655297023</c:v>
+                  <c:v>24.077621655297023</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>25.123809116697373</c:v>
+                  <c:v>24.123809116697373</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>25.17</c:v>
+                  <c:v>24.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170997632"/>
-        <c:axId val="170999168"/>
+        <c:axId val="125384576"/>
+        <c:axId val="125386112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170997632"/>
+        <c:axId val="125384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170999168"/>
+        <c:crossAx val="125386112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170999168"/>
+        <c:axId val="125386112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170997632"/>
+        <c:crossAx val="125384576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H345" sqref="H345"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,10 +1778,10 @@
       <c r="A2" s="12"/>
       <c r="E2">
         <f>VLOOKUP(F2,Z16:AA19,2)</f>
-        <v>-5.3666666666666671</v>
+        <v>-5.3666666666666698</v>
       </c>
       <c r="F2">
-        <v>24.17</v>
+        <v>23.17</v>
       </c>
       <c r="AF2" t="s">
         <v>20</v>
@@ -1815,18 +1815,18 @@
       </c>
       <c r="E3" s="3">
         <f>D3*$E$2</f>
-        <v>-4.6190883302627744E-2</v>
+        <v>-4.6190883302627772E-2</v>
       </c>
       <c r="F3" s="3">
         <f>E3+$F$2</f>
-        <v>24.123809116697373</v>
+        <v>23.123809116697373</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="3">
         <f>F3+G3</f>
-        <v>25.123809116697373</v>
+        <v>24.123809116697373</v>
       </c>
       <c r="I3" s="3"/>
       <c r="AF3" t="s">
@@ -1858,18 +1858,18 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E67" si="2">D4*$E$2</f>
-        <v>-9.2378344702979481E-2</v>
+        <v>-9.2378344702979523E-2</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F67" si="3">E4+$F$2</f>
-        <v>24.077621655297023</v>
+        <v>23.077621655297023</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H67" si="4">F4+G4</f>
-        <v>25.077621655297023</v>
+        <v>24.077621655297023</v>
       </c>
       <c r="I4" s="3"/>
       <c r="AF4" t="s">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>-0.13855896255227979</v>
+        <v>-0.13855896255227984</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>24.031441037447721</v>
+        <v>23.031441037447721</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>25.031441037447721</v>
+        <v>24.031441037447721</v>
       </c>
       <c r="I5" s="3"/>
       <c r="AF5" t="s">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="AJ5" s="18">
         <f ca="1">NOW()</f>
-        <v>42723.873956944444</v>
+        <v>42723.984741550928</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1935,23 +1935,23 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>-0.18472931570873549</v>
+        <v>-0.18472931570873558</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
-        <v>23.985270684291265</v>
+        <v>22.985270684291265</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>24.985270684291265</v>
+        <v>23.985270684291265</v>
       </c>
       <c r="I6" s="3"/>
       <c r="AJ6" s="2">
         <f ca="1">AJ5-AI1</f>
-        <v>353.87395694444422</v>
+        <v>353.98474155092845</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1968,18 +1968,18 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>-0.23088598379098021</v>
+        <v>-0.23088598379098035</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
-        <v>23.939114016209022</v>
+        <v>22.939114016209022</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>24.939114016209022</v>
+        <v>23.939114016209022</v>
       </c>
       <c r="I7" s="3"/>
       <c r="Z7" t="s">
@@ -2009,18 +2009,18 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>-0.2770255474314619</v>
+        <v>-0.27702554743146207</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>23.892974452568541</v>
+        <v>22.892974452568538</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>24.892974452568541</v>
+        <v>23.892974452568538</v>
       </c>
       <c r="I8" s="3"/>
       <c r="W8" t="s">
@@ -2041,18 +2041,18 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>-0.32314458852975575</v>
+        <v>-0.32314458852975592</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
-        <v>23.846855411470244</v>
+        <v>22.846855411470244</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>24.846855411470244</v>
+        <v>23.846855411470244</v>
       </c>
       <c r="I9" s="3"/>
       <c r="W9" t="s">
@@ -2103,18 +2103,18 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>-0.36923969050578331</v>
+        <v>-0.36923969050578348</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>23.800760309494219</v>
+        <v>22.800760309494219</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>24.800760309494219</v>
+        <v>23.800760309494219</v>
       </c>
       <c r="I10" s="3"/>
       <c r="W10" t="s">
@@ -2165,18 +2165,18 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>-0.41530743855291857</v>
+        <v>-0.41530743855291874</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="3"/>
-        <v>23.754692561447083</v>
+        <v>22.754692561447083</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>24.754692561447083</v>
+        <v>23.754692561447083</v>
       </c>
       <c r="I11" s="3"/>
       <c r="W11" t="s">
@@ -2224,18 +2224,18 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>-0.46134441989096281</v>
+        <v>-0.46134441989096303</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="3"/>
-        <v>23.708655580109038</v>
+        <v>22.708655580109038</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>24.708655580109038</v>
+        <v>23.708655580109038</v>
       </c>
       <c r="I12" s="3"/>
       <c r="W12" t="s">
@@ -2286,18 +2286,18 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>-0.50734722401896948</v>
+        <v>-0.5073472240189697</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
-        <v>23.662652775981034</v>
+        <v>22.662652775981034</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>24.662652775981034</v>
+        <v>23.662652775981034</v>
       </c>
       <c r="I13" s="3"/>
       <c r="W13" t="s">
@@ -2321,18 +2321,18 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>-0.5533124429679005</v>
+        <v>-0.55331244296790072</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>23.616687557032101</v>
+        <v>22.616687557032101</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>24.616687557032101</v>
+        <v>23.616687557032101</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -2350,18 +2350,18 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>-0.59923667155309379</v>
+        <v>-0.59923667155309401</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>23.570763328446908</v>
+        <v>22.570763328446908</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>24.570763328446908</v>
+        <v>23.570763328446908</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -2379,18 +2379,18 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>-0.64511650762652628</v>
+        <v>-0.6451165076265265</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>23.524883492373476</v>
+        <v>22.524883492373476</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>24.524883492373476</v>
+        <v>23.524883492373476</v>
       </c>
       <c r="I16" s="3"/>
       <c r="Z16">
@@ -2414,18 +2414,18 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.69094855232885022</v>
+        <v>-0.69094855232885055</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>23.47905144767115</v>
+        <v>22.47905144767115</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>24.47905144767115</v>
+        <v>23.47905144767115</v>
       </c>
       <c r="I17" s="3"/>
       <c r="Z17">
@@ -2449,18 +2449,18 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>-0.73672941034118766</v>
+        <v>-0.73672941034118811</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>23.433270589658814</v>
+        <v>22.433270589658814</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>24.433270589658814</v>
+        <v>23.433270589658814</v>
       </c>
       <c r="I18" s="3"/>
       <c r="Z18">
@@ -2484,25 +2484,25 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>-0.78245569013666061</v>
+        <v>-0.78245569013666105</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="3"/>
-        <v>23.38754430986334</v>
+        <v>22.38754430986334</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>24.38754430986334</v>
+        <v>23.38754430986334</v>
       </c>
       <c r="I19" s="3"/>
       <c r="Z19">
-        <v>24.17</v>
+        <v>23.17</v>
       </c>
       <c r="AA19" s="19">
-        <v>-5.3666666666666671</v>
+        <v>-5.3666666666666698</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -2519,18 +2519,18 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>-0.82812400423164223</v>
+        <v>-0.82812400423164267</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="3"/>
-        <v>23.341875995768358</v>
+        <v>22.341875995768358</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>24.341875995768358</v>
+        <v>23.341875995768358</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -2548,18 +2548,18 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
-        <v>-0.87373096943670669</v>
+        <v>-0.87373096943670714</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>23.296269030563295</v>
+        <v>22.296269030563295</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>24.296269030563295</v>
+        <v>23.296269030563295</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -2577,18 +2577,18 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
-        <v>-0.91927320710726312</v>
+        <v>-0.91927320710726357</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="3"/>
-        <v>23.250726792892738</v>
+        <v>22.250726792892738</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>24.250726792892738</v>
+        <v>23.250726792892738</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -2606,18 +2606,18 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>-0.96474734339384993</v>
+        <v>-0.96474734339385049</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="3"/>
-        <v>23.205252656606152</v>
+        <v>22.205252656606152</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>24.205252656606152</v>
+        <v>23.205252656606152</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -2635,18 +2635,18 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
-        <v>-1.0101500094920774</v>
+        <v>-1.0101500094920779</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="3"/>
-        <v>23.159849990507926</v>
+        <v>22.159849990507922</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>24.159849990507926</v>
+        <v>23.159849990507922</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -2664,18 +2664,18 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>-1.0554778418921928</v>
+        <v>-1.0554778418921935</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="3"/>
-        <v>23.11452215810781</v>
+        <v>22.114522158107807</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>24.11452215810781</v>
+        <v>23.114522158107807</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -2693,18 +2693,18 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>-1.1007274826282567</v>
+        <v>-1.1007274826282571</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="3"/>
-        <v>23.069272517371743</v>
+        <v>22.069272517371743</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>24.069272517371743</v>
+        <v>23.069272517371743</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -2722,18 +2722,18 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>-1.1458955795269055</v>
+        <v>-1.1458955795269061</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="3"/>
-        <v>23.024104420473098</v>
+        <v>22.024104420473094</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>24.024104420473098</v>
+        <v>23.024104420473094</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -2751,18 +2751,18 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>-1.1909787864556882</v>
+        <v>-1.1909787864556889</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="3"/>
-        <v>22.979021213544314</v>
+        <v>21.979021213544314</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>23.979021213544314</v>
+        <v>22.979021213544314</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -2780,18 +2780,18 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2359737635709525</v>
+        <v>-1.2359737635709531</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="3"/>
-        <v>22.934026236429048</v>
+        <v>21.934026236429048</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="4"/>
-        <v>23.934026236429048</v>
+        <v>22.934026236429048</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -2809,18 +2809,18 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2808771775652656</v>
+        <v>-1.2808771775652663</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="3"/>
-        <v>22.889122822434736</v>
+        <v>21.889122822434736</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="4"/>
-        <v>23.889122822434736</v>
+        <v>22.889122822434736</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -2838,18 +2838,18 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3256857019143544</v>
+        <v>-1.3256857019143551</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="3"/>
-        <v>22.844314298085646</v>
+        <v>21.844314298085646</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="4"/>
-        <v>23.844314298085646</v>
+        <v>22.844314298085646</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -2867,18 +2867,18 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>-1.370396017123537</v>
+        <v>-1.3703960171235376</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="3"/>
-        <v>22.799603982876466</v>
+        <v>21.799603982876462</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="4"/>
-        <v>23.799603982876466</v>
+        <v>22.799603982876462</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -2896,18 +2896,18 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4150048109736388</v>
+        <v>-1.4150048109736395</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="3"/>
-        <v>22.754995189026364</v>
+        <v>21.754995189026364</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="4"/>
-        <v>23.754995189026364</v>
+        <v>22.754995189026364</v>
       </c>
       <c r="I33" s="3"/>
     </row>
@@ -2925,18 +2925,18 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4595087787663663</v>
+        <v>-1.4595087787663672</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="3"/>
-        <v>22.710491221233635</v>
+        <v>21.710491221233635</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="4"/>
-        <v>23.710491221233635</v>
+        <v>22.710491221233635</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -2954,18 +2954,18 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5039046235691267</v>
+        <v>-1.5039046235691274</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="3"/>
-        <v>22.666095376430874</v>
+        <v>21.666095376430874</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="4"/>
-        <v>23.666095376430874</v>
+        <v>22.666095376430874</v>
       </c>
       <c r="I35" s="3"/>
     </row>
@@ -2983,18 +2983,18 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5481890564592684</v>
+        <v>-1.5481890564592691</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="3"/>
-        <v>22.621810943540734</v>
+        <v>21.621810943540734</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="4"/>
-        <v>23.621810943540734</v>
+        <v>22.621810943540734</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -3012,18 +3012,18 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5923587967677308</v>
+        <v>-1.5923587967677317</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="3"/>
-        <v>22.577641203232272</v>
+        <v>21.577641203232268</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="4"/>
-        <v>23.577641203232272</v>
+        <v>22.577641203232268</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -3041,18 +3041,18 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6364105723220845</v>
+        <v>-1.6364105723220854</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="3"/>
-        <v>22.533589427677917</v>
+        <v>21.533589427677917</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="4"/>
-        <v>23.533589427677917</v>
+        <v>22.533589427677917</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -3070,18 +3070,18 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6803411196889355</v>
+        <v>-1.6803411196889364</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="3"/>
-        <v>22.489658880311065</v>
+        <v>21.489658880311065</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="4"/>
-        <v>23.489658880311065</v>
+        <v>22.489658880311065</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -3098,18 +3098,18 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" si="2"/>
-        <v>-1.7241471844156893</v>
+        <v>-1.7241471844156901</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="3"/>
-        <v>22.445852815584313</v>
+        <v>21.44585281558431</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="4"/>
-        <v>23.445852815584313</v>
+        <v>22.44585281558431</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -3126,18 +3126,18 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" si="2"/>
-        <v>-1.7678255212716452</v>
+        <v>-1.767825521271646</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="3"/>
-        <v>22.402174478728355</v>
+        <v>21.402174478728355</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="4"/>
-        <v>23.402174478728355</v>
+        <v>22.402174478728355</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -3154,18 +3154,18 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8113728944884082</v>
+        <v>-1.8113728944884091</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="3"/>
-        <v>22.358627105511594</v>
+        <v>21.358627105511594</v>
       </c>
       <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="4"/>
-        <v>23.358627105511594</v>
+        <v>22.358627105511594</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -3182,18 +3182,18 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8547860779996022</v>
+        <v>-1.854786077999603</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="3"/>
-        <v>22.3152139220004</v>
+        <v>21.3152139220004</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="4"/>
-        <v>23.3152139220004</v>
+        <v>22.3152139220004</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -3210,18 +3210,18 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" si="2"/>
-        <v>-1.898061855679861</v>
+        <v>-1.8980618556798619</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="3"/>
-        <v>22.271938144320142</v>
+        <v>21.271938144320139</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="4"/>
-        <v>23.271938144320142</v>
+        <v>22.271938144320139</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -3238,18 +3238,18 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" si="2"/>
-        <v>-1.9411970215830856</v>
+        <v>-1.9411970215830867</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="3"/>
-        <v>22.228802978416915</v>
+        <v>21.228802978416915</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="4"/>
-        <v>23.228802978416915</v>
+        <v>22.228802978416915</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -3266,18 +3266,18 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" si="2"/>
-        <v>-1.984188380179946</v>
+        <v>-1.9841883801799469</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="3"/>
-        <v>22.185811619820054</v>
+        <v>21.185811619820054</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="4"/>
-        <v>23.185811619820054</v>
+        <v>22.185811619820054</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -3294,18 +3294,18 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0270327465946112</v>
+        <v>-2.0270327465946125</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="3"/>
-        <v>22.142967253405391</v>
+        <v>21.142967253405388</v>
       </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="4"/>
-        <v>23.142967253405391</v>
+        <v>22.142967253405388</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -3322,18 +3322,18 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0697269468406918</v>
+        <v>-2.0697269468406927</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="3"/>
-        <v>22.100273053159309</v>
+        <v>21.100273053159309</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="4"/>
-        <v>23.100273053159309</v>
+        <v>22.100273053159309</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -3350,18 +3350,18 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1122678180563716</v>
+        <v>-2.1122678180563725</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="3"/>
-        <v>22.057732181943631</v>
+        <v>21.057732181943628</v>
       </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="4"/>
-        <v>23.057732181943631</v>
+        <v>22.057732181943628</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -3378,18 +3378,18 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1546522087387223</v>
+        <v>-2.1546522087387232</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="3"/>
-        <v>22.015347791261281</v>
+        <v>21.015347791261277</v>
       </c>
       <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="4"/>
-        <v>23.015347791261281</v>
+        <v>22.015347791261277</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -3406,18 +3406,18 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1968769789771687</v>
+        <v>-2.1968769789771696</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="3"/>
-        <v>21.973123021022833</v>
+        <v>20.973123021022833</v>
       </c>
       <c r="G51" s="2">
         <v>1</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="4"/>
-        <v>22.973123021022833</v>
+        <v>21.973123021022833</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -3434,18 +3434,18 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" si="2"/>
-        <v>-2.2389390006861003</v>
+        <v>-2.2389390006861016</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="3"/>
-        <v>21.9310609993139</v>
+        <v>20.9310609993139</v>
       </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="4"/>
-        <v>22.9310609993139</v>
+        <v>21.9310609993139</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -3462,18 +3462,18 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" si="2"/>
-        <v>-2.2808351578366062</v>
+        <v>-2.2808351578366075</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="3"/>
-        <v>21.889164842163396</v>
+        <v>20.889164842163396</v>
       </c>
       <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="4"/>
-        <v>22.889164842163396</v>
+        <v>21.889164842163396</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -3490,18 +3490,18 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" si="2"/>
-        <v>-2.3225623466873144</v>
+        <v>-2.3225623466873153</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="3"/>
-        <v>21.847437653312689</v>
+        <v>20.847437653312685</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="4"/>
-        <v>22.847437653312689</v>
+        <v>21.847437653312685</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -3518,18 +3518,18 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" si="2"/>
-        <v>-2.3641174760143229</v>
+        <v>-2.3641174760143242</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="3"/>
-        <v>21.80588252398568</v>
+        <v>20.805882523985677</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="4"/>
-        <v>22.80588252398568</v>
+        <v>21.805882523985677</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -3546,18 +3546,18 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4054974673402039</v>
+        <v>-2.4054974673402052</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="3"/>
-        <v>21.764502532659797</v>
+        <v>20.764502532659797</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="4"/>
-        <v>22.764502532659797</v>
+        <v>21.764502532659797</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -3574,18 +3574,18 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4466992551620623</v>
+        <v>-2.4466992551620632</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="3"/>
-        <v>21.723300744837939</v>
+        <v>20.723300744837939</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="4"/>
-        <v>22.723300744837939</v>
+        <v>21.723300744837939</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -3602,18 +3602,18 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4877197871786332</v>
+        <v>-2.4877197871786345</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="3"/>
-        <v>21.682280212821368</v>
+        <v>20.682280212821368</v>
       </c>
       <c r="G58" s="2">
         <v>1</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="4"/>
-        <v>22.682280212821368</v>
+        <v>21.682280212821368</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -3630,18 +3630,18 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" si="2"/>
-        <v>-2.5285560245164027</v>
+        <v>-2.528556024516404</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="3"/>
-        <v>21.6414439754836</v>
+        <v>20.641443975483597</v>
       </c>
       <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="4"/>
-        <v>22.6414439754836</v>
+        <v>21.641443975483597</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3658,18 +3658,18 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" si="2"/>
-        <v>-2.5692049419547316</v>
+        <v>-2.5692049419547329</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="3"/>
-        <v>21.600795058045271</v>
+        <v>20.600795058045268</v>
       </c>
       <c r="G60" s="2">
         <v>1</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="4"/>
-        <v>22.600795058045271</v>
+        <v>21.600795058045268</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3686,18 +3686,18 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6096635281499703</v>
+        <v>-2.6096635281499716</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="3"/>
-        <v>21.560336471850032</v>
+        <v>20.560336471850029</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="4"/>
-        <v>22.560336471850032</v>
+        <v>21.560336471850029</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3714,18 +3714,18 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6499287858585445</v>
+        <v>-2.6499287858585459</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="3"/>
-        <v>21.520071214141456</v>
+        <v>20.520071214141456</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="4"/>
-        <v>22.520071214141456</v>
+        <v>21.520071214141456</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3742,18 +3742,18 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6899977321589956</v>
+        <v>-2.689997732158997</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="3"/>
-        <v>21.480002267841005</v>
+        <v>20.480002267841005</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="4"/>
-        <v>22.480002267841005</v>
+        <v>21.480002267841005</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3770,18 +3770,18 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" si="2"/>
-        <v>-2.7298673986729605</v>
+        <v>-2.7298673986729622</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="3"/>
-        <v>21.44013260132704</v>
+        <v>20.44013260132704</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="4"/>
-        <v>22.44013260132704</v>
+        <v>21.44013260132704</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -3798,18 +3798,18 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" si="2"/>
-        <v>-2.7695348317850765</v>
+        <v>-2.7695348317850779</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="3"/>
-        <v>21.400465168214925</v>
+        <v>20.400465168214925</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="4"/>
-        <v>22.400465168214925</v>
+        <v>21.400465168214925</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -3826,18 +3826,18 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" si="2"/>
-        <v>-2.8089970928617864</v>
+        <v>-2.8089970928617882</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="3"/>
-        <v>21.361002907138214</v>
+        <v>20.361002907138214</v>
       </c>
       <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="4"/>
-        <v>22.361002907138214</v>
+        <v>21.361002907138214</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -3854,18 +3854,18 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" si="2"/>
-        <v>-2.848251258469042</v>
+        <v>-2.8482512584690434</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="3"/>
-        <v>21.321748741530961</v>
+        <v>20.321748741530957</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="4"/>
-        <v>22.321748741530961</v>
+        <v>21.321748741530957</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -3882,18 +3882,18 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" ref="E68:E131" si="11">D68*$E$2</f>
-        <v>-2.8872944205888751</v>
+        <v>-2.8872944205888764</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" ref="F68:F131" si="12">E68+$F$2</f>
-        <v>21.282705579411125</v>
+        <v>20.282705579411125</v>
       </c>
       <c r="G68" s="2">
         <v>1</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" ref="H68:H131" si="13">F68+G68</f>
-        <v>22.282705579411125</v>
+        <v>21.282705579411125</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -3910,18 +3910,18 @@
       </c>
       <c r="E69" s="3">
         <f t="shared" si="11"/>
-        <v>-2.9261236868348273</v>
+        <v>-2.9261236868348286</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="12"/>
-        <v>21.243876313165174</v>
+        <v>20.243876313165174</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="13"/>
-        <v>22.243876313165174</v>
+        <v>21.243876313165174</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -3938,18 +3938,18 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" si="11"/>
-        <v>-2.9647361806662258</v>
+        <v>-2.9647361806662271</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="12"/>
-        <v>21.205263819333776</v>
+        <v>20.205263819333773</v>
       </c>
       <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="13"/>
-        <v>22.205263819333776</v>
+        <v>21.205263819333773</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -3966,18 +3966,18 @@
       </c>
       <c r="E71" s="3">
         <f t="shared" si="11"/>
-        <v>-3.0031290416012815</v>
+        <v>-3.0031290416012828</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="12"/>
-        <v>21.166870958398722</v>
+        <v>20.166870958398718</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" si="13"/>
-        <v>22.166870958398722</v>
+        <v>21.166870958398718</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -3994,18 +3994,18 @@
       </c>
       <c r="E72" s="3">
         <f t="shared" si="11"/>
-        <v>-3.0412994254289978</v>
+        <v>-3.0412994254289991</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="12"/>
-        <v>21.128700574571003</v>
+        <v>20.128700574571003</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" si="13"/>
-        <v>22.128700574571003</v>
+        <v>21.128700574571003</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -4022,18 +4022,18 @@
       </c>
       <c r="E73" s="3">
         <f t="shared" si="11"/>
-        <v>-3.0792445044198766</v>
+        <v>-3.079244504419878</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="12"/>
-        <v>21.090755495580126</v>
+        <v>20.090755495580122</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" si="13"/>
-        <v>22.090755495580126</v>
+        <v>21.090755495580122</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -4050,18 +4050,18 @@
       </c>
       <c r="E74" s="3">
         <f t="shared" si="11"/>
-        <v>-3.1169614675353978</v>
+        <v>-3.1169614675353996</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="12"/>
-        <v>21.053038532464605</v>
+        <v>20.053038532464601</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="13"/>
-        <v>22.053038532464605</v>
+        <v>21.053038532464601</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -4078,18 +4078,18 @@
       </c>
       <c r="E75" s="3">
         <f t="shared" si="11"/>
-        <v>-3.154447520636273</v>
+        <v>-3.1544475206362743</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="12"/>
-        <v>21.015552479363727</v>
+        <v>20.015552479363727</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" si="13"/>
-        <v>22.015552479363727</v>
+        <v>21.015552479363727</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -4106,18 +4106,18 @@
       </c>
       <c r="E76" s="3">
         <f t="shared" si="11"/>
-        <v>-3.1916998866894297</v>
+        <v>-3.1916998866894315</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="12"/>
-        <v>20.978300113310571</v>
+        <v>19.978300113310571</v>
       </c>
       <c r="G76" s="2">
         <v>1</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="13"/>
-        <v>21.978300113310571</v>
+        <v>20.978300113310571</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -4134,18 +4134,18 @@
       </c>
       <c r="E77" s="3">
         <f t="shared" si="11"/>
-        <v>-3.2287158059737506</v>
+        <v>-3.2287158059737524</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" si="12"/>
-        <v>20.941284194026252</v>
+        <v>19.941284194026249</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" si="13"/>
-        <v>21.941284194026252</v>
+        <v>20.941284194026249</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -4162,18 +4162,18 @@
       </c>
       <c r="E78" s="3">
         <f t="shared" si="11"/>
-        <v>-3.2654925362845102</v>
+        <v>-3.265492536284512</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" si="12"/>
-        <v>20.90450746371549</v>
+        <v>19.90450746371549</v>
       </c>
       <c r="G78" s="2">
         <v>1</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="13"/>
-        <v>21.90450746371549</v>
+        <v>20.90450746371549</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -4190,18 +4190,18 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" si="11"/>
-        <v>-3.3020273531365252</v>
+        <v>-3.302027353136527</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="12"/>
-        <v>20.867972646863478</v>
+        <v>19.867972646863475</v>
       </c>
       <c r="G79" s="2">
         <v>1</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="13"/>
-        <v>21.867972646863478</v>
+        <v>20.867972646863475</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -4218,18 +4218,18 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" si="11"/>
-        <v>-3.3383175499659892</v>
+        <v>-3.3383175499659909</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="12"/>
-        <v>20.831682450034013</v>
+        <v>19.831682450034009</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" si="13"/>
-        <v>21.831682450034013</v>
+        <v>20.831682450034009</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -4246,18 +4246,18 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" si="11"/>
-        <v>-3.374360438330978</v>
+        <v>-3.3743604383309798</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="12"/>
-        <v>20.795639561669024</v>
+        <v>19.79563956166902</v>
       </c>
       <c r="G81" s="2">
         <v>1</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="13"/>
-        <v>21.795639561669024</v>
+        <v>20.79563956166902</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -4274,18 +4274,18 @@
       </c>
       <c r="E82" s="3">
         <f t="shared" si="11"/>
-        <v>-3.4101533481106192</v>
+        <v>-3.410153348110621</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="12"/>
-        <v>20.759846651889383</v>
+        <v>19.759846651889379</v>
       </c>
       <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="13"/>
-        <v>21.759846651889383</v>
+        <v>20.759846651889379</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -4302,18 +4302,18 @@
       </c>
       <c r="E83" s="3">
         <f t="shared" si="11"/>
-        <v>-3.4456936277028918</v>
+        <v>-3.4456936277028936</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="12"/>
-        <v>20.724306372297111</v>
+        <v>19.724306372297107</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="13"/>
-        <v>21.724306372297111</v>
+        <v>20.724306372297107</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -4330,18 +4330,18 @@
       </c>
       <c r="E84" s="3">
         <f t="shared" si="11"/>
-        <v>-3.4809786442210675</v>
+        <v>-3.4809786442210693</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="12"/>
-        <v>20.689021355778934</v>
+        <v>19.689021355778934</v>
       </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="13"/>
-        <v>21.689021355778934</v>
+        <v>20.689021355778934</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -4358,18 +4358,18 @@
       </c>
       <c r="E85" s="3">
         <f t="shared" si="11"/>
-        <v>-3.5160057836887573</v>
+        <v>-3.516005783688759</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" si="12"/>
-        <v>20.653994216311244</v>
+        <v>19.653994216311244</v>
       </c>
       <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="3">
         <f t="shared" si="13"/>
-        <v>21.653994216311244</v>
+        <v>20.653994216311244</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -4386,18 +4386,18 @@
       </c>
       <c r="E86" s="3">
         <f t="shared" si="11"/>
-        <v>-3.5507724512335606</v>
+        <v>-3.5507724512335623</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="12"/>
-        <v>20.619227548766442</v>
+        <v>19.619227548766439</v>
       </c>
       <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="3">
         <f t="shared" si="13"/>
-        <v>21.619227548766442</v>
+        <v>20.619227548766439</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4414,18 +4414,18 @@
       </c>
       <c r="E87" s="3">
         <f t="shared" si="11"/>
-        <v>-3.5852760712792966</v>
+        <v>-3.5852760712792984</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="12"/>
-        <v>20.584723928720706</v>
+        <v>19.584723928720702</v>
       </c>
       <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87" s="3">
         <f t="shared" si="13"/>
-        <v>21.584723928720706</v>
+        <v>20.584723928720702</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -4442,18 +4442,18 @@
       </c>
       <c r="E88" s="3">
         <f t="shared" si="11"/>
-        <v>-3.6195140877368077</v>
+        <v>-3.6195140877368095</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="12"/>
-        <v>20.550485912263195</v>
+        <v>19.550485912263191</v>
       </c>
       <c r="G88" s="2">
         <v>1</v>
       </c>
       <c r="H88" s="3">
         <f t="shared" si="13"/>
-        <v>21.550485912263195</v>
+        <v>20.550485912263191</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -4470,18 +4470,18 @@
       </c>
       <c r="E89" s="3">
         <f t="shared" si="11"/>
-        <v>-3.6534839641933208</v>
+        <v>-3.6534839641933226</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="12"/>
-        <v>20.516516035806681</v>
+        <v>19.516516035806678</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89" s="3">
         <f t="shared" si="13"/>
-        <v>21.516516035806681</v>
+        <v>20.516516035806678</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -4498,18 +4498,18 @@
       </c>
       <c r="E90" s="3">
         <f t="shared" si="11"/>
-        <v>-3.6871831841003466</v>
+        <v>-3.6871831841003484</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="12"/>
-        <v>20.482816815899653</v>
+        <v>19.482816815899653</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="13"/>
-        <v>21.482816815899653</v>
+        <v>20.482816815899653</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4526,18 +4526,18 @@
       </c>
       <c r="E91" s="3">
         <f t="shared" si="11"/>
-        <v>-3.7206092509601127</v>
+        <v>-3.7206092509601145</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" si="12"/>
-        <v>20.449390749039889</v>
+        <v>19.449390749039885</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="13"/>
-        <v>21.449390749039889</v>
+        <v>20.449390749039885</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4554,18 +4554,18 @@
       </c>
       <c r="E92" s="3">
         <f t="shared" si="11"/>
-        <v>-3.7537596885105065</v>
+        <v>-3.7537596885105082</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" si="12"/>
-        <v>20.416240311489496</v>
+        <v>19.416240311489492</v>
       </c>
       <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="13"/>
-        <v>21.416240311489496</v>
+        <v>20.416240311489492</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -4582,18 +4582,18 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" si="11"/>
-        <v>-3.786632040908521</v>
+        <v>-3.7866320409085228</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" si="12"/>
-        <v>20.38336795909148</v>
+        <v>19.38336795909148</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="13"/>
-        <v>21.38336795909148</v>
+        <v>20.38336795909148</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -4610,18 +4610,18 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" si="11"/>
-        <v>-3.8192238729121915</v>
+        <v>-3.8192238729121932</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" si="12"/>
-        <v>20.350776127087812</v>
+        <v>19.350776127087808</v>
       </c>
       <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="13"/>
-        <v>21.350776127087812</v>
+        <v>20.350776127087808</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -4638,18 +4638,18 @@
       </c>
       <c r="E95" s="3">
         <f t="shared" si="11"/>
-        <v>-3.8515327700609956</v>
+        <v>-3.8515327700609978</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" si="12"/>
-        <v>20.318467229939007</v>
+        <v>19.318467229939003</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="13"/>
-        <v>21.318467229939007</v>
+        <v>20.318467229939003</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4666,18 +4666,18 @@
       </c>
       <c r="E96" s="3">
         <f t="shared" si="11"/>
-        <v>-3.8835563388547301</v>
+        <v>-3.8835563388547323</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" si="12"/>
-        <v>20.28644366114527</v>
+        <v>19.28644366114527</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="13"/>
-        <v>21.28644366114527</v>
+        <v>20.28644366114527</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -4694,18 +4694,18 @@
       </c>
       <c r="E97" s="3">
         <f t="shared" si="11"/>
-        <v>-3.9152922069308165</v>
+        <v>-3.9152922069308183</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" si="12"/>
-        <v>20.254707793069187</v>
+        <v>19.254707793069183</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="13"/>
-        <v>21.254707793069187</v>
+        <v>20.254707793069183</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -4722,18 +4722,18 @@
       </c>
       <c r="E98" s="3">
         <f t="shared" si="11"/>
-        <v>-3.9467380232400564</v>
+        <v>-3.9467380232400582</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" si="12"/>
-        <v>20.223261976759947</v>
+        <v>19.223261976759943</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="13"/>
-        <v>21.223261976759947</v>
+        <v>20.223261976759943</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -4750,18 +4750,18 @@
       </c>
       <c r="E99" s="3">
         <f t="shared" si="11"/>
-        <v>-3.9778914582207974</v>
+        <v>-3.9778914582207996</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" si="12"/>
-        <v>20.192108541779206</v>
+        <v>19.192108541779202</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
       </c>
       <c r="H99" s="3">
         <f t="shared" si="13"/>
-        <v>21.192108541779206</v>
+        <v>20.192108541779202</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -4778,15 +4778,15 @@
       </c>
       <c r="E100" s="3">
         <f t="shared" si="11"/>
-        <v>-4.0087502039715135</v>
+        <v>-4.0087502039715153</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" si="12"/>
-        <v>20.161249796028489</v>
+        <v>19.161249796028486</v>
       </c>
       <c r="H100" s="3">
         <f t="shared" si="13"/>
-        <v>20.161249796028489</v>
+        <v>19.161249796028486</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E101" s="3">
         <f t="shared" si="11"/>
-        <v>-4.0393119744217785</v>
+        <v>-4.0393119744217802</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="12"/>
-        <v>20.130688025578223</v>
+        <v>19.130688025578223</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="13"/>
-        <v>20.130688025578223</v>
+        <v>19.130688025578223</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -4828,15 +4828,15 @@
       </c>
       <c r="E102" s="3">
         <f t="shared" si="11"/>
-        <v>-4.0695745055016186</v>
+        <v>-4.0695745055016204</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="12"/>
-        <v>20.100425494498381</v>
+        <v>19.100425494498381</v>
       </c>
       <c r="H102" s="3">
         <f t="shared" si="13"/>
-        <v>20.100425494498381</v>
+        <v>19.100425494498381</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -4853,15 +4853,15 @@
       </c>
       <c r="E103" s="3">
         <f t="shared" si="11"/>
-        <v>-4.0995355553092461</v>
+        <v>-4.0995355553092478</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="12"/>
-        <v>20.070464444690757</v>
+        <v>19.070464444690753</v>
       </c>
       <c r="H103" s="3">
         <f t="shared" si="13"/>
-        <v>20.070464444690757</v>
+        <v>19.070464444690753</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -4878,15 +4878,15 @@
       </c>
       <c r="E104" s="3">
         <f t="shared" si="11"/>
-        <v>-4.1291929042771329</v>
+        <v>-4.1291929042771356</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="12"/>
-        <v>20.040807095722869</v>
+        <v>19.040807095722865</v>
       </c>
       <c r="H104" s="3">
         <f t="shared" si="13"/>
-        <v>20.040807095722869</v>
+        <v>19.040807095722865</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E105" s="3">
         <f t="shared" si="11"/>
-        <v>-4.1585443553364518</v>
+        <v>-4.1585443553364545</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="12"/>
-        <v>20.011455644663549</v>
+        <v>19.011455644663549</v>
       </c>
       <c r="H105" s="3">
         <f t="shared" si="13"/>
-        <v>20.011455644663549</v>
+        <v>19.011455644663549</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -4928,15 +4928,15 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" si="11"/>
-        <v>-4.1875877340798286</v>
+        <v>-4.1875877340798304</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="12"/>
-        <v>19.982412265920175</v>
+        <v>18.982412265920171</v>
       </c>
       <c r="H106" s="3">
         <f t="shared" si="13"/>
-        <v>19.982412265920175</v>
+        <v>18.982412265920171</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -4953,15 +4953,15 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" si="11"/>
-        <v>-4.216320888922434</v>
+        <v>-4.2163208889224357</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="12"/>
-        <v>19.95367911107757</v>
+        <v>18.953679111077566</v>
       </c>
       <c r="H107" s="3">
         <f t="shared" si="13"/>
-        <v>19.95367911107757</v>
+        <v>18.953679111077566</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -4978,15 +4978,15 @@
       </c>
       <c r="E108" s="3">
         <f t="shared" si="11"/>
-        <v>-4.2447416912613711</v>
+        <v>-4.2447416912613738</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="12"/>
-        <v>19.925258308738631</v>
+        <v>18.925258308738627</v>
       </c>
       <c r="H108" s="3">
         <f t="shared" si="13"/>
-        <v>19.925258308738631</v>
+        <v>18.925258308738627</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -5003,15 +5003,15 @@
       </c>
       <c r="E109" s="3">
         <f t="shared" si="11"/>
-        <v>-4.2728480356333707</v>
+        <v>-4.2728480356333725</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="12"/>
-        <v>19.897151964366632</v>
+        <v>18.897151964366628</v>
       </c>
       <c r="H109" s="3">
         <f t="shared" si="13"/>
-        <v>19.897151964366632</v>
+        <v>18.897151964366628</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -5028,15 +5028,15 @@
       </c>
       <c r="E110" s="3">
         <f t="shared" si="11"/>
-        <v>-4.3006378398707641</v>
+        <v>-4.3006378398707668</v>
       </c>
       <c r="F110" s="3">
         <f t="shared" si="12"/>
-        <v>19.869362160129239</v>
+        <v>18.869362160129235</v>
       </c>
       <c r="H110" s="3">
         <f t="shared" si="13"/>
-        <v>19.869362160129239</v>
+        <v>18.869362160129235</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -5053,15 +5053,15 @@
       </c>
       <c r="E111" s="3">
         <f t="shared" si="11"/>
-        <v>-4.3281090452557365</v>
+        <v>-4.3281090452557391</v>
       </c>
       <c r="F111" s="3">
         <f t="shared" si="12"/>
-        <v>19.841890954744265</v>
+        <v>18.841890954744262</v>
       </c>
       <c r="H111" s="3">
         <f t="shared" si="13"/>
-        <v>19.841890954744265</v>
+        <v>18.841890954744262</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -5078,15 +5078,15 @@
       </c>
       <c r="E112" s="3">
         <f t="shared" si="11"/>
-        <v>-4.3552596166728375</v>
+        <v>-4.3552596166728401</v>
       </c>
       <c r="F112" s="3">
         <f t="shared" si="12"/>
-        <v>19.814740383327162</v>
+        <v>18.814740383327162</v>
       </c>
       <c r="H112" s="3">
         <f t="shared" si="13"/>
-        <v>19.814740383327162</v>
+        <v>18.814740383327162</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -5103,15 +5103,15 @@
       </c>
       <c r="E113" s="3">
         <f t="shared" si="11"/>
-        <v>-4.3820875427597503</v>
+        <v>-4.3820875427597521</v>
       </c>
       <c r="F113" s="3">
         <f t="shared" si="12"/>
-        <v>19.787912457240253</v>
+        <v>18.78791245724025</v>
       </c>
       <c r="H113" s="3">
         <f t="shared" si="13"/>
-        <v>19.787912457240253</v>
+        <v>18.78791245724025</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
@@ -5128,15 +5128,15 @@
       </c>
       <c r="E114" s="3">
         <f t="shared" si="11"/>
-        <v>-4.4085908360562902</v>
+        <v>-4.408590836056292</v>
       </c>
       <c r="F114" s="3">
         <f t="shared" si="12"/>
-        <v>19.761409163943711</v>
+        <v>18.761409163943711</v>
       </c>
       <c r="H114" s="3">
         <f t="shared" si="13"/>
-        <v>19.761409163943711</v>
+        <v>18.761409163943711</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
@@ -5153,15 +5153,15 @@
       </c>
       <c r="E115" s="3">
         <f t="shared" si="11"/>
-        <v>-4.4347675331516481</v>
+        <v>-4.4347675331516507</v>
       </c>
       <c r="F115" s="3">
         <f t="shared" si="12"/>
-        <v>19.735232466848352</v>
+        <v>18.735232466848352</v>
       </c>
       <c r="H115" s="3">
         <f t="shared" si="13"/>
-        <v>19.735232466848352</v>
+        <v>18.735232466848352</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -5178,15 +5178,15 @@
       </c>
       <c r="E116" s="3">
         <f t="shared" si="11"/>
-        <v>-4.4606156948298361</v>
+        <v>-4.4606156948298388</v>
       </c>
       <c r="F116" s="3">
         <f t="shared" si="12"/>
-        <v>19.709384305170165</v>
+        <v>18.709384305170161</v>
       </c>
       <c r="H116" s="3">
         <f t="shared" si="13"/>
-        <v>19.709384305170165</v>
+        <v>18.709384305170161</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -5203,15 +5203,15 @@
       </c>
       <c r="E117" s="3">
         <f t="shared" si="11"/>
-        <v>-4.4861334062133515</v>
+        <v>-4.4861334062133533</v>
       </c>
       <c r="F117" s="3">
         <f t="shared" si="12"/>
-        <v>19.68386659378665</v>
+        <v>18.683866593786647</v>
       </c>
       <c r="H117" s="3">
         <f t="shared" si="13"/>
-        <v>19.68386659378665</v>
+        <v>18.683866593786647</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
@@ -5228,15 +5228,15 @@
       </c>
       <c r="E118" s="3">
         <f t="shared" si="11"/>
-        <v>-4.5113187769050338</v>
+        <v>-4.5113187769050356</v>
       </c>
       <c r="F118" s="3">
         <f t="shared" si="12"/>
-        <v>19.658681223094966</v>
+        <v>18.658681223094966</v>
       </c>
       <c r="H118" s="3">
         <f t="shared" si="13"/>
-        <v>19.658681223094966</v>
+        <v>18.658681223094966</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -5253,15 +5253,15 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" si="11"/>
-        <v>-4.5361699411281053</v>
+        <v>-4.536169941128108</v>
       </c>
       <c r="F119" s="3">
         <f t="shared" si="12"/>
-        <v>19.633830058871897</v>
+        <v>18.633830058871894</v>
       </c>
       <c r="H119" s="3">
         <f t="shared" si="13"/>
-        <v>19.633830058871897</v>
+        <v>18.633830058871894</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -5278,15 +5278,15 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" si="11"/>
-        <v>-4.5606850578643998</v>
+        <v>-4.5606850578644016</v>
       </c>
       <c r="F120" s="3">
         <f t="shared" si="12"/>
-        <v>19.609314942135601</v>
+        <v>18.609314942135601</v>
       </c>
       <c r="H120" s="3">
         <f t="shared" si="13"/>
-        <v>19.609314942135601</v>
+        <v>18.609314942135601</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
@@ -5303,15 +5303,15 @@
       </c>
       <c r="E121" s="3">
         <f t="shared" si="11"/>
-        <v>-4.5848623109907383</v>
+        <v>-4.58486231099074</v>
       </c>
       <c r="F121" s="3">
         <f t="shared" si="12"/>
-        <v>19.585137689009265</v>
+        <v>18.585137689009262</v>
       </c>
       <c r="H121" s="3">
         <f t="shared" si="13"/>
-        <v>19.585137689009265</v>
+        <v>18.585137689009262</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -5328,15 +5328,15 @@
       </c>
       <c r="E122" s="3">
         <f t="shared" si="11"/>
-        <v>-4.6086999094134757</v>
+        <v>-4.6086999094134784</v>
       </c>
       <c r="F122" s="3">
         <f t="shared" si="12"/>
-        <v>19.561300090586528</v>
+        <v>18.561300090586524</v>
       </c>
       <c r="H122" s="3">
         <f t="shared" si="13"/>
-        <v>19.561300090586528</v>
+        <v>18.561300090586524</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,15 +5353,15 @@
       </c>
       <c r="E123" s="3">
         <f t="shared" si="11"/>
-        <v>-4.6321960872011916</v>
+        <v>-4.6321960872011942</v>
       </c>
       <c r="F123" s="3">
         <f t="shared" si="12"/>
-        <v>19.537803912798811</v>
+        <v>18.537803912798807</v>
       </c>
       <c r="H123" s="3">
         <f t="shared" si="13"/>
-        <v>19.537803912798811</v>
+        <v>18.537803912798807</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -5378,15 +5378,15 @@
       </c>
       <c r="E124" s="3">
         <f t="shared" si="11"/>
-        <v>-4.655349103715503</v>
+        <v>-4.6553491037155057</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" si="12"/>
-        <v>19.5146508962845</v>
+        <v>18.514650896284497</v>
       </c>
       <c r="H124" s="3">
         <f t="shared" si="13"/>
-        <v>19.5146508962845</v>
+        <v>18.514650896284497</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
@@ -5403,15 +5403,15 @@
       </c>
       <c r="E125" s="3">
         <f t="shared" si="11"/>
-        <v>-4.6781572437400278</v>
+        <v>-4.6781572437400296</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="12"/>
-        <v>19.491842756259974</v>
+        <v>18.49184275625997</v>
       </c>
       <c r="H125" s="3">
         <f t="shared" si="13"/>
-        <v>19.491842756259974</v>
+        <v>18.49184275625997</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -5428,15 +5428,15 @@
       </c>
       <c r="E126" s="3">
         <f t="shared" si="11"/>
-        <v>-4.7006188176074373</v>
+        <v>-4.700618817607439</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="12"/>
-        <v>19.469381182392564</v>
+        <v>18.469381182392564</v>
       </c>
       <c r="H126" s="3">
         <f t="shared" si="13"/>
-        <v>19.469381182392564</v>
+        <v>18.469381182392564</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -5453,15 +5453,15 @@
       </c>
       <c r="E127" s="3">
         <f t="shared" si="11"/>
-        <v>-4.7227321613246414</v>
+        <v>-4.7227321613246431</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="12"/>
-        <v>19.447267838675359</v>
+        <v>18.447267838675359</v>
       </c>
       <c r="H127" s="3">
         <f t="shared" si="13"/>
-        <v>19.447267838675359</v>
+        <v>18.447267838675359</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -5478,15 +5478,15 @@
       </c>
       <c r="E128" s="3">
         <f t="shared" si="11"/>
-        <v>-4.744495636696052</v>
+        <v>-4.7444956366960538</v>
       </c>
       <c r="F128" s="3">
         <f t="shared" si="12"/>
-        <v>19.425504363303951</v>
+        <v>18.425504363303947</v>
       </c>
       <c r="H128" s="3">
         <f t="shared" si="13"/>
-        <v>19.425504363303951</v>
+        <v>18.425504363303947</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
@@ -5503,15 +5503,15 @@
       </c>
       <c r="E129" s="3">
         <f t="shared" si="11"/>
-        <v>-4.7659076314449464</v>
+        <v>-4.7659076314449491</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="12"/>
-        <v>19.404092368555055</v>
+        <v>18.404092368555052</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="13"/>
-        <v>19.404092368555055</v>
+        <v>18.404092368555052</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
@@ -5528,15 +5528,15 @@
       </c>
       <c r="E130" s="3">
         <f t="shared" si="11"/>
-        <v>-4.7869665593329112</v>
+        <v>-4.7869665593329129</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="12"/>
-        <v>19.383033440667091</v>
+        <v>18.383033440667088</v>
       </c>
       <c r="H130" s="3">
         <f t="shared" si="13"/>
-        <v>19.383033440667091</v>
+        <v>18.383033440667088</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -5553,15 +5553,15 @@
       </c>
       <c r="E131" s="3">
         <f t="shared" si="11"/>
-        <v>-4.8076708602773444</v>
+        <v>-4.8076708602773461</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" si="12"/>
-        <v>19.362329139722657</v>
+        <v>18.362329139722654</v>
       </c>
       <c r="H131" s="3">
         <f t="shared" si="13"/>
-        <v>19.362329139722657</v>
+        <v>18.362329139722654</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -5578,15 +5578,15 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" ref="E132:E195" si="16">D132*$E$2</f>
-        <v>-4.8280190004670391</v>
+        <v>-4.8280190004670418</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" ref="F132:F195" si="17">E132+$F$2</f>
-        <v>19.341980999532964</v>
+        <v>18.341980999532961</v>
       </c>
       <c r="H132" s="3">
         <f t="shared" ref="H132:H195" si="18">F132+G132</f>
-        <v>19.341980999532964</v>
+        <v>18.341980999532961</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
@@ -5603,15 +5603,15 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" si="16"/>
-        <v>-4.8480094724758063</v>
+        <v>-4.8480094724758089</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="17"/>
-        <v>19.321990527524196</v>
+        <v>18.321990527524193</v>
       </c>
       <c r="H133" s="3">
         <f t="shared" si="18"/>
-        <v>19.321990527524196</v>
+        <v>18.321990527524193</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
@@ -5628,15 +5628,15 @@
       </c>
       <c r="E134" s="3">
         <f t="shared" si="16"/>
-        <v>-4.8676407953741467</v>
+        <v>-4.8676407953741494</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="17"/>
-        <v>19.302359204625855</v>
+        <v>18.302359204625851</v>
       </c>
       <c r="H134" s="3">
         <f t="shared" si="18"/>
-        <v>19.302359204625855</v>
+        <v>18.302359204625851</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -5653,15 +5653,15 @@
       </c>
       <c r="E135" s="3">
         <f t="shared" si="16"/>
-        <v>-4.8869115148389604</v>
+        <v>-4.886911514838963</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="17"/>
-        <v>19.283088485161041</v>
+        <v>18.283088485161038</v>
       </c>
       <c r="H135" s="3">
         <f t="shared" si="18"/>
-        <v>19.283088485161041</v>
+        <v>18.283088485161038</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
@@ -5678,15 +5678,15 @@
       </c>
       <c r="E136" s="3">
         <f t="shared" si="16"/>
-        <v>-4.9058202032612916</v>
+        <v>-4.9058202032612934</v>
       </c>
       <c r="F136" s="3">
         <f t="shared" si="17"/>
-        <v>19.264179796738709</v>
+        <v>18.264179796738709</v>
       </c>
       <c r="H136" s="3">
         <f t="shared" si="18"/>
-        <v>19.264179796738709</v>
+        <v>18.264179796738709</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -5703,15 +5703,15 @@
       </c>
       <c r="E137" s="3">
         <f t="shared" si="16"/>
-        <v>-4.924365459852079</v>
+        <v>-4.9243654598520816</v>
       </c>
       <c r="F137" s="3">
         <f t="shared" si="17"/>
-        <v>19.245634540147922</v>
+        <v>18.245634540147918</v>
       </c>
       <c r="H137" s="3">
         <f t="shared" si="18"/>
-        <v>19.245634540147922</v>
+        <v>18.245634540147918</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -5728,15 +5728,15 @@
       </c>
       <c r="E138" s="3">
         <f t="shared" si="16"/>
-        <v>-4.94254591074594</v>
+        <v>-4.9425459107459417</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="17"/>
-        <v>19.22745408925406</v>
+        <v>18.22745408925406</v>
       </c>
       <c r="H138" s="3">
         <f t="shared" si="18"/>
-        <v>19.22745408925406</v>
+        <v>18.22745408925406</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -5753,15 +5753,15 @@
       </c>
       <c r="E139" s="3">
         <f t="shared" si="16"/>
-        <v>-4.9603602091029337</v>
+        <v>-4.9603602091029364</v>
       </c>
       <c r="F139" s="3">
         <f t="shared" si="17"/>
-        <v>19.209639790897068</v>
+        <v>18.209639790897064</v>
       </c>
       <c r="H139" s="3">
         <f t="shared" si="18"/>
-        <v>19.209639790897068</v>
+        <v>18.209639790897064</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
@@ -5778,15 +5778,15 @@
       </c>
       <c r="E140" s="3">
         <f t="shared" si="16"/>
-        <v>-4.9778070352083557</v>
+        <v>-4.9778070352083583</v>
       </c>
       <c r="F140" s="3">
         <f t="shared" si="17"/>
-        <v>19.192192964791644</v>
+        <v>18.192192964791644</v>
       </c>
       <c r="H140" s="3">
         <f t="shared" si="18"/>
-        <v>19.192192964791644</v>
+        <v>18.192192964791644</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
@@ -5803,15 +5803,15 @@
       </c>
       <c r="E141" s="3">
         <f t="shared" si="16"/>
-        <v>-4.9948850965704894</v>
+        <v>-4.9948850965704921</v>
       </c>
       <c r="F141" s="3">
         <f t="shared" si="17"/>
-        <v>19.175114903429513</v>
+        <v>18.17511490342951</v>
       </c>
       <c r="H141" s="3">
         <f t="shared" si="18"/>
-        <v>19.175114903429513</v>
+        <v>18.17511490342951</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -5828,15 +5828,15 @@
       </c>
       <c r="E142" s="3">
         <f t="shared" si="16"/>
-        <v>-5.011593128016365</v>
+        <v>-5.0115931280163677</v>
       </c>
       <c r="F142" s="3">
         <f t="shared" si="17"/>
-        <v>19.158406871983637</v>
+        <v>18.158406871983633</v>
       </c>
       <c r="H142" s="3">
         <f t="shared" si="18"/>
-        <v>19.158406871983637</v>
+        <v>18.158406871983633</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -5853,15 +5853,15 @@
       </c>
       <c r="E143" s="3">
         <f t="shared" si="16"/>
-        <v>-5.0279298917854822</v>
+        <v>-5.0279298917854849</v>
       </c>
       <c r="F143" s="3">
         <f t="shared" si="17"/>
-        <v>19.142070108214519</v>
+        <v>18.142070108214519</v>
       </c>
       <c r="H143" s="3">
         <f t="shared" si="18"/>
-        <v>19.142070108214519</v>
+        <v>18.142070108214519</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -5878,15 +5878,15 @@
       </c>
       <c r="E144" s="3">
         <f t="shared" si="16"/>
-        <v>-5.0438941776215058</v>
+        <v>-5.0438941776215085</v>
       </c>
       <c r="F144" s="3">
         <f t="shared" si="17"/>
-        <v>19.126105822378495</v>
+        <v>18.126105822378491</v>
       </c>
       <c r="H144" s="3">
         <f t="shared" si="18"/>
-        <v>19.126105822378495</v>
+        <v>18.126105822378491</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -5903,15 +5903,15 @@
       </c>
       <c r="E145" s="3">
         <f t="shared" si="16"/>
-        <v>-5.0594848028619248</v>
+        <v>-5.0594848028619275</v>
       </c>
       <c r="F145" s="3">
         <f t="shared" si="17"/>
-        <v>19.110515197138078</v>
+        <v>18.110515197138074</v>
       </c>
       <c r="H145" s="3">
         <f t="shared" si="18"/>
-        <v>19.110515197138078</v>
+        <v>18.110515197138074</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -5928,15 +5928,15 @@
       </c>
       <c r="E146" s="3">
         <f t="shared" si="16"/>
-        <v>-5.0747006125256648</v>
+        <v>-5.0747006125256675</v>
       </c>
       <c r="F146" s="3">
         <f t="shared" si="17"/>
-        <v>19.095299387474338</v>
+        <v>18.095299387474334</v>
       </c>
       <c r="H146" s="3">
         <f t="shared" si="18"/>
-        <v>19.095299387474338</v>
+        <v>18.095299387474334</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -5953,15 +5953,15 @@
       </c>
       <c r="E147" s="3">
         <f t="shared" si="16"/>
-        <v>-5.0895404793986545</v>
+        <v>-5.0895404793986572</v>
       </c>
       <c r="F147" s="3">
         <f t="shared" si="17"/>
-        <v>19.080459520601348</v>
+        <v>18.080459520601345</v>
       </c>
       <c r="H147" s="3">
         <f t="shared" si="18"/>
-        <v>19.080459520601348</v>
+        <v>18.080459520601345</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -5978,15 +5978,15 @@
       </c>
       <c r="E148" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1040033041173247</v>
+        <v>-5.1040033041173265</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" si="17"/>
-        <v>19.065996695882678</v>
+        <v>18.065996695882674</v>
       </c>
       <c r="H148" s="3">
         <f t="shared" si="18"/>
-        <v>19.065996695882678</v>
+        <v>18.065996695882674</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E149" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1180880152500583</v>
+        <v>-5.118088015250061</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="17"/>
-        <v>19.051911984749943</v>
+        <v>18.051911984749943</v>
       </c>
       <c r="H149" s="3">
         <f t="shared" si="18"/>
-        <v>19.051911984749943</v>
+        <v>18.051911984749943</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -6028,15 +6028,15 @@
       </c>
       <c r="E150" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1317935693765602</v>
+        <v>-5.1317935693765628</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="17"/>
-        <v>19.03820643062344</v>
+        <v>18.03820643062344</v>
       </c>
       <c r="H150" s="3">
         <f t="shared" si="18"/>
-        <v>19.03820643062344</v>
+        <v>18.03820643062344</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -6053,15 +6053,15 @@
       </c>
       <c r="E151" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1451189511651574</v>
+        <v>-5.14511895116516</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="17"/>
-        <v>19.024881048834843</v>
+        <v>18.024881048834843</v>
       </c>
       <c r="H151" s="3">
         <f t="shared" si="18"/>
-        <v>19.024881048834843</v>
+        <v>18.024881048834843</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -6078,15 +6078,15 @@
       </c>
       <c r="E152" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1580631734480145</v>
+        <v>-5.1580631734480171</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="17"/>
-        <v>19.011936826551988</v>
+        <v>18.011936826551985</v>
       </c>
       <c r="H152" s="3">
         <f t="shared" si="18"/>
-        <v>19.011936826551988</v>
+        <v>18.011936826551985</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E153" s="3">
         <f t="shared" si="16"/>
-        <v>-5.170625277294266</v>
+        <v>-5.1706252772942687</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="17"/>
-        <v>18.999374722705735</v>
+        <v>17.999374722705731</v>
       </c>
       <c r="H153" s="3">
         <f t="shared" si="18"/>
-        <v>18.999374722705735</v>
+        <v>17.999374722705731</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -6128,15 +6128,15 @@
       </c>
       <c r="E154" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1828043320810551</v>
+        <v>-5.1828043320810577</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="17"/>
-        <v>18.987195667918947</v>
+        <v>17.987195667918943</v>
       </c>
       <c r="H154" s="3">
         <f t="shared" si="18"/>
-        <v>18.987195667918947</v>
+        <v>17.987195667918943</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -6153,15 +6153,15 @@
       </c>
       <c r="E155" s="3">
         <f t="shared" si="16"/>
-        <v>-5.1945994355624787</v>
+        <v>-5.1945994355624805</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="17"/>
-        <v>18.975400564437521</v>
+        <v>17.975400564437521</v>
       </c>
       <c r="H155" s="3">
         <f t="shared" si="18"/>
-        <v>18.975400564437521</v>
+        <v>17.975400564437521</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -6178,15 +6178,15 @@
       </c>
       <c r="E156" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2060097139364219</v>
+        <v>-5.2060097139364245</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="17"/>
-        <v>18.963990286063581</v>
+        <v>17.963990286063577</v>
       </c>
       <c r="H156" s="3">
         <f t="shared" si="18"/>
-        <v>18.963990286063581</v>
+        <v>17.963990286063577</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
@@ -6203,15 +6203,15 @@
       </c>
       <c r="E157" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2170343219092965</v>
+        <v>-5.2170343219092983</v>
       </c>
       <c r="F157" s="3">
         <f t="shared" si="17"/>
-        <v>18.952965678090706</v>
+        <v>17.952965678090703</v>
       </c>
       <c r="H157" s="3">
         <f t="shared" si="18"/>
-        <v>18.952965678090706</v>
+        <v>17.952965678090703</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
@@ -6228,15 +6228,15 @@
       </c>
       <c r="E158" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2276724427586574</v>
+        <v>-5.2276724427586601</v>
       </c>
       <c r="F158" s="3">
         <f t="shared" si="17"/>
-        <v>18.942327557241345</v>
+        <v>17.942327557241342</v>
       </c>
       <c r="H158" s="3">
         <f t="shared" si="18"/>
-        <v>18.942327557241345</v>
+        <v>17.942327557241342</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
@@ -6253,15 +6253,15 @@
       </c>
       <c r="E159" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2379232883937101</v>
+        <v>-5.2379232883937128</v>
       </c>
       <c r="F159" s="3">
         <f t="shared" si="17"/>
-        <v>18.932076711606292</v>
+        <v>17.932076711606289</v>
       </c>
       <c r="H159" s="3">
         <f t="shared" si="18"/>
-        <v>18.932076711606292</v>
+        <v>17.932076711606289</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
@@ -6278,15 +6278,15 @@
       </c>
       <c r="E160" s="3">
         <f t="shared" si="16"/>
-        <v>-5.247786099413692</v>
+        <v>-5.2477860994136947</v>
       </c>
       <c r="F160" s="3">
         <f t="shared" si="17"/>
-        <v>18.922213900586311</v>
+        <v>17.922213900586307</v>
       </c>
       <c r="H160" s="3">
         <f t="shared" si="18"/>
-        <v>18.922213900586311</v>
+        <v>17.922213900586307</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -6303,15 +6303,15 @@
       </c>
       <c r="E161" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2572601451641301</v>
+        <v>-5.2572601451641328</v>
       </c>
       <c r="F161" s="3">
         <f t="shared" si="17"/>
-        <v>18.91273985483587</v>
+        <v>17.91273985483587</v>
       </c>
       <c r="H161" s="3">
         <f t="shared" si="18"/>
-        <v>18.91273985483587</v>
+        <v>17.91273985483587</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -6328,15 +6328,15 @@
       </c>
       <c r="E162" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2663447237909704</v>
+        <v>-5.2663447237909731</v>
       </c>
       <c r="F162" s="3">
         <f t="shared" si="17"/>
-        <v>18.90365527620903</v>
+        <v>17.90365527620903</v>
       </c>
       <c r="H162" s="3">
         <f t="shared" si="18"/>
-        <v>18.90365527620903</v>
+        <v>17.90365527620903</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -6353,15 +6353,15 @@
       </c>
       <c r="E163" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2750391622925719</v>
+        <v>-5.2750391622925745</v>
       </c>
       <c r="F163" s="3">
         <f t="shared" si="17"/>
-        <v>18.89496083770743</v>
+        <v>17.894960837707426</v>
       </c>
       <c r="H163" s="3">
         <f t="shared" si="18"/>
-        <v>18.89496083770743</v>
+        <v>17.894960837707426</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
@@ -6378,15 +6378,15 @@
       </c>
       <c r="E164" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2833428165695624</v>
+        <v>-5.2833428165695651</v>
       </c>
       <c r="F164" s="3">
         <f t="shared" si="17"/>
-        <v>18.88665718343044</v>
+        <v>17.886657183430437</v>
       </c>
       <c r="H164" s="3">
         <f t="shared" si="18"/>
-        <v>18.88665718343044</v>
+        <v>17.886657183430437</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
@@ -6403,15 +6403,15 @@
       </c>
       <c r="E165" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2912550714725564</v>
+        <v>-5.291255071472559</v>
       </c>
       <c r="F165" s="3">
         <f t="shared" si="17"/>
-        <v>18.878744928527446</v>
+        <v>17.878744928527443</v>
       </c>
       <c r="H165" s="3">
         <f t="shared" si="18"/>
-        <v>18.878744928527446</v>
+        <v>17.878744928527443</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -6428,15 +6428,15 @@
       </c>
       <c r="E166" s="3">
         <f t="shared" si="16"/>
-        <v>-5.2987753408477269</v>
+        <v>-5.2987753408477296</v>
       </c>
       <c r="F166" s="3">
         <f t="shared" si="17"/>
-        <v>18.871224659152276</v>
+        <v>17.871224659152272</v>
       </c>
       <c r="H166" s="3">
         <f t="shared" si="18"/>
-        <v>18.871224659152276</v>
+        <v>17.871224659152272</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -6453,15 +6453,15 @@
       </c>
       <c r="E167" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3059030675802275</v>
+        <v>-5.3059030675802301</v>
       </c>
       <c r="F167" s="3">
         <f t="shared" si="17"/>
-        <v>18.864096932419773</v>
+        <v>17.86409693241977</v>
       </c>
       <c r="H167" s="3">
         <f t="shared" si="18"/>
-        <v>18.864096932419773</v>
+        <v>17.86409693241977</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
@@ -6478,15 +6478,15 @@
       </c>
       <c r="E168" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3126377236354614</v>
+        <v>-5.312637723635464</v>
       </c>
       <c r="F168" s="3">
         <f t="shared" si="17"/>
-        <v>18.85736227636454</v>
+        <v>17.857362276364537</v>
       </c>
       <c r="H168" s="3">
         <f t="shared" si="18"/>
-        <v>18.85736227636454</v>
+        <v>17.857362276364537</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -6503,15 +6503,15 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3189788100982076</v>
+        <v>-5.3189788100982103</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" si="17"/>
-        <v>18.851021189901793</v>
+        <v>17.851021189901793</v>
       </c>
       <c r="H169" s="3">
         <f t="shared" si="18"/>
-        <v>18.851021189901793</v>
+        <v>17.851021189901793</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
@@ -6528,15 +6528,15 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3249258572095703</v>
+        <v>-5.324925857209573</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="17"/>
-        <v>18.84507414279043</v>
+        <v>17.84507414279043</v>
       </c>
       <c r="H170" s="3">
         <f t="shared" si="18"/>
-        <v>18.84507414279043</v>
+        <v>17.84507414279043</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
@@ -6553,15 +6553,15 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3304784244017904</v>
+        <v>-5.3304784244017931</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="17"/>
-        <v>18.839521575598212</v>
+        <v>17.839521575598209</v>
       </c>
       <c r="H171" s="3">
         <f t="shared" si="18"/>
-        <v>18.839521575598212</v>
+        <v>17.839521575598209</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -6578,15 +6578,15 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3356361003308761</v>
+        <v>-5.3356361003308788</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="17"/>
-        <v>18.834363899669125</v>
+        <v>17.834363899669121</v>
       </c>
       <c r="H172" s="3">
         <f t="shared" si="18"/>
-        <v>18.834363899669125</v>
+        <v>17.834363899669121</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
@@ -6603,15 +6603,15 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3403985029070773</v>
+        <v>-5.34039850290708</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="17"/>
-        <v>18.829601497092924</v>
+        <v>17.829601497092924</v>
       </c>
       <c r="H173" s="3">
         <f t="shared" si="18"/>
-        <v>18.829601497092924</v>
+        <v>17.829601497092924</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -6628,15 +6628,15 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3447652793231946</v>
+        <v>-5.3447652793231972</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="17"/>
-        <v>18.825234720676807</v>
+        <v>17.825234720676804</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="18"/>
-        <v>18.825234720676807</v>
+        <v>17.825234720676804</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -6653,15 +6653,15 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3487361060807137</v>
+        <v>-5.3487361060807164</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="17"/>
-        <v>18.821263893919287</v>
+        <v>17.821263893919287</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="18"/>
-        <v>18.821263893919287</v>
+        <v>17.821263893919287</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
@@ -6678,15 +6678,15 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3523106890137679</v>
+        <v>-5.3523106890137706</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="17"/>
-        <v>18.817689310986232</v>
+        <v>17.817689310986232</v>
       </c>
       <c r="H176" s="3">
         <f t="shared" si="18"/>
-        <v>18.817689310986232</v>
+        <v>17.817689310986232</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
@@ -6703,15 +6703,15 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3554887633109383</v>
+        <v>-5.3554887633109409</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="17"/>
-        <v>18.814511236689064</v>
+        <v>17.814511236689061</v>
       </c>
       <c r="H177" s="3">
         <f t="shared" si="18"/>
-        <v>18.814511236689064</v>
+        <v>17.814511236689061</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -6728,15 +6728,15 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3582700935348617</v>
+        <v>-5.3582700935348644</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="17"/>
-        <v>18.811729906465139</v>
+        <v>17.811729906465139</v>
       </c>
       <c r="H178" s="3">
         <f t="shared" si="18"/>
-        <v>18.811729906465139</v>
+        <v>17.811729906465139</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
@@ -6753,15 +6753,15 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3606544736396806</v>
+        <v>-5.3606544736396833</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="17"/>
-        <v>18.809345526360321</v>
+        <v>17.809345526360318</v>
       </c>
       <c r="H179" s="3">
         <f t="shared" si="18"/>
-        <v>18.809345526360321</v>
+        <v>17.809345526360318</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -6778,15 +6778,15 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3626417269863023</v>
+        <v>-5.3626417269863049</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="17"/>
-        <v>18.807358273013698</v>
+        <v>17.807358273013698</v>
       </c>
       <c r="H180" s="3">
         <f t="shared" si="18"/>
-        <v>18.807358273013698</v>
+        <v>17.807358273013698</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
@@ -6803,15 +6803,15 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3642317063554845</v>
+        <v>-5.3642317063554872</v>
       </c>
       <c r="F181" s="3">
         <f t="shared" si="17"/>
-        <v>18.805768293644519</v>
+        <v>17.805768293644515</v>
       </c>
       <c r="H181" s="3">
         <f t="shared" si="18"/>
-        <v>18.805768293644519</v>
+        <v>17.805768293644515</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
@@ -6828,15 +6828,15 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" si="16"/>
-        <v>-5.365424293958748</v>
+        <v>-5.3654242939587506</v>
       </c>
       <c r="F182" s="3">
         <f t="shared" si="17"/>
-        <v>18.804575706041256</v>
+        <v>17.804575706041252</v>
       </c>
       <c r="H182" s="3">
         <f t="shared" si="18"/>
-        <v>18.804575706041256</v>
+        <v>17.804575706041252</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -6853,15 +6853,15 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3662194014470934</v>
+        <v>-5.3662194014470961</v>
       </c>
       <c r="F183" s="3">
         <f t="shared" si="17"/>
-        <v>18.803780598552908</v>
+        <v>17.803780598552905</v>
       </c>
       <c r="H183" s="3">
         <f t="shared" si="18"/>
-        <v>18.803780598552908</v>
+        <v>17.803780598552905</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
@@ -6878,15 +6878,15 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3666169699175539</v>
+        <v>-5.3666169699175565</v>
       </c>
       <c r="F184" s="3">
         <f t="shared" si="17"/>
-        <v>18.803383030082447</v>
+        <v>17.803383030082443</v>
       </c>
       <c r="H184" s="3">
         <f t="shared" si="18"/>
-        <v>18.803383030082447</v>
+        <v>17.803383030082443</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -6903,15 +6903,15 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3666169699175539</v>
+        <v>-5.3666169699175565</v>
       </c>
       <c r="F185" s="3">
         <f t="shared" si="17"/>
-        <v>18.803383030082447</v>
+        <v>17.803383030082443</v>
       </c>
       <c r="H185" s="3">
         <f t="shared" si="18"/>
-        <v>18.803383030082447</v>
+        <v>17.803383030082443</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
@@ -6928,15 +6928,15 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3662194014470934</v>
+        <v>-5.3662194014470961</v>
       </c>
       <c r="F186" s="3">
         <f t="shared" si="17"/>
-        <v>18.803780598552908</v>
+        <v>17.803780598552905</v>
       </c>
       <c r="H186" s="3">
         <f t="shared" si="18"/>
-        <v>18.803780598552908</v>
+        <v>17.803780598552905</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -6953,15 +6953,15 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" si="16"/>
-        <v>-5.365424293958748</v>
+        <v>-5.3654242939587506</v>
       </c>
       <c r="F187" s="3">
         <f t="shared" si="17"/>
-        <v>18.804575706041256</v>
+        <v>17.804575706041252</v>
       </c>
       <c r="H187" s="3">
         <f t="shared" si="18"/>
-        <v>18.804575706041256</v>
+        <v>17.804575706041252</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
@@ -6978,15 +6978,15 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3642317063554845</v>
+        <v>-5.3642317063554872</v>
       </c>
       <c r="F188" s="3">
         <f t="shared" si="17"/>
-        <v>18.805768293644519</v>
+        <v>17.805768293644515</v>
       </c>
       <c r="H188" s="3">
         <f t="shared" si="18"/>
-        <v>18.805768293644519</v>
+        <v>17.805768293644515</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -7003,15 +7003,15 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3626417269863023</v>
+        <v>-5.3626417269863049</v>
       </c>
       <c r="F189" s="3">
         <f t="shared" si="17"/>
-        <v>18.807358273013698</v>
+        <v>17.807358273013698</v>
       </c>
       <c r="H189" s="3">
         <f t="shared" si="18"/>
-        <v>18.807358273013698</v>
+        <v>17.807358273013698</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -7028,15 +7028,15 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3606544736396806</v>
+        <v>-5.3606544736396833</v>
       </c>
       <c r="F190" s="3">
         <f t="shared" si="17"/>
-        <v>18.809345526360321</v>
+        <v>17.809345526360318</v>
       </c>
       <c r="H190" s="3">
         <f t="shared" si="18"/>
-        <v>18.809345526360321</v>
+        <v>17.809345526360318</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -7053,15 +7053,15 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3582700935348617</v>
+        <v>-5.3582700935348644</v>
       </c>
       <c r="F191" s="3">
         <f t="shared" si="17"/>
-        <v>18.811729906465139</v>
+        <v>17.811729906465139</v>
       </c>
       <c r="H191" s="3">
         <f t="shared" si="18"/>
-        <v>18.811729906465139</v>
+        <v>17.811729906465139</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
@@ -7078,15 +7078,15 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3554887633109383</v>
+        <v>-5.3554887633109409</v>
       </c>
       <c r="F192" s="3">
         <f t="shared" si="17"/>
-        <v>18.814511236689064</v>
+        <v>17.814511236689061</v>
       </c>
       <c r="H192" s="3">
         <f t="shared" si="18"/>
-        <v>18.814511236689064</v>
+        <v>17.814511236689061</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3523106890137688</v>
+        <v>-5.3523106890137715</v>
       </c>
       <c r="F193" s="3">
         <f t="shared" si="17"/>
-        <v>18.817689310986232</v>
+        <v>17.817689310986232</v>
       </c>
       <c r="H193" s="3">
         <f t="shared" si="18"/>
-        <v>18.817689310986232</v>
+        <v>17.817689310986232</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
@@ -7128,15 +7128,15 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3487361060807137</v>
+        <v>-5.3487361060807164</v>
       </c>
       <c r="F194" s="3">
         <f t="shared" si="17"/>
-        <v>18.821263893919287</v>
+        <v>17.821263893919287</v>
       </c>
       <c r="H194" s="3">
         <f t="shared" si="18"/>
-        <v>18.821263893919287</v>
+        <v>17.821263893919287</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
@@ -7153,15 +7153,15 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" si="16"/>
-        <v>-5.3447652793231946</v>
+        <v>-5.3447652793231972</v>
       </c>
       <c r="F195" s="3">
         <f t="shared" si="17"/>
-        <v>18.825234720676807</v>
+        <v>17.825234720676804</v>
       </c>
       <c r="H195" s="3">
         <f t="shared" si="18"/>
-        <v>18.825234720676807</v>
+        <v>17.825234720676804</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
@@ -7178,15 +7178,15 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" ref="E196:E259" si="21">D196*$E$2</f>
-        <v>-5.3403985029070773</v>
+        <v>-5.34039850290708</v>
       </c>
       <c r="F196" s="3">
         <f t="shared" ref="F196:F259" si="22">E196+$F$2</f>
-        <v>18.829601497092924</v>
+        <v>17.829601497092924</v>
       </c>
       <c r="H196" s="3">
         <f t="shared" ref="H196:H259" si="23">F196+G196</f>
-        <v>18.829601497092924</v>
+        <v>17.829601497092924</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3356361003308761</v>
+        <v>-5.3356361003308788</v>
       </c>
       <c r="F197" s="3">
         <f t="shared" si="22"/>
-        <v>18.834363899669125</v>
+        <v>17.834363899669121</v>
       </c>
       <c r="H197" s="3">
         <f t="shared" si="23"/>
-        <v>18.834363899669125</v>
+        <v>17.834363899669121</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
@@ -7228,15 +7228,15 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3304784244017904</v>
+        <v>-5.3304784244017931</v>
       </c>
       <c r="F198" s="3">
         <f t="shared" si="22"/>
-        <v>18.839521575598212</v>
+        <v>17.839521575598209</v>
       </c>
       <c r="H198" s="3">
         <f t="shared" si="23"/>
-        <v>18.839521575598212</v>
+        <v>17.839521575598209</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
@@ -7253,15 +7253,15 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3249258572095703</v>
+        <v>-5.324925857209573</v>
       </c>
       <c r="F199" s="3">
         <f t="shared" si="22"/>
-        <v>18.84507414279043</v>
+        <v>17.84507414279043</v>
       </c>
       <c r="H199" s="3">
         <f t="shared" si="23"/>
-        <v>18.84507414279043</v>
+        <v>17.84507414279043</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
@@ -7278,15 +7278,15 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3189788100982076</v>
+        <v>-5.3189788100982103</v>
       </c>
       <c r="F200" s="3">
         <f t="shared" si="22"/>
-        <v>18.851021189901793</v>
+        <v>17.851021189901793</v>
       </c>
       <c r="H200" s="3">
         <f t="shared" si="23"/>
-        <v>18.851021189901793</v>
+        <v>17.851021189901793</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3126377236354614</v>
+        <v>-5.312637723635464</v>
       </c>
       <c r="F201" s="3">
         <f t="shared" si="22"/>
-        <v>18.85736227636454</v>
+        <v>17.857362276364537</v>
       </c>
       <c r="H201" s="3">
         <f t="shared" si="23"/>
-        <v>18.85736227636454</v>
+        <v>17.857362276364537</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
@@ -7328,15 +7328,15 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" si="21"/>
-        <v>-5.3059030675802275</v>
+        <v>-5.3059030675802301</v>
       </c>
       <c r="F202" s="3">
         <f t="shared" si="22"/>
-        <v>18.864096932419773</v>
+        <v>17.86409693241977</v>
       </c>
       <c r="H202" s="3">
         <f t="shared" si="23"/>
-        <v>18.864096932419773</v>
+        <v>17.86409693241977</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
@@ -7353,15 +7353,15 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2987753408477278</v>
+        <v>-5.2987753408477305</v>
       </c>
       <c r="F203" s="3">
         <f t="shared" si="22"/>
-        <v>18.871224659152276</v>
+        <v>17.871224659152272</v>
       </c>
       <c r="H203" s="3">
         <f t="shared" si="23"/>
-        <v>18.871224659152276</v>
+        <v>17.871224659152272</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
@@ -7378,15 +7378,15 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2912550714725572</v>
+        <v>-5.2912550714725599</v>
       </c>
       <c r="F204" s="3">
         <f t="shared" si="22"/>
-        <v>18.878744928527446</v>
+        <v>17.878744928527443</v>
       </c>
       <c r="H204" s="3">
         <f t="shared" si="23"/>
-        <v>18.878744928527446</v>
+        <v>17.878744928527443</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -7403,15 +7403,15 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2833428165695624</v>
+        <v>-5.2833428165695651</v>
       </c>
       <c r="F205" s="3">
         <f t="shared" si="22"/>
-        <v>18.88665718343044</v>
+        <v>17.886657183430437</v>
       </c>
       <c r="H205" s="3">
         <f t="shared" si="23"/>
-        <v>18.88665718343044</v>
+        <v>17.886657183430437</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
@@ -7428,15 +7428,15 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2750391622925719</v>
+        <v>-5.2750391622925745</v>
       </c>
       <c r="F206" s="3">
         <f t="shared" si="22"/>
-        <v>18.89496083770743</v>
+        <v>17.894960837707426</v>
       </c>
       <c r="H206" s="3">
         <f t="shared" si="23"/>
-        <v>18.89496083770743</v>
+        <v>17.894960837707426</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
@@ -7453,15 +7453,15 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2663447237909704</v>
+        <v>-5.2663447237909731</v>
       </c>
       <c r="F207" s="3">
         <f t="shared" si="22"/>
-        <v>18.90365527620903</v>
+        <v>17.90365527620903</v>
       </c>
       <c r="H207" s="3">
         <f t="shared" si="23"/>
-        <v>18.90365527620903</v>
+        <v>17.90365527620903</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
@@ -7478,15 +7478,15 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2572601451641301</v>
+        <v>-5.2572601451641328</v>
       </c>
       <c r="F208" s="3">
         <f t="shared" si="22"/>
-        <v>18.91273985483587</v>
+        <v>17.91273985483587</v>
       </c>
       <c r="H208" s="3">
         <f t="shared" si="23"/>
-        <v>18.91273985483587</v>
+        <v>17.91273985483587</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
@@ -7503,15 +7503,15 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" si="21"/>
-        <v>-5.247786099413692</v>
+        <v>-5.2477860994136947</v>
       </c>
       <c r="F209" s="3">
         <f t="shared" si="22"/>
-        <v>18.922213900586311</v>
+        <v>17.922213900586307</v>
       </c>
       <c r="H209" s="3">
         <f t="shared" si="23"/>
-        <v>18.922213900586311</v>
+        <v>17.922213900586307</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
@@ -7528,15 +7528,15 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2379232883937101</v>
+        <v>-5.2379232883937128</v>
       </c>
       <c r="F210" s="3">
         <f t="shared" si="22"/>
-        <v>18.932076711606292</v>
+        <v>17.932076711606289</v>
       </c>
       <c r="H210" s="3">
         <f t="shared" si="23"/>
-        <v>18.932076711606292</v>
+        <v>17.932076711606289</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
@@ -7553,15 +7553,15 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2276724427586574</v>
+        <v>-5.2276724427586601</v>
       </c>
       <c r="F211" s="3">
         <f t="shared" si="22"/>
-        <v>18.942327557241345</v>
+        <v>17.942327557241342</v>
       </c>
       <c r="H211" s="3">
         <f t="shared" si="23"/>
-        <v>18.942327557241345</v>
+        <v>17.942327557241342</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
@@ -7578,15 +7578,15 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2170343219092965</v>
+        <v>-5.2170343219092983</v>
       </c>
       <c r="F212" s="3">
         <f t="shared" si="22"/>
-        <v>18.952965678090706</v>
+        <v>17.952965678090703</v>
       </c>
       <c r="H212" s="3">
         <f t="shared" si="23"/>
-        <v>18.952965678090706</v>
+        <v>17.952965678090703</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
@@ -7603,15 +7603,15 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" si="21"/>
-        <v>-5.2060097139364219</v>
+        <v>-5.2060097139364245</v>
       </c>
       <c r="F213" s="3">
         <f t="shared" si="22"/>
-        <v>18.963990286063581</v>
+        <v>17.963990286063577</v>
       </c>
       <c r="H213" s="3">
         <f t="shared" si="23"/>
-        <v>18.963990286063581</v>
+        <v>17.963990286063577</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
@@ -7628,15 +7628,15 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1945994355624787</v>
+        <v>-5.1945994355624805</v>
       </c>
       <c r="F214" s="3">
         <f t="shared" si="22"/>
-        <v>18.975400564437521</v>
+        <v>17.975400564437521</v>
       </c>
       <c r="H214" s="3">
         <f t="shared" si="23"/>
-        <v>18.975400564437521</v>
+        <v>17.975400564437521</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
@@ -7653,15 +7653,15 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1828043320810551</v>
+        <v>-5.1828043320810577</v>
       </c>
       <c r="F215" s="3">
         <f t="shared" si="22"/>
-        <v>18.987195667918947</v>
+        <v>17.987195667918943</v>
       </c>
       <c r="H215" s="3">
         <f t="shared" si="23"/>
-        <v>18.987195667918947</v>
+        <v>17.987195667918943</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
@@ -7678,15 +7678,15 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" si="21"/>
-        <v>-5.170625277294266</v>
+        <v>-5.1706252772942687</v>
       </c>
       <c r="F216" s="3">
         <f t="shared" si="22"/>
-        <v>18.999374722705735</v>
+        <v>17.999374722705731</v>
       </c>
       <c r="H216" s="3">
         <f t="shared" si="23"/>
-        <v>18.999374722705735</v>
+        <v>17.999374722705731</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
@@ -7703,15 +7703,15 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1580631734480145</v>
+        <v>-5.1580631734480171</v>
       </c>
       <c r="F217" s="3">
         <f t="shared" si="22"/>
-        <v>19.011936826551988</v>
+        <v>18.011936826551985</v>
       </c>
       <c r="H217" s="3">
         <f t="shared" si="23"/>
-        <v>19.011936826551988</v>
+        <v>18.011936826551985</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
@@ -7728,15 +7728,15 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1451189511651583</v>
+        <v>-5.14511895116516</v>
       </c>
       <c r="F218" s="3">
         <f t="shared" si="22"/>
-        <v>19.024881048834843</v>
+        <v>18.024881048834843</v>
       </c>
       <c r="H218" s="3">
         <f t="shared" si="23"/>
-        <v>19.024881048834843</v>
+        <v>18.024881048834843</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
@@ -7753,15 +7753,15 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1317935693765602</v>
+        <v>-5.1317935693765628</v>
       </c>
       <c r="F219" s="3">
         <f t="shared" si="22"/>
-        <v>19.03820643062344</v>
+        <v>18.03820643062344</v>
       </c>
       <c r="H219" s="3">
         <f t="shared" si="23"/>
-        <v>19.03820643062344</v>
+        <v>18.03820643062344</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
@@ -7778,15 +7778,15 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1180880152500583</v>
+        <v>-5.118088015250061</v>
       </c>
       <c r="F220" s="3">
         <f t="shared" si="22"/>
-        <v>19.051911984749943</v>
+        <v>18.051911984749943</v>
       </c>
       <c r="H220" s="3">
         <f t="shared" si="23"/>
-        <v>19.051911984749943</v>
+        <v>18.051911984749943</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
@@ -7803,15 +7803,15 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" si="21"/>
-        <v>-5.1040033041173247</v>
+        <v>-5.1040033041173274</v>
       </c>
       <c r="F221" s="3">
         <f t="shared" si="22"/>
-        <v>19.065996695882678</v>
+        <v>18.065996695882674</v>
       </c>
       <c r="H221" s="3">
         <f t="shared" si="23"/>
-        <v>19.065996695882678</v>
+        <v>18.065996695882674</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
@@ -7828,15 +7828,15 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0895404793986545</v>
+        <v>-5.0895404793986572</v>
       </c>
       <c r="F222" s="3">
         <f t="shared" si="22"/>
-        <v>19.080459520601348</v>
+        <v>18.080459520601345</v>
       </c>
       <c r="H222" s="3">
         <f t="shared" si="23"/>
-        <v>19.080459520601348</v>
+        <v>18.080459520601345</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
@@ -7853,15 +7853,15 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0747006125256657</v>
+        <v>-5.0747006125256684</v>
       </c>
       <c r="F223" s="3">
         <f t="shared" si="22"/>
-        <v>19.095299387474334</v>
+        <v>18.095299387474334</v>
       </c>
       <c r="H223" s="3">
         <f t="shared" si="23"/>
-        <v>19.095299387474334</v>
+        <v>18.095299387474334</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
@@ -7878,15 +7878,15 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0594848028619248</v>
+        <v>-5.0594848028619275</v>
       </c>
       <c r="F224" s="3">
         <f t="shared" si="22"/>
-        <v>19.110515197138078</v>
+        <v>18.110515197138074</v>
       </c>
       <c r="H224" s="3">
         <f t="shared" si="23"/>
-        <v>19.110515197138078</v>
+        <v>18.110515197138074</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
@@ -7903,15 +7903,15 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0438941776215067</v>
+        <v>-5.0438941776215094</v>
       </c>
       <c r="F225" s="3">
         <f t="shared" si="22"/>
-        <v>19.126105822378495</v>
+        <v>18.126105822378491</v>
       </c>
       <c r="H225" s="3">
         <f t="shared" si="23"/>
-        <v>19.126105822378495</v>
+        <v>18.126105822378491</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
@@ -7928,15 +7928,15 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0279298917854831</v>
+        <v>-5.0279298917854858</v>
       </c>
       <c r="F226" s="3">
         <f t="shared" si="22"/>
-        <v>19.142070108214519</v>
+        <v>18.142070108214515</v>
       </c>
       <c r="H226" s="3">
         <f t="shared" si="23"/>
-        <v>19.142070108214519</v>
+        <v>18.142070108214515</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
@@ -7953,15 +7953,15 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" si="21"/>
-        <v>-5.0115931280163659</v>
+        <v>-5.0115931280163677</v>
       </c>
       <c r="F227" s="3">
         <f t="shared" si="22"/>
-        <v>19.158406871983637</v>
+        <v>18.158406871983633</v>
       </c>
       <c r="H227" s="3">
         <f t="shared" si="23"/>
-        <v>19.158406871983637</v>
+        <v>18.158406871983633</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
@@ -7978,15 +7978,15 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" si="21"/>
-        <v>-4.9948850965704894</v>
+        <v>-4.9948850965704921</v>
       </c>
       <c r="F228" s="3">
         <f t="shared" si="22"/>
-        <v>19.175114903429513</v>
+        <v>18.17511490342951</v>
       </c>
       <c r="H228" s="3">
         <f t="shared" si="23"/>
-        <v>19.175114903429513</v>
+        <v>18.17511490342951</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
@@ -8003,15 +8003,15 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" si="21"/>
-        <v>-4.9778070352083557</v>
+        <v>-4.9778070352083583</v>
       </c>
       <c r="F229" s="3">
         <f t="shared" si="22"/>
-        <v>19.192192964791644</v>
+        <v>18.192192964791644</v>
       </c>
       <c r="H229" s="3">
         <f t="shared" si="23"/>
-        <v>19.192192964791644</v>
+        <v>18.192192964791644</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
@@ -8028,15 +8028,15 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" si="21"/>
-        <v>-4.9603602091029346</v>
+        <v>-4.9603602091029364</v>
       </c>
       <c r="F230" s="3">
         <f t="shared" si="22"/>
-        <v>19.209639790897068</v>
+        <v>18.209639790897064</v>
       </c>
       <c r="H230" s="3">
         <f t="shared" si="23"/>
-        <v>19.209639790897068</v>
+        <v>18.209639790897064</v>
       </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
@@ -8053,15 +8053,15 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" si="21"/>
-        <v>-4.94254591074594</v>
+        <v>-4.9425459107459417</v>
       </c>
       <c r="F231" s="3">
         <f t="shared" si="22"/>
-        <v>19.22745408925406</v>
+        <v>18.22745408925406</v>
       </c>
       <c r="H231" s="3">
         <f t="shared" si="23"/>
-        <v>19.22745408925406</v>
+        <v>18.22745408925406</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
@@ -8078,15 +8078,15 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" si="21"/>
-        <v>-4.9243654598520807</v>
+        <v>-4.9243654598520834</v>
       </c>
       <c r="F232" s="3">
         <f t="shared" si="22"/>
-        <v>19.245634540147922</v>
+        <v>18.245634540147918</v>
       </c>
       <c r="H232" s="3">
         <f t="shared" si="23"/>
-        <v>19.245634540147922</v>
+        <v>18.245634540147918</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
@@ -8103,15 +8103,15 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" si="21"/>
-        <v>-4.9058202032612925</v>
+        <v>-4.9058202032612952</v>
       </c>
       <c r="F233" s="3">
         <f t="shared" si="22"/>
-        <v>19.264179796738709</v>
+        <v>18.264179796738706</v>
       </c>
       <c r="H233" s="3">
         <f t="shared" si="23"/>
-        <v>19.264179796738709</v>
+        <v>18.264179796738706</v>
       </c>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
@@ -8128,15 +8128,15 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" si="21"/>
-        <v>-4.8869115148389612</v>
+        <v>-4.8869115148389639</v>
       </c>
       <c r="F234" s="3">
         <f t="shared" si="22"/>
-        <v>19.283088485161041</v>
+        <v>18.283088485161038</v>
       </c>
       <c r="H234" s="3">
         <f t="shared" si="23"/>
-        <v>19.283088485161041</v>
+        <v>18.283088485161038</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
@@ -8153,15 +8153,15 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" si="21"/>
-        <v>-4.8676407953741458</v>
+        <v>-4.8676407953741485</v>
       </c>
       <c r="F235" s="3">
         <f t="shared" si="22"/>
-        <v>19.302359204625855</v>
+        <v>18.302359204625851</v>
       </c>
       <c r="H235" s="3">
         <f t="shared" si="23"/>
-        <v>19.302359204625855</v>
+        <v>18.302359204625851</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
@@ -8178,15 +8178,15 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" si="21"/>
-        <v>-4.8480094724758072</v>
+        <v>-4.8480094724758098</v>
       </c>
       <c r="F236" s="3">
         <f t="shared" si="22"/>
-        <v>19.321990527524193</v>
+        <v>18.321990527524193</v>
       </c>
       <c r="H236" s="3">
         <f t="shared" si="23"/>
-        <v>19.321990527524193</v>
+        <v>18.321990527524193</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
@@ -8203,15 +8203,15 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" si="21"/>
-        <v>-4.82801900046704</v>
+        <v>-4.8280190004670418</v>
       </c>
       <c r="F237" s="3">
         <f t="shared" si="22"/>
-        <v>19.341980999532961</v>
+        <v>18.341980999532961</v>
       </c>
       <c r="H237" s="3">
         <f t="shared" si="23"/>
-        <v>19.341980999532961</v>
+        <v>18.341980999532961</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
@@ -8228,15 +8228,15 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" si="21"/>
-        <v>-4.8076708602773452</v>
+        <v>-4.8076708602773479</v>
       </c>
       <c r="F238" s="3">
         <f t="shared" si="22"/>
-        <v>19.362329139722657</v>
+        <v>18.362329139722654</v>
       </c>
       <c r="H238" s="3">
         <f t="shared" si="23"/>
-        <v>19.362329139722657</v>
+        <v>18.362329139722654</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
@@ -8253,18 +8253,18 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" si="21"/>
-        <v>-4.7869665593329112</v>
+        <v>-4.7869665593329129</v>
       </c>
       <c r="F239" s="3">
         <f t="shared" si="22"/>
-        <v>19.383033440667091</v>
+        <v>18.383033440667088</v>
       </c>
       <c r="G239" s="2">
         <v>1</v>
       </c>
       <c r="H239" s="3">
         <f t="shared" si="23"/>
-        <v>20.383033440667091</v>
+        <v>19.383033440667088</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
@@ -8281,18 +8281,18 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" si="21"/>
-        <v>-4.7659076314449473</v>
+        <v>-4.76590763144495</v>
       </c>
       <c r="F240" s="3">
         <f t="shared" si="22"/>
-        <v>19.404092368555055</v>
+        <v>18.404092368555052</v>
       </c>
       <c r="G240" s="2">
         <v>1</v>
       </c>
       <c r="H240" s="3">
         <f t="shared" si="23"/>
-        <v>20.404092368555055</v>
+        <v>19.404092368555052</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -8309,18 +8309,18 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" si="21"/>
-        <v>-4.744495636696052</v>
+        <v>-4.7444956366960547</v>
       </c>
       <c r="F241" s="3">
         <f t="shared" si="22"/>
-        <v>19.425504363303951</v>
+        <v>18.425504363303947</v>
       </c>
       <c r="G241" s="2">
         <v>1</v>
       </c>
       <c r="H241" s="3">
         <f t="shared" si="23"/>
-        <v>20.425504363303951</v>
+        <v>19.425504363303947</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -8337,18 +8337,18 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" si="21"/>
-        <v>-4.7227321613246422</v>
+        <v>-4.7227321613246449</v>
       </c>
       <c r="F242" s="3">
         <f t="shared" si="22"/>
-        <v>19.447267838675359</v>
+        <v>18.447267838675359</v>
       </c>
       <c r="G242" s="2">
         <v>1</v>
       </c>
       <c r="H242" s="3">
         <f t="shared" si="23"/>
-        <v>20.447267838675359</v>
+        <v>19.447267838675359</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
@@ -8365,18 +8365,18 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" si="21"/>
-        <v>-4.7006188176074382</v>
+        <v>-4.7006188176074408</v>
       </c>
       <c r="F243" s="3">
         <f t="shared" si="22"/>
-        <v>19.469381182392564</v>
+        <v>18.46938118239256</v>
       </c>
       <c r="G243" s="2">
         <v>1</v>
       </c>
       <c r="H243" s="3">
         <f t="shared" si="23"/>
-        <v>20.469381182392564</v>
+        <v>19.46938118239256</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
@@ -8393,18 +8393,18 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" si="21"/>
-        <v>-4.6781572437400278</v>
+        <v>-4.6781572437400305</v>
       </c>
       <c r="F244" s="3">
         <f t="shared" si="22"/>
-        <v>19.491842756259974</v>
+        <v>18.49184275625997</v>
       </c>
       <c r="G244" s="2">
         <v>1</v>
       </c>
       <c r="H244" s="3">
         <f t="shared" si="23"/>
-        <v>20.491842756259974</v>
+        <v>19.49184275625997</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
@@ -8421,18 +8421,18 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" si="21"/>
-        <v>-4.655349103715503</v>
+        <v>-4.6553491037155057</v>
       </c>
       <c r="F245" s="3">
         <f t="shared" si="22"/>
-        <v>19.5146508962845</v>
+        <v>18.514650896284497</v>
       </c>
       <c r="G245" s="2">
         <v>1</v>
       </c>
       <c r="H245" s="3">
         <f t="shared" si="23"/>
-        <v>20.5146508962845</v>
+        <v>19.514650896284497</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
@@ -8449,18 +8449,18 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" si="21"/>
-        <v>-4.6321960872011916</v>
+        <v>-4.6321960872011942</v>
       </c>
       <c r="F246" s="3">
         <f t="shared" si="22"/>
-        <v>19.537803912798811</v>
+        <v>18.537803912798807</v>
       </c>
       <c r="G246" s="2">
         <v>1</v>
       </c>
       <c r="H246" s="3">
         <f t="shared" si="23"/>
-        <v>20.537803912798811</v>
+        <v>19.537803912798807</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
@@ -8477,18 +8477,18 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" si="21"/>
-        <v>-4.6086999094134766</v>
+        <v>-4.6086999094134784</v>
       </c>
       <c r="F247" s="3">
         <f t="shared" si="22"/>
-        <v>19.561300090586524</v>
+        <v>18.561300090586524</v>
       </c>
       <c r="G247" s="2">
         <v>1</v>
       </c>
       <c r="H247" s="3">
         <f t="shared" si="23"/>
-        <v>20.561300090586524</v>
+        <v>19.561300090586524</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
@@ -8505,18 +8505,18 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" si="21"/>
-        <v>-4.5848623109907383</v>
+        <v>-4.5848623109907409</v>
       </c>
       <c r="F248" s="3">
         <f t="shared" si="22"/>
-        <v>19.585137689009265</v>
+        <v>18.585137689009262</v>
       </c>
       <c r="G248" s="2">
         <v>1</v>
       </c>
       <c r="H248" s="3">
         <f t="shared" si="23"/>
-        <v>20.585137689009265</v>
+        <v>19.585137689009262</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
@@ -8533,18 +8533,18 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" si="21"/>
-        <v>-4.5606850578644007</v>
+        <v>-4.5606850578644025</v>
       </c>
       <c r="F249" s="3">
         <f t="shared" si="22"/>
-        <v>19.609314942135601</v>
+        <v>18.609314942135597</v>
       </c>
       <c r="G249" s="2">
         <v>1</v>
       </c>
       <c r="H249" s="3">
         <f t="shared" si="23"/>
-        <v>20.609314942135601</v>
+        <v>19.609314942135597</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
@@ -8561,18 +8561,18 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" si="21"/>
-        <v>-4.5361699411281071</v>
+        <v>-4.5361699411281089</v>
       </c>
       <c r="F250" s="3">
         <f t="shared" si="22"/>
-        <v>19.633830058871894</v>
+        <v>18.633830058871894</v>
       </c>
       <c r="G250" s="2">
         <v>1</v>
       </c>
       <c r="H250" s="3">
         <f t="shared" si="23"/>
-        <v>20.633830058871894</v>
+        <v>19.633830058871894</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
@@ -8589,18 +8589,18 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" si="21"/>
-        <v>-4.5113187769050338</v>
+        <v>-4.5113187769050356</v>
       </c>
       <c r="F251" s="3">
         <f t="shared" si="22"/>
-        <v>19.658681223094966</v>
+        <v>18.658681223094966</v>
       </c>
       <c r="G251" s="2">
         <v>1</v>
       </c>
       <c r="H251" s="3">
         <f t="shared" si="23"/>
-        <v>20.658681223094966</v>
+        <v>19.658681223094966</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
@@ -8617,18 +8617,18 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" si="21"/>
-        <v>-4.4861334062133533</v>
+        <v>-4.4861334062133551</v>
       </c>
       <c r="F252" s="3">
         <f t="shared" si="22"/>
-        <v>19.683866593786647</v>
+        <v>18.683866593786647</v>
       </c>
       <c r="G252" s="2">
         <v>1</v>
       </c>
       <c r="H252" s="3">
         <f t="shared" si="23"/>
-        <v>20.683866593786647</v>
+        <v>19.683866593786647</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
@@ -8645,18 +8645,18 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" si="21"/>
-        <v>-4.460615694829837</v>
+        <v>-4.4606156948298397</v>
       </c>
       <c r="F253" s="3">
         <f t="shared" si="22"/>
-        <v>19.709384305170165</v>
+        <v>18.709384305170161</v>
       </c>
       <c r="G253" s="2">
         <v>1</v>
       </c>
       <c r="H253" s="3">
         <f t="shared" si="23"/>
-        <v>20.709384305170165</v>
+        <v>19.709384305170161</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
@@ -8673,18 +8673,18 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" si="21"/>
-        <v>-4.4347675331516481</v>
+        <v>-4.4347675331516507</v>
       </c>
       <c r="F254" s="3">
         <f t="shared" si="22"/>
-        <v>19.735232466848352</v>
+        <v>18.735232466848352</v>
       </c>
       <c r="G254" s="2">
         <v>1</v>
       </c>
       <c r="H254" s="3">
         <f t="shared" si="23"/>
-        <v>20.735232466848352</v>
+        <v>19.735232466848352</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
@@ -8701,18 +8701,18 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" si="21"/>
-        <v>-4.4085908360562902</v>
+        <v>-4.408590836056292</v>
       </c>
       <c r="F255" s="3">
         <f t="shared" si="22"/>
-        <v>19.761409163943711</v>
+        <v>18.761409163943711</v>
       </c>
       <c r="G255" s="2">
         <v>1</v>
       </c>
       <c r="H255" s="3">
         <f t="shared" si="23"/>
-        <v>20.761409163943711</v>
+        <v>19.761409163943711</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
@@ -8729,18 +8729,18 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" si="21"/>
-        <v>-4.3820875427597503</v>
+        <v>-4.3820875427597521</v>
       </c>
       <c r="F256" s="3">
         <f t="shared" si="22"/>
-        <v>19.787912457240253</v>
+        <v>18.78791245724025</v>
       </c>
       <c r="G256" s="2">
         <v>1</v>
       </c>
       <c r="H256" s="3">
         <f t="shared" si="23"/>
-        <v>20.787912457240253</v>
+        <v>19.78791245724025</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
@@ -8757,18 +8757,18 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" si="21"/>
-        <v>-4.3552596166728375</v>
+        <v>-4.3552596166728401</v>
       </c>
       <c r="F257" s="3">
         <f t="shared" si="22"/>
-        <v>19.814740383327162</v>
+        <v>18.814740383327162</v>
       </c>
       <c r="G257" s="2">
         <v>1</v>
       </c>
       <c r="H257" s="3">
         <f t="shared" si="23"/>
-        <v>20.814740383327162</v>
+        <v>19.814740383327162</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
@@ -8785,18 +8785,18 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" si="21"/>
-        <v>-4.3281090452557374</v>
+        <v>-4.3281090452557391</v>
       </c>
       <c r="F258" s="3">
         <f t="shared" si="22"/>
-        <v>19.841890954744265</v>
+        <v>18.841890954744262</v>
       </c>
       <c r="G258" s="2">
         <v>1</v>
       </c>
       <c r="H258" s="3">
         <f t="shared" si="23"/>
-        <v>20.841890954744265</v>
+        <v>19.841890954744262</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
@@ -8813,18 +8813,18 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" si="21"/>
-        <v>-4.3006378398707641</v>
+        <v>-4.3006378398707668</v>
       </c>
       <c r="F259" s="3">
         <f t="shared" si="22"/>
-        <v>19.869362160129239</v>
+        <v>18.869362160129235</v>
       </c>
       <c r="G259" s="2">
         <v>1</v>
       </c>
       <c r="H259" s="3">
         <f t="shared" si="23"/>
-        <v>20.869362160129239</v>
+        <v>19.869362160129235</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
@@ -8841,18 +8841,18 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" ref="E260:E323" si="26">D260*$E$2</f>
-        <v>-4.2728480356333716</v>
+        <v>-4.2728480356333742</v>
       </c>
       <c r="F260" s="3">
         <f t="shared" ref="F260:F323" si="27">E260+$F$2</f>
-        <v>19.897151964366628</v>
+        <v>18.897151964366628</v>
       </c>
       <c r="G260" s="2">
         <v>1</v>
       </c>
       <c r="H260" s="3">
         <f t="shared" ref="H260:H323" si="28">F260+G260</f>
-        <v>20.897151964366628</v>
+        <v>19.897151964366628</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
@@ -8869,18 +8869,18 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" si="26"/>
-        <v>-4.244741691261372</v>
+        <v>-4.2447416912613738</v>
       </c>
       <c r="F261" s="3">
         <f t="shared" si="27"/>
-        <v>19.925258308738631</v>
+        <v>18.925258308738627</v>
       </c>
       <c r="G261" s="2">
         <v>1</v>
       </c>
       <c r="H261" s="3">
         <f t="shared" si="28"/>
-        <v>20.925258308738631</v>
+        <v>19.925258308738627</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
@@ -8897,18 +8897,18 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" si="26"/>
-        <v>-4.2163208889224357</v>
+        <v>-4.2163208889224375</v>
       </c>
       <c r="F262" s="3">
         <f t="shared" si="27"/>
-        <v>19.953679111077566</v>
+        <v>18.953679111077562</v>
       </c>
       <c r="G262" s="2">
         <v>1</v>
       </c>
       <c r="H262" s="3">
         <f t="shared" si="28"/>
-        <v>20.953679111077566</v>
+        <v>19.953679111077562</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
@@ -8925,18 +8925,18 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" si="26"/>
-        <v>-4.1875877340798278</v>
+        <v>-4.1875877340798304</v>
       </c>
       <c r="F263" s="3">
         <f t="shared" si="27"/>
-        <v>19.982412265920175</v>
+        <v>18.982412265920171</v>
       </c>
       <c r="G263" s="2">
         <v>1</v>
       </c>
       <c r="H263" s="3">
         <f t="shared" si="28"/>
-        <v>20.982412265920175</v>
+        <v>19.982412265920171</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
@@ -8953,18 +8953,18 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" si="26"/>
-        <v>-4.1585443553364518</v>
+        <v>-4.1585443553364545</v>
       </c>
       <c r="F264" s="3">
         <f t="shared" si="27"/>
-        <v>20.011455644663549</v>
+        <v>19.011455644663549</v>
       </c>
       <c r="G264" s="2">
         <v>1</v>
       </c>
       <c r="H264" s="3">
         <f t="shared" si="28"/>
-        <v>21.011455644663549</v>
+        <v>20.011455644663549</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
@@ -8981,18 +8981,18 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" si="26"/>
-        <v>-4.1291929042771329</v>
+        <v>-4.1291929042771356</v>
       </c>
       <c r="F265" s="3">
         <f t="shared" si="27"/>
-        <v>20.040807095722869</v>
+        <v>19.040807095722865</v>
       </c>
       <c r="G265" s="2">
         <v>1</v>
       </c>
       <c r="H265" s="3">
         <f t="shared" si="28"/>
-        <v>21.040807095722869</v>
+        <v>20.040807095722865</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
@@ -9009,18 +9009,18 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" si="26"/>
-        <v>-4.099535555309247</v>
+        <v>-4.0995355553092487</v>
       </c>
       <c r="F266" s="3">
         <f t="shared" si="27"/>
-        <v>20.070464444690757</v>
+        <v>19.070464444690753</v>
       </c>
       <c r="G266" s="2">
         <v>1</v>
       </c>
       <c r="H266" s="3">
         <f t="shared" si="28"/>
-        <v>21.070464444690757</v>
+        <v>20.070464444690753</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
@@ -9037,18 +9037,18 @@
       </c>
       <c r="E267" s="3">
         <f t="shared" si="26"/>
-        <v>-4.0695745055016195</v>
+        <v>-4.0695745055016213</v>
       </c>
       <c r="F267" s="3">
         <f t="shared" si="27"/>
-        <v>20.100425494498381</v>
+        <v>19.100425494498381</v>
       </c>
       <c r="G267" s="2">
         <v>1</v>
       </c>
       <c r="H267" s="3">
         <f t="shared" si="28"/>
-        <v>21.100425494498381</v>
+        <v>20.100425494498381</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
@@ -9065,18 +9065,18 @@
       </c>
       <c r="E268" s="3">
         <f t="shared" si="26"/>
-        <v>-4.0393119744217785</v>
+        <v>-4.0393119744217811</v>
       </c>
       <c r="F268" s="3">
         <f t="shared" si="27"/>
-        <v>20.130688025578223</v>
+        <v>19.13068802557822</v>
       </c>
       <c r="G268" s="2">
         <v>1</v>
       </c>
       <c r="H268" s="3">
         <f t="shared" si="28"/>
-        <v>21.130688025578223</v>
+        <v>20.13068802557822</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
@@ -9093,18 +9093,18 @@
       </c>
       <c r="E269" s="3">
         <f t="shared" si="26"/>
-        <v>-4.0087502039715135</v>
+        <v>-4.0087502039715162</v>
       </c>
       <c r="F269" s="3">
         <f t="shared" si="27"/>
-        <v>20.161249796028489</v>
+        <v>19.161249796028486</v>
       </c>
       <c r="G269" s="2">
         <v>1</v>
       </c>
       <c r="H269" s="3">
         <f t="shared" si="28"/>
-        <v>21.161249796028489</v>
+        <v>20.161249796028486</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
@@ -9121,18 +9121,18 @@
       </c>
       <c r="E270" s="3">
         <f t="shared" si="26"/>
-        <v>-3.9778914582207987</v>
+        <v>-3.9778914582208005</v>
       </c>
       <c r="F270" s="3">
         <f t="shared" si="27"/>
-        <v>20.192108541779202</v>
+        <v>19.192108541779202</v>
       </c>
       <c r="G270" s="2">
         <v>1</v>
       </c>
       <c r="H270" s="3">
         <f t="shared" si="28"/>
-        <v>21.192108541779202</v>
+        <v>20.192108541779202</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
@@ -9149,18 +9149,18 @@
       </c>
       <c r="E271" s="3">
         <f t="shared" si="26"/>
-        <v>-3.9467380232400568</v>
+        <v>-3.9467380232400591</v>
       </c>
       <c r="F271" s="3">
         <f t="shared" si="27"/>
-        <v>20.223261976759943</v>
+        <v>19.223261976759943</v>
       </c>
       <c r="G271" s="2">
         <v>1</v>
       </c>
       <c r="H271" s="3">
         <f t="shared" si="28"/>
-        <v>21.223261976759943</v>
+        <v>20.223261976759943</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.25">
@@ -9177,18 +9177,18 @@
       </c>
       <c r="E272" s="3">
         <f t="shared" si="26"/>
-        <v>-3.9152922069308183</v>
+        <v>-3.91529220693082</v>
       </c>
       <c r="F272" s="3">
         <f t="shared" si="27"/>
-        <v>20.254707793069183</v>
+        <v>19.25470779306918</v>
       </c>
       <c r="G272" s="2">
         <v>1</v>
       </c>
       <c r="H272" s="3">
         <f t="shared" si="28"/>
-        <v>21.254707793069183</v>
+        <v>20.25470779306918</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
@@ -9205,18 +9205,18 @@
       </c>
       <c r="E273" s="3">
         <f t="shared" si="26"/>
-        <v>-3.8835563388547296</v>
+        <v>-3.8835563388547314</v>
       </c>
       <c r="F273" s="3">
         <f t="shared" si="27"/>
-        <v>20.28644366114527</v>
+        <v>19.28644366114527</v>
       </c>
       <c r="G273" s="2">
         <v>1</v>
       </c>
       <c r="H273" s="3">
         <f t="shared" si="28"/>
-        <v>21.28644366114527</v>
+        <v>20.28644366114527</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
@@ -9233,18 +9233,18 @@
       </c>
       <c r="E274" s="3">
         <f t="shared" si="26"/>
-        <v>-3.8515327700609965</v>
+        <v>-3.8515327700609983</v>
       </c>
       <c r="F274" s="3">
         <f t="shared" si="27"/>
-        <v>20.318467229939007</v>
+        <v>19.318467229939003</v>
       </c>
       <c r="G274" s="2">
         <v>1</v>
       </c>
       <c r="H274" s="3">
         <f t="shared" si="28"/>
-        <v>21.318467229939007</v>
+        <v>20.318467229939003</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
@@ -9261,18 +9261,18 @@
       </c>
       <c r="E275" s="3">
         <f t="shared" si="26"/>
-        <v>-3.819223872912191</v>
+        <v>-3.8192238729121928</v>
       </c>
       <c r="F275" s="3">
         <f t="shared" si="27"/>
-        <v>20.350776127087812</v>
+        <v>19.350776127087808</v>
       </c>
       <c r="G275" s="2">
         <v>1</v>
       </c>
       <c r="H275" s="3">
         <f t="shared" si="28"/>
-        <v>21.350776127087812</v>
+        <v>20.350776127087808</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
@@ -9289,18 +9289,18 @@
       </c>
       <c r="E276" s="3">
         <f t="shared" si="26"/>
-        <v>-3.7866320409085219</v>
+        <v>-3.7866320409085241</v>
       </c>
       <c r="F276" s="3">
         <f t="shared" si="27"/>
-        <v>20.38336795909148</v>
+        <v>19.383367959091476</v>
       </c>
       <c r="G276" s="2">
         <v>1</v>
       </c>
       <c r="H276" s="3">
         <f t="shared" si="28"/>
-        <v>21.38336795909148</v>
+        <v>20.383367959091476</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
@@ -9317,18 +9317,18 @@
       </c>
       <c r="E277" s="3">
         <f t="shared" si="26"/>
-        <v>-3.7537596885105065</v>
+        <v>-3.7537596885105082</v>
       </c>
       <c r="F277" s="3">
         <f t="shared" si="27"/>
-        <v>20.416240311489496</v>
+        <v>19.416240311489492</v>
       </c>
       <c r="G277" s="2">
         <v>1</v>
       </c>
       <c r="H277" s="3">
         <f t="shared" si="28"/>
-        <v>21.416240311489496</v>
+        <v>20.416240311489492</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
@@ -9345,18 +9345,18 @@
       </c>
       <c r="E278" s="3">
         <f t="shared" si="26"/>
-        <v>-3.7206092509601141</v>
+        <v>-3.7206092509601159</v>
       </c>
       <c r="F278" s="3">
         <f t="shared" si="27"/>
-        <v>20.449390749039889</v>
+        <v>19.449390749039885</v>
       </c>
       <c r="G278" s="2">
         <v>1</v>
       </c>
       <c r="H278" s="3">
         <f t="shared" si="28"/>
-        <v>21.449390749039889</v>
+        <v>20.449390749039885</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
@@ -9373,18 +9373,18 @@
       </c>
       <c r="E279" s="3">
         <f t="shared" si="26"/>
-        <v>-3.6871831841003475</v>
+        <v>-3.6871831841003493</v>
       </c>
       <c r="F279" s="3">
         <f t="shared" si="27"/>
-        <v>20.482816815899653</v>
+        <v>19.482816815899653</v>
       </c>
       <c r="G279" s="2">
         <v>1</v>
       </c>
       <c r="H279" s="3">
         <f t="shared" si="28"/>
-        <v>21.482816815899653</v>
+        <v>20.482816815899653</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
@@ -9401,18 +9401,18 @@
       </c>
       <c r="E280" s="3">
         <f t="shared" si="26"/>
-        <v>-3.6534839641933221</v>
+        <v>-3.6534839641933239</v>
       </c>
       <c r="F280" s="3">
         <f t="shared" si="27"/>
-        <v>20.516516035806681</v>
+        <v>19.516516035806678</v>
       </c>
       <c r="G280" s="2">
         <v>1</v>
       </c>
       <c r="H280" s="3">
         <f t="shared" si="28"/>
-        <v>21.516516035806681</v>
+        <v>20.516516035806678</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
@@ -9429,18 +9429,18 @@
       </c>
       <c r="E281" s="3">
         <f t="shared" si="26"/>
-        <v>-3.6195140877368086</v>
+        <v>-3.6195140877368104</v>
       </c>
       <c r="F281" s="3">
         <f t="shared" si="27"/>
-        <v>20.550485912263191</v>
+        <v>19.550485912263191</v>
       </c>
       <c r="G281" s="2">
         <v>1</v>
       </c>
       <c r="H281" s="3">
         <f t="shared" si="28"/>
-        <v>21.550485912263191</v>
+        <v>20.550485912263191</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.25">
@@ -9457,18 +9457,18 @@
       </c>
       <c r="E282" s="3">
         <f t="shared" si="26"/>
-        <v>-3.5852760712792984</v>
+        <v>-3.5852760712793001</v>
       </c>
       <c r="F282" s="3">
         <f t="shared" si="27"/>
-        <v>20.584723928720702</v>
+        <v>19.584723928720702</v>
       </c>
       <c r="G282" s="2">
         <v>1</v>
       </c>
       <c r="H282" s="3">
         <f t="shared" si="28"/>
-        <v>21.584723928720702</v>
+        <v>20.584723928720702</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -9485,18 +9485,18 @@
       </c>
       <c r="E283" s="3">
         <f t="shared" si="26"/>
-        <v>-3.5507724512335601</v>
+        <v>-3.5507724512335619</v>
       </c>
       <c r="F283" s="3">
         <f t="shared" si="27"/>
-        <v>20.619227548766442</v>
+        <v>19.619227548766439</v>
       </c>
       <c r="G283" s="2">
         <v>1</v>
       </c>
       <c r="H283" s="3">
         <f t="shared" si="28"/>
-        <v>21.619227548766442</v>
+        <v>20.619227548766439</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
@@ -9513,18 +9513,18 @@
       </c>
       <c r="E284" s="3">
         <f t="shared" si="26"/>
-        <v>-3.5160057836887577</v>
+        <v>-3.5160057836887595</v>
       </c>
       <c r="F284" s="3">
         <f t="shared" si="27"/>
-        <v>20.653994216311244</v>
+        <v>19.653994216311244</v>
       </c>
       <c r="G284" s="2">
         <v>1</v>
       </c>
       <c r="H284" s="3">
         <f t="shared" si="28"/>
-        <v>21.653994216311244</v>
+        <v>20.653994216311244</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
@@ -9541,18 +9541,18 @@
       </c>
       <c r="E285" s="3">
         <f t="shared" si="26"/>
-        <v>-3.4809786442210671</v>
+        <v>-3.4809786442210688</v>
       </c>
       <c r="F285" s="3">
         <f t="shared" si="27"/>
-        <v>20.689021355778934</v>
+        <v>19.689021355778934</v>
       </c>
       <c r="G285" s="2">
         <v>1</v>
       </c>
       <c r="H285" s="3">
         <f t="shared" si="28"/>
-        <v>21.689021355778934</v>
+        <v>20.689021355778934</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
@@ -9569,18 +9569,18 @@
       </c>
       <c r="E286" s="3">
         <f t="shared" si="26"/>
-        <v>-3.4456936277028922</v>
+        <v>-3.445693627702894</v>
       </c>
       <c r="F286" s="3">
         <f t="shared" si="27"/>
-        <v>20.724306372297111</v>
+        <v>19.724306372297107</v>
       </c>
       <c r="G286" s="2">
         <v>1</v>
       </c>
       <c r="H286" s="3">
         <f t="shared" si="28"/>
-        <v>21.724306372297111</v>
+        <v>20.724306372297107</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
@@ -9597,18 +9597,18 @@
       </c>
       <c r="E287" s="3">
         <f t="shared" si="26"/>
-        <v>-3.4101533481106192</v>
+        <v>-3.410153348110621</v>
       </c>
       <c r="F287" s="3">
         <f t="shared" si="27"/>
-        <v>20.759846651889383</v>
+        <v>19.759846651889379</v>
       </c>
       <c r="G287" s="2">
         <v>1</v>
       </c>
       <c r="H287" s="3">
         <f t="shared" si="28"/>
-        <v>21.759846651889383</v>
+        <v>20.759846651889379</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
@@ -9625,18 +9625,18 @@
       </c>
       <c r="E288" s="3">
         <f t="shared" si="26"/>
-        <v>-3.3743604383309798</v>
+        <v>-3.3743604383309815</v>
       </c>
       <c r="F288" s="3">
         <f t="shared" si="27"/>
-        <v>20.79563956166902</v>
+        <v>19.79563956166902</v>
       </c>
       <c r="G288" s="2">
         <v>1</v>
       </c>
       <c r="H288" s="3">
         <f t="shared" si="28"/>
-        <v>21.79563956166902</v>
+        <v>20.79563956166902</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
@@ -9653,18 +9653,18 @@
       </c>
       <c r="E289" s="3">
         <f t="shared" si="26"/>
-        <v>-3.3383175499659896</v>
+        <v>-3.3383175499659914</v>
       </c>
       <c r="F289" s="3">
         <f t="shared" si="27"/>
-        <v>20.831682450034013</v>
+        <v>19.831682450034009</v>
       </c>
       <c r="G289" s="2">
         <v>1</v>
       </c>
       <c r="H289" s="3">
         <f t="shared" si="28"/>
-        <v>21.831682450034013</v>
+        <v>20.831682450034009</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
@@ -9681,18 +9681,18 @@
       </c>
       <c r="E290" s="3">
         <f t="shared" si="26"/>
-        <v>-3.302027353136527</v>
+        <v>-3.3020273531365287</v>
       </c>
       <c r="F290" s="3">
         <f t="shared" si="27"/>
-        <v>20.867972646863475</v>
+        <v>19.867972646863471</v>
       </c>
       <c r="G290" s="2">
         <v>1</v>
       </c>
       <c r="H290" s="3">
         <f t="shared" si="28"/>
-        <v>21.867972646863475</v>
+        <v>20.867972646863471</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
@@ -9709,18 +9709,18 @@
       </c>
       <c r="E291" s="3">
         <f t="shared" si="26"/>
-        <v>-3.2654925362845115</v>
+        <v>-3.2654925362845129</v>
       </c>
       <c r="F291" s="3">
         <f t="shared" si="27"/>
-        <v>20.90450746371549</v>
+        <v>19.90450746371549</v>
       </c>
       <c r="G291" s="2">
         <v>1</v>
       </c>
       <c r="H291" s="3">
         <f t="shared" si="28"/>
-        <v>21.90450746371549</v>
+        <v>20.90450746371549</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
@@ -9737,18 +9737,18 @@
       </c>
       <c r="E292" s="3">
         <f t="shared" si="26"/>
-        <v>-3.2287158059737533</v>
+        <v>-3.2287158059737546</v>
       </c>
       <c r="F292" s="3">
         <f t="shared" si="27"/>
-        <v>20.941284194026249</v>
+        <v>19.941284194026245</v>
       </c>
       <c r="G292" s="2">
         <v>1</v>
       </c>
       <c r="H292" s="3">
         <f t="shared" si="28"/>
-        <v>21.941284194026249</v>
+        <v>20.941284194026245</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
@@ -9765,18 +9765,18 @@
       </c>
       <c r="E293" s="3">
         <f t="shared" si="26"/>
-        <v>-3.1916998866894297</v>
+        <v>-3.1916998866894315</v>
       </c>
       <c r="F293" s="3">
         <f t="shared" si="27"/>
-        <v>20.978300113310571</v>
+        <v>19.978300113310571</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
       </c>
       <c r="H293" s="3">
         <f t="shared" si="28"/>
-        <v>21.978300113310571</v>
+        <v>20.978300113310571</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
@@ -9793,18 +9793,18 @@
       </c>
       <c r="E294" s="3">
         <f t="shared" si="26"/>
-        <v>-3.1544475206362734</v>
+        <v>-3.1544475206362748</v>
       </c>
       <c r="F294" s="3">
         <f t="shared" si="27"/>
-        <v>21.015552479363727</v>
+        <v>20.015552479363727</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
       </c>
       <c r="H294" s="3">
         <f t="shared" si="28"/>
-        <v>22.015552479363727</v>
+        <v>21.015552479363727</v>
       </c>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
@@ -9821,18 +9821,18 @@
       </c>
       <c r="E295" s="3">
         <f t="shared" si="26"/>
-        <v>-3.1169614675353978</v>
+        <v>-3.1169614675353996</v>
       </c>
       <c r="F295" s="3">
         <f t="shared" si="27"/>
-        <v>21.053038532464605</v>
+        <v>20.053038532464601</v>
       </c>
       <c r="G295" s="2">
         <v>1</v>
       </c>
       <c r="H295" s="3">
         <f t="shared" si="28"/>
-        <v>22.053038532464605</v>
+        <v>21.053038532464601</v>
       </c>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
@@ -9849,18 +9849,18 @@
       </c>
       <c r="E296" s="3">
         <f t="shared" si="26"/>
-        <v>-3.0792445044198771</v>
+        <v>-3.0792445044198788</v>
       </c>
       <c r="F296" s="3">
         <f t="shared" si="27"/>
-        <v>21.090755495580126</v>
+        <v>20.090755495580122</v>
       </c>
       <c r="G296" s="2">
         <v>1</v>
       </c>
       <c r="H296" s="3">
         <f t="shared" si="28"/>
-        <v>22.090755495580126</v>
+        <v>21.090755495580122</v>
       </c>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
@@ -9877,18 +9877,18 @@
       </c>
       <c r="E297" s="3">
         <f t="shared" si="26"/>
-        <v>-3.0412994254289982</v>
+        <v>-3.0412994254289996</v>
       </c>
       <c r="F297" s="3">
         <f t="shared" si="27"/>
-        <v>21.128700574571003</v>
+        <v>20.128700574571003</v>
       </c>
       <c r="G297" s="2">
         <v>1</v>
       </c>
       <c r="H297" s="3">
         <f t="shared" si="28"/>
-        <v>22.128700574571003</v>
+        <v>21.128700574571003</v>
       </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
@@ -9905,18 +9905,18 @@
       </c>
       <c r="E298" s="3">
         <f t="shared" si="26"/>
-        <v>-3.0031290416012832</v>
+        <v>-3.0031290416012846</v>
       </c>
       <c r="F298" s="3">
         <f t="shared" si="27"/>
-        <v>21.166870958398718</v>
+        <v>20.166870958398718</v>
       </c>
       <c r="G298" s="2">
         <v>1</v>
       </c>
       <c r="H298" s="3">
         <f t="shared" si="28"/>
-        <v>22.166870958398718</v>
+        <v>21.166870958398718</v>
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
@@ -9933,18 +9933,18 @@
       </c>
       <c r="E299" s="3">
         <f t="shared" si="26"/>
-        <v>-2.9647361806662262</v>
+        <v>-2.9647361806662276</v>
       </c>
       <c r="F299" s="3">
         <f t="shared" si="27"/>
-        <v>21.205263819333776</v>
+        <v>20.205263819333773</v>
       </c>
       <c r="G299" s="2">
         <v>1</v>
       </c>
       <c r="H299" s="3">
         <f t="shared" si="28"/>
-        <v>22.205263819333776</v>
+        <v>21.205263819333773</v>
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
@@ -9961,18 +9961,18 @@
       </c>
       <c r="E300" s="3">
         <f t="shared" si="26"/>
-        <v>-2.926123686834829</v>
+        <v>-2.9261236868348304</v>
       </c>
       <c r="F300" s="3">
         <f t="shared" si="27"/>
-        <v>21.243876313165174</v>
+        <v>20.24387631316517</v>
       </c>
       <c r="G300" s="2">
         <v>1</v>
       </c>
       <c r="H300" s="3">
         <f t="shared" si="28"/>
-        <v>22.243876313165174</v>
+        <v>21.24387631316517</v>
       </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
@@ -9989,18 +9989,18 @@
       </c>
       <c r="E301" s="3">
         <f t="shared" si="26"/>
-        <v>-2.887294420588876</v>
+        <v>-2.8872944205888778</v>
       </c>
       <c r="F301" s="3">
         <f t="shared" si="27"/>
-        <v>21.282705579411125</v>
+        <v>20.282705579411125</v>
       </c>
       <c r="G301" s="2">
         <v>1</v>
       </c>
       <c r="H301" s="3">
         <f t="shared" si="28"/>
-        <v>22.282705579411125</v>
+        <v>21.282705579411125</v>
       </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
@@ -10017,18 +10017,18 @@
       </c>
       <c r="E302" s="3">
         <f t="shared" si="26"/>
-        <v>-2.8482512584690443</v>
+        <v>-2.848251258469046</v>
       </c>
       <c r="F302" s="3">
         <f t="shared" si="27"/>
-        <v>21.321748741530957</v>
+        <v>20.321748741530957</v>
       </c>
       <c r="G302" s="2">
         <v>1</v>
       </c>
       <c r="H302" s="3">
         <f t="shared" si="28"/>
-        <v>22.321748741530957</v>
+        <v>21.321748741530957</v>
       </c>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
@@ -10045,18 +10045,18 @@
       </c>
       <c r="E303" s="3">
         <f t="shared" si="26"/>
-        <v>-2.808997092861786</v>
+        <v>-2.8089970928617873</v>
       </c>
       <c r="F303" s="3">
         <f t="shared" si="27"/>
-        <v>21.361002907138214</v>
+        <v>20.361002907138214</v>
       </c>
       <c r="G303" s="2">
         <v>1</v>
       </c>
       <c r="H303" s="3">
         <f t="shared" si="28"/>
-        <v>22.361002907138214</v>
+        <v>21.361002907138214</v>
       </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
@@ -10073,18 +10073,18 @@
       </c>
       <c r="E304" s="3">
         <f t="shared" si="26"/>
-        <v>-2.769534831785077</v>
+        <v>-2.7695348317850783</v>
       </c>
       <c r="F304" s="3">
         <f t="shared" si="27"/>
-        <v>21.400465168214925</v>
+        <v>20.400465168214922</v>
       </c>
       <c r="G304" s="2">
         <v>1</v>
       </c>
       <c r="H304" s="3">
         <f t="shared" si="28"/>
-        <v>22.400465168214925</v>
+        <v>21.400465168214922</v>
       </c>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.25">
@@ -10101,18 +10101,18 @@
       </c>
       <c r="E305" s="3">
         <f t="shared" si="26"/>
-        <v>-2.7298673986729605</v>
+        <v>-2.7298673986729622</v>
       </c>
       <c r="F305" s="3">
         <f t="shared" si="27"/>
-        <v>21.44013260132704</v>
+        <v>20.44013260132704</v>
       </c>
       <c r="G305" s="2">
         <v>1</v>
       </c>
       <c r="H305" s="3">
         <f t="shared" si="28"/>
-        <v>22.44013260132704</v>
+        <v>21.44013260132704</v>
       </c>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.25">
@@ -10129,18 +10129,18 @@
       </c>
       <c r="E306" s="3">
         <f t="shared" si="26"/>
-        <v>-2.689997732158997</v>
+        <v>-2.6899977321589983</v>
       </c>
       <c r="F306" s="3">
         <f t="shared" si="27"/>
-        <v>21.480002267841005</v>
+        <v>20.480002267841002</v>
       </c>
       <c r="G306" s="2">
         <v>1</v>
       </c>
       <c r="H306" s="3">
         <f t="shared" si="28"/>
-        <v>22.480002267841005</v>
+        <v>21.480002267841002</v>
       </c>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.25">
@@ -10157,18 +10157,18 @@
       </c>
       <c r="E307" s="3">
         <f t="shared" si="26"/>
-        <v>-2.649928785858545</v>
+        <v>-2.6499287858585463</v>
       </c>
       <c r="F307" s="3">
         <f t="shared" si="27"/>
-        <v>21.520071214141456</v>
+        <v>20.520071214141456</v>
       </c>
       <c r="G307" s="2">
         <v>1</v>
       </c>
       <c r="H307" s="3">
         <f t="shared" si="28"/>
-        <v>22.520071214141456</v>
+        <v>21.520071214141456</v>
       </c>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.25">
@@ -10185,18 +10185,18 @@
       </c>
       <c r="E308" s="3">
         <f t="shared" si="26"/>
-        <v>-2.609663528149972</v>
+        <v>-2.6096635281499734</v>
       </c>
       <c r="F308" s="3">
         <f t="shared" si="27"/>
-        <v>21.560336471850029</v>
+        <v>20.560336471850029</v>
       </c>
       <c r="G308" s="2">
         <v>1</v>
       </c>
       <c r="H308" s="3">
         <f t="shared" si="28"/>
-        <v>22.560336471850029</v>
+        <v>21.560336471850029</v>
       </c>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.25">
@@ -10213,18 +10213,18 @@
       </c>
       <c r="E309" s="3">
         <f t="shared" si="26"/>
-        <v>-2.569204941954732</v>
+        <v>-2.5692049419547334</v>
       </c>
       <c r="F309" s="3">
         <f t="shared" si="27"/>
-        <v>21.600795058045271</v>
+        <v>20.600795058045268</v>
       </c>
       <c r="G309" s="2">
         <v>1</v>
       </c>
       <c r="H309" s="3">
         <f t="shared" si="28"/>
-        <v>22.600795058045271</v>
+        <v>21.600795058045268</v>
       </c>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.25">
@@ -10241,18 +10241,18 @@
       </c>
       <c r="E310" s="3">
         <f t="shared" si="26"/>
-        <v>-2.5285560245164045</v>
+        <v>-2.5285560245164058</v>
       </c>
       <c r="F310" s="3">
         <f t="shared" si="27"/>
-        <v>21.641443975483597</v>
+        <v>20.641443975483597</v>
       </c>
       <c r="G310" s="2">
         <v>1</v>
       </c>
       <c r="H310" s="3">
         <f t="shared" si="28"/>
-        <v>22.641443975483597</v>
+        <v>21.641443975483597</v>
       </c>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
@@ -10269,18 +10269,18 @@
       </c>
       <c r="E311" s="3">
         <f t="shared" si="26"/>
-        <v>-2.4877197871786345</v>
+        <v>-2.4877197871786358</v>
       </c>
       <c r="F311" s="3">
         <f t="shared" si="27"/>
-        <v>21.682280212821368</v>
+        <v>20.682280212821365</v>
       </c>
       <c r="G311" s="2">
         <v>1</v>
       </c>
       <c r="H311" s="3">
         <f t="shared" si="28"/>
-        <v>22.682280212821368</v>
+        <v>21.682280212821365</v>
       </c>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.25">
@@ -10297,18 +10297,18 @@
       </c>
       <c r="E312" s="3">
         <f t="shared" si="26"/>
-        <v>-2.4466992551620623</v>
+        <v>-2.4466992551620637</v>
       </c>
       <c r="F312" s="3">
         <f t="shared" si="27"/>
-        <v>21.723300744837939</v>
+        <v>20.723300744837939</v>
       </c>
       <c r="G312" s="2">
         <v>1</v>
       </c>
       <c r="H312" s="3">
         <f t="shared" si="28"/>
-        <v>22.723300744837939</v>
+        <v>21.723300744837939</v>
       </c>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.25">
@@ -10325,18 +10325,18 @@
       </c>
       <c r="E313" s="3">
         <f t="shared" si="26"/>
-        <v>-2.4054974673402034</v>
+        <v>-2.4054974673402043</v>
       </c>
       <c r="F313" s="3">
         <f t="shared" si="27"/>
-        <v>21.764502532659797</v>
+        <v>20.764502532659797</v>
       </c>
       <c r="G313" s="2">
         <v>1</v>
       </c>
       <c r="H313" s="3">
         <f t="shared" si="28"/>
-        <v>22.764502532659797</v>
+        <v>21.764502532659797</v>
       </c>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.25">
@@ -10353,18 +10353,18 @@
       </c>
       <c r="E314" s="3">
         <f t="shared" si="26"/>
-        <v>-2.3641174760143233</v>
+        <v>-2.3641174760143246</v>
       </c>
       <c r="F314" s="3">
         <f t="shared" si="27"/>
-        <v>21.80588252398568</v>
+        <v>20.805882523985677</v>
       </c>
       <c r="G314" s="2">
         <v>1</v>
       </c>
       <c r="H314" s="3">
         <f t="shared" si="28"/>
-        <v>22.80588252398568</v>
+        <v>21.805882523985677</v>
       </c>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.25">
@@ -10381,18 +10381,18 @@
       </c>
       <c r="E315" s="3">
         <f t="shared" si="26"/>
-        <v>-2.322562346687314</v>
+        <v>-2.3225623466873153</v>
       </c>
       <c r="F315" s="3">
         <f t="shared" si="27"/>
-        <v>21.847437653312689</v>
+        <v>20.847437653312685</v>
       </c>
       <c r="G315" s="2">
         <v>1</v>
       </c>
       <c r="H315" s="3">
         <f t="shared" si="28"/>
-        <v>22.847437653312689</v>
+        <v>21.847437653312685</v>
       </c>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.25">
@@ -10409,18 +10409,18 @@
       </c>
       <c r="E316" s="3">
         <f t="shared" si="26"/>
-        <v>-2.2808351578366075</v>
+        <v>-2.2808351578366088</v>
       </c>
       <c r="F316" s="3">
         <f t="shared" si="27"/>
-        <v>21.889164842163396</v>
+        <v>20.889164842163392</v>
       </c>
       <c r="G316" s="2">
         <v>1</v>
       </c>
       <c r="H316" s="3">
         <f t="shared" si="28"/>
-        <v>22.889164842163396</v>
+        <v>21.889164842163392</v>
       </c>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.25">
@@ -10437,18 +10437,18 @@
       </c>
       <c r="E317" s="3">
         <f t="shared" si="26"/>
-        <v>-2.2389390006861007</v>
+        <v>-2.2389390006861016</v>
       </c>
       <c r="F317" s="3">
         <f t="shared" si="27"/>
-        <v>21.9310609993139</v>
+        <v>20.9310609993139</v>
       </c>
       <c r="G317" s="2">
         <v>1</v>
       </c>
       <c r="H317" s="3">
         <f t="shared" si="28"/>
-        <v>22.9310609993139</v>
+        <v>21.9310609993139</v>
       </c>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.25">
@@ -10465,18 +10465,18 @@
       </c>
       <c r="E318" s="3">
         <f t="shared" si="26"/>
-        <v>-2.1968769789771705</v>
+        <v>-2.1968769789771714</v>
       </c>
       <c r="F318" s="3">
         <f t="shared" si="27"/>
-        <v>21.973123021022833</v>
+        <v>20.973123021022829</v>
       </c>
       <c r="G318" s="2">
         <v>1</v>
       </c>
       <c r="H318" s="3">
         <f t="shared" si="28"/>
-        <v>22.973123021022833</v>
+        <v>21.973123021022829</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
@@ -10493,18 +10493,18 @@
       </c>
       <c r="E319" s="3">
         <f t="shared" si="26"/>
-        <v>-2.1546522087387228</v>
+        <v>-2.1546522087387241</v>
       </c>
       <c r="F319" s="3">
         <f t="shared" si="27"/>
-        <v>22.015347791261277</v>
+        <v>21.015347791261277</v>
       </c>
       <c r="G319" s="2">
         <v>1</v>
       </c>
       <c r="H319" s="3">
         <f t="shared" si="28"/>
-        <v>23.015347791261277</v>
+        <v>22.015347791261277</v>
       </c>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.25">
@@ -10521,18 +10521,18 @@
       </c>
       <c r="E320" s="3">
         <f t="shared" si="26"/>
-        <v>-2.1122678180563739</v>
+        <v>-2.1122678180563748</v>
       </c>
       <c r="F320" s="3">
         <f t="shared" si="27"/>
-        <v>22.057732181943628</v>
+        <v>21.057732181943628</v>
       </c>
       <c r="G320" s="2">
         <v>1</v>
       </c>
       <c r="H320" s="3">
         <f t="shared" si="28"/>
-        <v>23.057732181943628</v>
+        <v>22.057732181943628</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
@@ -10549,18 +10549,18 @@
       </c>
       <c r="E321" s="3">
         <f t="shared" si="26"/>
-        <v>-2.0697269468406931</v>
+        <v>-2.069726946840694</v>
       </c>
       <c r="F321" s="3">
         <f t="shared" si="27"/>
-        <v>22.100273053159309</v>
+        <v>21.100273053159306</v>
       </c>
       <c r="G321" s="2">
         <v>1</v>
       </c>
       <c r="H321" s="3">
         <f t="shared" si="28"/>
-        <v>23.100273053159309</v>
+        <v>22.100273053159306</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
@@ -10577,18 +10577,18 @@
       </c>
       <c r="E322" s="3">
         <f t="shared" si="26"/>
-        <v>-2.0270327465946116</v>
+        <v>-2.0270327465946125</v>
       </c>
       <c r="F322" s="3">
         <f t="shared" si="27"/>
-        <v>22.142967253405391</v>
+        <v>21.142967253405388</v>
       </c>
       <c r="G322" s="2">
         <v>1</v>
       </c>
       <c r="H322" s="3">
         <f t="shared" si="28"/>
-        <v>23.142967253405391</v>
+        <v>22.142967253405388</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
@@ -10605,18 +10605,18 @@
       </c>
       <c r="E323" s="3">
         <f t="shared" si="26"/>
-        <v>-1.9841883801799458</v>
+        <v>-1.9841883801799467</v>
       </c>
       <c r="F323" s="3">
         <f t="shared" si="27"/>
-        <v>22.185811619820058</v>
+        <v>21.185811619820054</v>
       </c>
       <c r="G323" s="2">
         <v>1</v>
       </c>
       <c r="H323" s="3">
         <f t="shared" si="28"/>
-        <v>23.185811619820058</v>
+        <v>22.185811619820054</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
@@ -10633,18 +10633,18 @@
       </c>
       <c r="E324" s="3">
         <f t="shared" ref="E324:E367" si="31">D324*$E$2</f>
-        <v>-1.9411970215830865</v>
+        <v>-1.9411970215830876</v>
       </c>
       <c r="F324" s="3">
         <f t="shared" ref="F324:F367" si="32">E324+$F$2</f>
-        <v>22.228802978416915</v>
+        <v>21.228802978416915</v>
       </c>
       <c r="G324" s="2">
         <v>1</v>
       </c>
       <c r="H324" s="3">
         <f t="shared" ref="H324:H367" si="33">F324+G324</f>
-        <v>23.228802978416915</v>
+        <v>22.228802978416915</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
@@ -10661,18 +10661,18 @@
       </c>
       <c r="E325" s="3">
         <f t="shared" si="31"/>
-        <v>-1.898061855679861</v>
+        <v>-1.8980618556798619</v>
       </c>
       <c r="F325" s="3">
         <f t="shared" si="32"/>
-        <v>22.271938144320142</v>
+        <v>21.271938144320139</v>
       </c>
       <c r="G325" s="2">
         <v>1</v>
       </c>
       <c r="H325" s="3">
         <f t="shared" si="33"/>
-        <v>23.271938144320142</v>
+        <v>22.271938144320139</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
@@ -10689,18 +10689,18 @@
       </c>
       <c r="E326" s="3">
         <f t="shared" si="31"/>
-        <v>-1.8547860779996033</v>
+        <v>-1.8547860779996042</v>
       </c>
       <c r="F326" s="3">
         <f t="shared" si="32"/>
-        <v>22.3152139220004</v>
+        <v>21.315213922000396</v>
       </c>
       <c r="G326" s="2">
         <v>1</v>
       </c>
       <c r="H326" s="3">
         <f t="shared" si="33"/>
-        <v>23.3152139220004</v>
+        <v>22.315213922000396</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
@@ -10717,18 +10717,18 @@
       </c>
       <c r="E327" s="3">
         <f t="shared" si="31"/>
-        <v>-1.8113728944884084</v>
+        <v>-1.8113728944884093</v>
       </c>
       <c r="F327" s="3">
         <f t="shared" si="32"/>
-        <v>22.358627105511594</v>
+        <v>21.358627105511591</v>
       </c>
       <c r="G327" s="2">
         <v>1</v>
       </c>
       <c r="H327" s="3">
         <f t="shared" si="33"/>
-        <v>23.358627105511594</v>
+        <v>22.358627105511591</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
@@ -10745,18 +10745,18 @@
       </c>
       <c r="E328" s="3">
         <f t="shared" si="31"/>
-        <v>-1.7678255212716467</v>
+        <v>-1.7678255212716476</v>
       </c>
       <c r="F328" s="3">
         <f t="shared" si="32"/>
-        <v>22.402174478728355</v>
+        <v>21.402174478728355</v>
       </c>
       <c r="G328" s="2">
         <v>1</v>
       </c>
       <c r="H328" s="3">
         <f t="shared" si="33"/>
-        <v>23.402174478728355</v>
+        <v>22.402174478728355</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
@@ -10773,18 +10773,18 @@
       </c>
       <c r="E329" s="3">
         <f t="shared" si="31"/>
-        <v>-1.7241471844156901</v>
+        <v>-1.724147184415691</v>
       </c>
       <c r="F329" s="3">
         <f t="shared" si="32"/>
-        <v>22.44585281558431</v>
+        <v>21.44585281558431</v>
       </c>
       <c r="G329" s="2">
         <v>1</v>
       </c>
       <c r="H329" s="3">
         <f t="shared" si="33"/>
-        <v>23.44585281558431</v>
+        <v>22.44585281558431</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
@@ -10801,18 +10801,18 @@
       </c>
       <c r="E330" s="3">
         <f t="shared" si="31"/>
-        <v>-1.6803411196889355</v>
+        <v>-1.6803411196889364</v>
       </c>
       <c r="F330" s="3">
         <f t="shared" si="32"/>
-        <v>22.489658880311065</v>
+        <v>21.489658880311065</v>
       </c>
       <c r="G330" s="2">
         <v>1</v>
       </c>
       <c r="H330" s="3">
         <f t="shared" si="33"/>
-        <v>23.489658880311065</v>
+        <v>22.489658880311065</v>
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.25">
@@ -10829,18 +10829,18 @@
       </c>
       <c r="E331" s="3">
         <f t="shared" si="31"/>
-        <v>-1.6364105723220861</v>
+        <v>-1.6364105723220868</v>
       </c>
       <c r="F331" s="3">
         <f t="shared" si="32"/>
-        <v>22.533589427677917</v>
+        <v>21.533589427677914</v>
       </c>
       <c r="G331" s="2">
         <v>1</v>
       </c>
       <c r="H331" s="3">
         <f t="shared" si="33"/>
-        <v>23.533589427677917</v>
+        <v>22.533589427677914</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
@@ -10857,18 +10857,18 @@
       </c>
       <c r="E332" s="3">
         <f t="shared" si="31"/>
-        <v>-1.5923587967677315</v>
+        <v>-1.5923587967677322</v>
       </c>
       <c r="F332" s="3">
         <f t="shared" si="32"/>
-        <v>22.577641203232272</v>
+        <v>21.577641203232268</v>
       </c>
       <c r="G332" s="2">
         <v>1</v>
       </c>
       <c r="H332" s="3">
         <f t="shared" si="33"/>
-        <v>23.577641203232272</v>
+        <v>22.577641203232268</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
@@ -10885,18 +10885,18 @@
       </c>
       <c r="E333" s="3">
         <f t="shared" si="31"/>
-        <v>-1.5481890564592677</v>
+        <v>-1.5481890564592686</v>
       </c>
       <c r="F333" s="3">
         <f t="shared" si="32"/>
-        <v>22.621810943540734</v>
+        <v>21.621810943540734</v>
       </c>
       <c r="G333" s="2">
         <v>1</v>
       </c>
       <c r="H333" s="3">
         <f t="shared" si="33"/>
-        <v>23.621810943540734</v>
+        <v>22.621810943540734</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
@@ -10913,18 +10913,18 @@
       </c>
       <c r="E334" s="3">
         <f t="shared" si="31"/>
-        <v>-1.5039046235691276</v>
+        <v>-1.5039046235691282</v>
       </c>
       <c r="F334" s="3">
         <f t="shared" si="32"/>
-        <v>22.666095376430874</v>
+        <v>21.666095376430874</v>
       </c>
       <c r="G334" s="2">
         <v>1</v>
       </c>
       <c r="H334" s="3">
         <f t="shared" si="33"/>
-        <v>23.666095376430874</v>
+        <v>22.666095376430874</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -10941,18 +10941,18 @@
       </c>
       <c r="E335" s="3">
         <f t="shared" si="31"/>
-        <v>-1.4595087787663663</v>
+        <v>-1.4595087787663672</v>
       </c>
       <c r="F335" s="3">
         <f t="shared" si="32"/>
-        <v>22.710491221233635</v>
+        <v>21.710491221233635</v>
       </c>
       <c r="G335" s="2">
         <v>1</v>
       </c>
       <c r="H335" s="3">
         <f t="shared" si="33"/>
-        <v>23.710491221233635</v>
+        <v>22.710491221233635</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
@@ -10969,18 +10969,18 @@
       </c>
       <c r="E336" s="3">
         <f t="shared" si="31"/>
-        <v>-1.4150048109736404</v>
+        <v>-1.4150048109736411</v>
       </c>
       <c r="F336" s="3">
         <f t="shared" si="32"/>
-        <v>22.75499518902636</v>
+        <v>21.75499518902636</v>
       </c>
       <c r="G336" s="2">
         <v>1</v>
       </c>
       <c r="H336" s="3">
         <f t="shared" si="33"/>
-        <v>23.75499518902636</v>
+        <v>22.75499518902636</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.25">
@@ -10997,18 +10997,18 @@
       </c>
       <c r="E337" s="3">
         <f t="shared" si="31"/>
-        <v>-1.3703960171235374</v>
+        <v>-1.3703960171235383</v>
       </c>
       <c r="F337" s="3">
         <f t="shared" si="32"/>
-        <v>22.799603982876466</v>
+        <v>21.799603982876462</v>
       </c>
       <c r="G337" s="2">
         <v>1</v>
       </c>
       <c r="H337" s="3">
         <f t="shared" si="33"/>
-        <v>23.799603982876466</v>
+        <v>22.799603982876462</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
@@ -11025,18 +11025,18 @@
       </c>
       <c r="E338" s="3">
         <f t="shared" si="31"/>
-        <v>-1.3256857019143564</v>
+        <v>-1.3256857019143571</v>
       </c>
       <c r="F338" s="3">
         <f t="shared" si="32"/>
-        <v>22.844314298085646</v>
+        <v>21.844314298085646</v>
       </c>
       <c r="G338" s="2">
         <v>1</v>
       </c>
       <c r="H338" s="3">
         <f t="shared" si="33"/>
-        <v>23.844314298085646</v>
+        <v>22.844314298085646</v>
       </c>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.25">
@@ -11053,18 +11053,18 @@
       </c>
       <c r="E339" s="3">
         <f t="shared" si="31"/>
-        <v>-1.2808771775652668</v>
+        <v>-1.2808771775652674</v>
       </c>
       <c r="F339" s="3">
         <f t="shared" si="32"/>
-        <v>22.889122822434736</v>
+        <v>21.889122822434736</v>
       </c>
       <c r="G339" s="2">
         <v>1</v>
       </c>
       <c r="H339" s="3">
         <f t="shared" si="33"/>
-        <v>23.889122822434736</v>
+        <v>22.889122822434736</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.25">
@@ -11081,18 +11081,18 @@
       </c>
       <c r="E340" s="3">
         <f t="shared" si="31"/>
-        <v>-1.2359737635709522</v>
+        <v>-1.2359737635709529</v>
       </c>
       <c r="F340" s="3">
         <f t="shared" si="32"/>
-        <v>22.934026236429048</v>
+        <v>21.934026236429048</v>
       </c>
       <c r="G340" s="2">
         <v>1</v>
       </c>
       <c r="H340" s="3">
         <f t="shared" si="33"/>
-        <v>23.934026236429048</v>
+        <v>22.934026236429048</v>
       </c>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.25">
@@ -11109,18 +11109,18 @@
       </c>
       <c r="E341" s="3">
         <f t="shared" si="31"/>
-        <v>-1.1909787864556898</v>
+        <v>-1.1909787864556902</v>
       </c>
       <c r="F341" s="3">
         <f t="shared" si="32"/>
-        <v>22.979021213544311</v>
+        <v>21.979021213544311</v>
       </c>
       <c r="G341" s="2">
         <v>1</v>
       </c>
       <c r="H341" s="3">
         <f t="shared" si="33"/>
-        <v>23.979021213544311</v>
+        <v>22.979021213544311</v>
       </c>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.25">
@@ -11137,18 +11137,18 @@
       </c>
       <c r="E342" s="3">
         <f t="shared" si="31"/>
-        <v>-1.1458955795269059</v>
+        <v>-1.1458955795269066</v>
       </c>
       <c r="F342" s="3">
         <f t="shared" si="32"/>
-        <v>23.024104420473094</v>
+        <v>22.024104420473094</v>
       </c>
       <c r="G342" s="2">
         <v>1</v>
       </c>
       <c r="H342" s="3">
         <f t="shared" si="33"/>
-        <v>24.024104420473094</v>
+        <v>23.024104420473094</v>
       </c>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.25">
@@ -11165,18 +11165,18 @@
       </c>
       <c r="E343" s="3">
         <f t="shared" si="31"/>
-        <v>-1.1007274826282563</v>
+        <v>-1.1007274826282567</v>
       </c>
       <c r="F343" s="3">
         <f t="shared" si="32"/>
-        <v>23.069272517371747</v>
+        <v>22.069272517371743</v>
       </c>
       <c r="G343" s="2">
         <v>1</v>
       </c>
       <c r="H343" s="3">
         <f t="shared" si="33"/>
-        <v>24.069272517371747</v>
+        <v>23.069272517371743</v>
       </c>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.25">
@@ -11193,18 +11193,18 @@
       </c>
       <c r="E344" s="3">
         <f t="shared" si="31"/>
-        <v>-1.0554778418921937</v>
+        <v>-1.0554778418921944</v>
       </c>
       <c r="F344" s="3">
         <f t="shared" si="32"/>
-        <v>23.114522158107807</v>
+        <v>22.114522158107807</v>
       </c>
       <c r="G344" s="2">
         <v>1</v>
       </c>
       <c r="H344" s="3">
         <f t="shared" si="33"/>
-        <v>24.114522158107807</v>
+        <v>23.114522158107807</v>
       </c>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.25">
@@ -11221,18 +11221,18 @@
       </c>
       <c r="E345" s="3">
         <f t="shared" si="31"/>
-        <v>-1.0101500094920774</v>
+        <v>-1.0101500094920781</v>
       </c>
       <c r="F345" s="3">
         <f t="shared" si="32"/>
-        <v>23.159849990507926</v>
+        <v>22.159849990507922</v>
       </c>
       <c r="G345" s="2">
         <v>1</v>
       </c>
       <c r="H345" s="3">
         <f t="shared" si="33"/>
-        <v>24.159849990507926</v>
+        <v>23.159849990507922</v>
       </c>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.25">
@@ -11249,18 +11249,18 @@
       </c>
       <c r="E346" s="3">
         <f t="shared" si="31"/>
-        <v>-0.9647473433938516</v>
+        <v>-0.96474734339385204</v>
       </c>
       <c r="F346" s="3">
         <f t="shared" si="32"/>
-        <v>23.205252656606149</v>
+        <v>22.205252656606149</v>
       </c>
       <c r="G346" s="2">
         <v>1</v>
       </c>
       <c r="H346" s="3">
         <f t="shared" si="33"/>
-        <v>24.205252656606149</v>
+        <v>23.205252656606149</v>
       </c>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.25">
@@ -11277,18 +11277,18 @@
       </c>
       <c r="E347" s="3">
         <f t="shared" si="31"/>
-        <v>-0.91927320710726357</v>
+        <v>-0.91927320710726401</v>
       </c>
       <c r="F347" s="3">
         <f t="shared" si="32"/>
-        <v>23.250726792892738</v>
+        <v>22.250726792892738</v>
       </c>
       <c r="G347" s="2">
         <v>1</v>
       </c>
       <c r="H347" s="3">
         <f t="shared" si="33"/>
-        <v>24.250726792892738</v>
+        <v>23.250726792892738</v>
       </c>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.25">
@@ -11305,18 +11305,18 @@
       </c>
       <c r="E348" s="3">
         <f t="shared" si="31"/>
-        <v>-0.8737309694367088</v>
+        <v>-0.87373096943670925</v>
       </c>
       <c r="F348" s="3">
         <f t="shared" si="32"/>
-        <v>23.296269030563295</v>
+        <v>22.296269030563291</v>
       </c>
       <c r="G348" s="2">
         <v>1</v>
       </c>
       <c r="H348" s="3">
         <f t="shared" si="33"/>
-        <v>24.296269030563295</v>
+        <v>23.296269030563291</v>
       </c>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.25">
@@ -11333,18 +11333,18 @@
       </c>
       <c r="E349" s="3">
         <f t="shared" si="31"/>
-        <v>-0.82812400423164323</v>
+        <v>-0.82812400423164367</v>
       </c>
       <c r="F349" s="3">
         <f t="shared" si="32"/>
-        <v>23.341875995768358</v>
+        <v>22.341875995768358</v>
       </c>
       <c r="G349" s="2">
         <v>1</v>
       </c>
       <c r="H349" s="3">
         <f t="shared" si="33"/>
-        <v>24.341875995768358</v>
+        <v>23.341875995768358</v>
       </c>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.25">
@@ -11361,18 +11361,18 @@
       </c>
       <c r="E350" s="3">
         <f t="shared" si="31"/>
-        <v>-0.78245569013666083</v>
+        <v>-0.78245569013666116</v>
       </c>
       <c r="F350" s="3">
         <f t="shared" si="32"/>
-        <v>23.38754430986334</v>
+        <v>22.38754430986334</v>
       </c>
       <c r="G350" s="2">
         <v>1</v>
       </c>
       <c r="H350" s="3">
         <f t="shared" si="33"/>
-        <v>24.38754430986334</v>
+        <v>23.38754430986334</v>
       </c>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.25">
@@ -11389,18 +11389,18 @@
       </c>
       <c r="E351" s="3">
         <f t="shared" si="31"/>
-        <v>-0.73672941034118922</v>
+        <v>-0.73672941034118955</v>
       </c>
       <c r="F351" s="3">
         <f t="shared" si="32"/>
-        <v>23.433270589658811</v>
+        <v>22.433270589658811</v>
       </c>
       <c r="G351" s="2">
         <v>1</v>
       </c>
       <c r="H351" s="3">
         <f t="shared" si="33"/>
-        <v>24.433270589658811</v>
+        <v>23.433270589658811</v>
       </c>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.25">
@@ -11417,18 +11417,18 @@
       </c>
       <c r="E352" s="3">
         <f t="shared" si="31"/>
-        <v>-0.69094855232885077</v>
+        <v>-0.69094855232885111</v>
       </c>
       <c r="F352" s="3">
         <f t="shared" si="32"/>
-        <v>23.47905144767115</v>
+        <v>22.47905144767115</v>
       </c>
       <c r="G352" s="2">
         <v>1</v>
       </c>
       <c r="H352" s="3">
         <f t="shared" si="33"/>
-        <v>24.47905144767115</v>
+        <v>23.47905144767115</v>
       </c>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">
@@ -11445,18 +11445,18 @@
       </c>
       <c r="E353" s="3">
         <f t="shared" si="31"/>
-        <v>-0.64511650762652584</v>
+        <v>-0.64511650762652617</v>
       </c>
       <c r="F353" s="3">
         <f t="shared" si="32"/>
-        <v>23.524883492373476</v>
+        <v>22.524883492373476</v>
       </c>
       <c r="G353" s="2">
         <v>1</v>
       </c>
       <c r="H353" s="3">
         <f t="shared" si="33"/>
-        <v>24.524883492373476</v>
+        <v>23.524883492373476</v>
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.25">
@@ -11473,18 +11473,18 @@
       </c>
       <c r="E354" s="3">
         <f t="shared" si="31"/>
-        <v>-0.59923667155309479</v>
+        <v>-0.59923667155309512</v>
       </c>
       <c r="F354" s="3">
         <f t="shared" si="32"/>
-        <v>23.570763328446908</v>
+        <v>22.570763328446908</v>
       </c>
       <c r="G354" s="2">
         <v>1</v>
       </c>
       <c r="H354" s="3">
         <f t="shared" si="33"/>
-        <v>24.570763328446908</v>
+        <v>23.570763328446908</v>
       </c>
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.25">
@@ -11501,18 +11501,18 @@
       </c>
       <c r="E355" s="3">
         <f t="shared" si="31"/>
-        <v>-0.5533124429679005</v>
+        <v>-0.55331244296790083</v>
       </c>
       <c r="F355" s="3">
         <f t="shared" si="32"/>
-        <v>23.616687557032101</v>
+        <v>22.616687557032101</v>
       </c>
       <c r="G355" s="2">
         <v>1</v>
       </c>
       <c r="H355" s="3">
         <f t="shared" si="33"/>
-        <v>24.616687557032101</v>
+        <v>23.616687557032101</v>
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.25">
@@ -11529,18 +11529,18 @@
       </c>
       <c r="E356" s="3">
         <f t="shared" si="31"/>
-        <v>-0.50734722401897103</v>
+        <v>-0.50734722401897125</v>
       </c>
       <c r="F356" s="3">
         <f t="shared" si="32"/>
-        <v>23.66265277598103</v>
+        <v>22.66265277598103</v>
       </c>
       <c r="G356" s="2">
         <v>1</v>
       </c>
       <c r="H356" s="3">
         <f t="shared" si="33"/>
-        <v>24.66265277598103</v>
+        <v>23.66265277598103</v>
       </c>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.25">
@@ -11557,18 +11557,18 @@
       </c>
       <c r="E357" s="3">
         <f t="shared" si="31"/>
-        <v>-0.46134441989096336</v>
+        <v>-0.46134441989096359</v>
       </c>
       <c r="F357" s="3">
         <f t="shared" si="32"/>
-        <v>23.708655580109038</v>
+        <v>22.708655580109038</v>
       </c>
       <c r="G357" s="2">
         <v>1</v>
       </c>
       <c r="H357" s="3">
         <f t="shared" si="33"/>
-        <v>24.708655580109038</v>
+        <v>23.708655580109038</v>
       </c>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.25">
@@ -11585,18 +11585,18 @@
       </c>
       <c r="E358" s="3">
         <f t="shared" si="31"/>
-        <v>-0.41530743855291818</v>
+        <v>-0.41530743855291841</v>
       </c>
       <c r="F358" s="3">
         <f t="shared" si="32"/>
-        <v>23.754692561447083</v>
+        <v>22.754692561447083</v>
       </c>
       <c r="G358" s="2">
         <v>1</v>
       </c>
       <c r="H358" s="3">
         <f t="shared" si="33"/>
-        <v>24.754692561447083</v>
+        <v>23.754692561447083</v>
       </c>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.25">
@@ -11613,18 +11613,18 @@
       </c>
       <c r="E359" s="3">
         <f t="shared" si="31"/>
-        <v>-0.36923969050578442</v>
+        <v>-0.36923969050578459</v>
       </c>
       <c r="F359" s="3">
         <f t="shared" si="32"/>
-        <v>23.800760309494216</v>
+        <v>22.800760309494216</v>
       </c>
       <c r="G359" s="2">
         <v>1</v>
       </c>
       <c r="H359" s="3">
         <f t="shared" si="33"/>
-        <v>24.800760309494216</v>
+        <v>23.800760309494216</v>
       </c>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.25">
@@ -11641,18 +11641,18 @@
       </c>
       <c r="E360" s="3">
         <f t="shared" si="31"/>
-        <v>-0.32314458852975592</v>
+        <v>-0.32314458852975608</v>
       </c>
       <c r="F360" s="3">
         <f t="shared" si="32"/>
-        <v>23.846855411470244</v>
+        <v>22.846855411470244</v>
       </c>
       <c r="G360" s="2">
         <v>1</v>
       </c>
       <c r="H360" s="3">
         <f t="shared" si="33"/>
-        <v>24.846855411470244</v>
+        <v>23.846855411470244</v>
       </c>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.25">
@@ -11669,18 +11669,18 @@
       </c>
       <c r="E361" s="3">
         <f t="shared" si="31"/>
-        <v>-0.27702554743146346</v>
+        <v>-0.27702554743146357</v>
       </c>
       <c r="F361" s="3">
         <f t="shared" si="32"/>
-        <v>23.892974452568538</v>
+        <v>22.892974452568538</v>
       </c>
       <c r="G361" s="2">
         <v>1</v>
       </c>
       <c r="H361" s="3">
         <f t="shared" si="33"/>
-        <v>24.892974452568538</v>
+        <v>23.892974452568538</v>
       </c>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.25">
@@ -11697,18 +11697,18 @@
       </c>
       <c r="E362" s="3">
         <f t="shared" si="31"/>
-        <v>-0.23088598379098085</v>
+        <v>-0.23088598379098096</v>
       </c>
       <c r="F362" s="3">
         <f t="shared" si="32"/>
-        <v>23.939114016209022</v>
+        <v>22.939114016209022</v>
       </c>
       <c r="G362" s="2">
         <v>1</v>
       </c>
       <c r="H362" s="3">
         <f t="shared" si="33"/>
-        <v>24.939114016209022</v>
+        <v>23.939114016209022</v>
       </c>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.25">
@@ -11725,18 +11725,18 @@
       </c>
       <c r="E363" s="3">
         <f t="shared" si="31"/>
-        <v>-0.18472931570873519</v>
+        <v>-0.1847293157087353</v>
       </c>
       <c r="F363" s="3">
         <f t="shared" si="32"/>
-        <v>23.985270684291265</v>
+        <v>22.985270684291265</v>
       </c>
       <c r="G363" s="2">
         <v>1</v>
       </c>
       <c r="H363" s="3">
         <f t="shared" si="33"/>
-        <v>24.985270684291265</v>
+        <v>23.985270684291265</v>
       </c>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.25">
@@ -11753,18 +11753,18 @@
       </c>
       <c r="E364" s="3">
         <f t="shared" si="31"/>
-        <v>-0.13855896255228087</v>
+        <v>-0.13855896255228095</v>
       </c>
       <c r="F364" s="3">
         <f t="shared" si="32"/>
-        <v>24.031441037447721</v>
+        <v>23.031441037447721</v>
       </c>
       <c r="G364" s="2">
         <v>1</v>
       </c>
       <c r="H364" s="3">
         <f t="shared" si="33"/>
-        <v>25.031441037447721</v>
+        <v>24.031441037447721</v>
       </c>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.25">
@@ -11781,18 +11781,18 @@
       </c>
       <c r="E365" s="3">
         <f t="shared" si="31"/>
-        <v>-9.2378344702979648E-2</v>
+        <v>-9.2378344702979689E-2</v>
       </c>
       <c r="F365" s="3">
         <f t="shared" si="32"/>
-        <v>24.077621655297023</v>
+        <v>23.077621655297023</v>
       </c>
       <c r="G365" s="2">
         <v>1</v>
       </c>
       <c r="H365" s="3">
         <f t="shared" si="33"/>
-        <v>25.077621655297023</v>
+        <v>24.077621655297023</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.25">
@@ -11809,18 +11809,18 @@
       </c>
       <c r="E366" s="3">
         <f t="shared" si="31"/>
-        <v>-4.6190883302629347E-2</v>
+        <v>-4.6190883302629368E-2</v>
       </c>
       <c r="F366" s="3">
         <f t="shared" si="32"/>
-        <v>24.123809116697373</v>
+        <v>23.123809116697373</v>
       </c>
       <c r="G366" s="2">
         <v>1</v>
       </c>
       <c r="H366" s="3">
         <f t="shared" si="33"/>
-        <v>25.123809116697373</v>
+        <v>24.123809116697373</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.25">
@@ -11837,18 +11837,18 @@
       </c>
       <c r="E367" s="3">
         <f t="shared" si="31"/>
-        <v>-6.5749633746762614E-16</v>
+        <v>-6.5749633746762643E-16</v>
       </c>
       <c r="F367" s="3">
         <f t="shared" si="32"/>
-        <v>24.17</v>
+        <v>23.17</v>
       </c>
       <c r="G367" s="2">
         <v>1</v>
       </c>
       <c r="H367" s="3">
         <f t="shared" si="33"/>
-        <v>25.17</v>
+        <v>24.17</v>
       </c>
     </row>
   </sheetData>

--- a/camera v0.1/exposure lookup table 2.xlsx
+++ b/camera v0.1/exposure lookup table 2.xlsx
@@ -1367,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125384576"/>
-        <c:axId val="125386112"/>
+        <c:axId val="166410496"/>
+        <c:axId val="166420480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125384576"/>
+        <c:axId val="166410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125386112"/>
+        <c:crossAx val="166420480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125386112"/>
+        <c:axId val="166420480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125384576"/>
+        <c:crossAx val="166410496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1711,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,12 +1790,12 @@
         <v>21</v>
       </c>
       <c r="AI2" s="1">
-        <f>DATE(2016,9,30)</f>
-        <v>42643</v>
+        <f>DATE(2016,9,24)</f>
+        <v>42637</v>
       </c>
       <c r="AJ2" s="1">
         <f>AI2-AI1</f>
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="45" x14ac:dyDescent="0.25">
@@ -1836,12 +1836,12 @@
         <v>23</v>
       </c>
       <c r="AI3" s="1">
-        <f>DATE(2016,4,1)</f>
-        <v>42461</v>
+        <f>DATE(2016,4,2)</f>
+        <v>42462</v>
       </c>
       <c r="AJ3" s="1">
         <f>AI3-AI1</f>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="AJ5" s="18">
         <f ca="1">NOW()</f>
-        <v>42723.984741550928</v>
+        <v>42724.912469212963</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
       <c r="I6" s="3"/>
       <c r="AJ6" s="2">
         <f ca="1">AJ5-AI1</f>
-        <v>353.98474155092845</v>
+        <v>354.91246921296261</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
